--- a/src/test/resources/unittesting/artifact/script/unitTest_web_metrics.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_web_metrics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/unittesting/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971A1743-9F65-C844-87DC-5F5033D91E08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4B7F3E-F3F9-7946-ADB0-4E0B15EDE7ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3200" yWindow="14980" windowWidth="51200" windowHeight="21020" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="57600" windowHeight="35540" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -55,10 +55,18 @@
     <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
     <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
   </definedNames>
-  <calcPr calcId="150000"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1720,9 +1728,6 @@
     <t>Open Site</t>
   </si>
   <si>
-    <t>https://www.google.com</t>
-  </si>
-  <si>
     <t>css=#hplogo</t>
   </si>
   <si>
@@ -1772,6 +1777,9 @@
   </si>
   <si>
     <t>css=.pn</t>
+  </si>
+  <si>
+    <t>${site1.url}</t>
   </si>
 </sst>
 </file>
@@ -4378,9 +4386,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4526,7 +4534,7 @@
         <v>193</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>550</v>
+        <v>567</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -4549,7 +4557,7 @@
         <v>163</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -4572,7 +4580,7 @@
         <v>163</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -4587,7 +4595,7 @@
     </row>
     <row r="8" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>52</v>
@@ -4609,7 +4617,7 @@
     </row>
     <row r="9" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="13" t="s">
@@ -4619,10 +4627,10 @@
         <v>157</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -4644,7 +4652,7 @@
         <v>75</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -4667,7 +4675,7 @@
         <v>163</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -4690,10 +4698,10 @@
         <v>196</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -4715,10 +4723,10 @@
         <v>26</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>563</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>564</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -4733,7 +4741,7 @@
     <row r="14" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="27"/>
       <c r="B14" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>52</v>
@@ -4742,7 +4750,7 @@
         <v>75</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -4765,10 +4773,10 @@
         <v>196</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -4790,10 +4798,10 @@
         <v>26</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -4808,7 +4816,7 @@
     <row r="17" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="27"/>
       <c r="B17" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>52</v>
@@ -4817,7 +4825,7 @@
         <v>75</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
@@ -4861,10 +4869,10 @@
         <v>196</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -4886,10 +4894,10 @@
         <v>26</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>563</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>564</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
@@ -9707,7 +9715,7 @@
       <formula>LEFT(N102,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C301" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>target</formula1>
     </dataValidation>

--- a/src/test/resources/unittesting/artifact/script/unitTest_web_metrics.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_web_metrics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/unittesting/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0841F05C-242D-9346-AFA9-BB7C582B6C75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F833599-EF3A-E34B-BD75-EAF2B7E6A259}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2380" yWindow="6220" windowWidth="51200" windowHeight="24240" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2380" yWindow="6220" windowWidth="51200" windowHeight="24240" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -1751,15 +1751,6 @@
     <t>css=.rc</t>
   </si>
   <si>
-    <t>//td/a[text()='10']</t>
-  </si>
-  <si>
-    <t>go to page 10</t>
-  </si>
-  <si>
-    <t>10thPageMatchCount</t>
-  </si>
-  <si>
     <t>1stPageMatchCount</t>
   </si>
   <si>
@@ -1769,9 +1760,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>${10thPageMatchCount}</t>
-  </si>
-  <si>
     <t>back to page 1 to see its impact to client</t>
   </si>
   <si>
@@ -1857,6 +1845,18 @@
   </si>
   <si>
     <t>css=.result h2 a</t>
+  </si>
+  <si>
+    <t>go to page 7</t>
+  </si>
+  <si>
+    <t>//td/a[text()='7']</t>
+  </si>
+  <si>
+    <t>7thPageMatchCount</t>
+  </si>
+  <si>
+    <t>${7thPageMatchCount}</t>
   </si>
 </sst>
 </file>
@@ -4587,9 +4587,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O301"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4735,7 +4735,7 @@
         <v>193</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -4831,7 +4831,7 @@
         <v>551</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -4899,7 +4899,7 @@
         <v>196</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>556</v>
@@ -4924,10 +4924,10 @@
         <v>26</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -4942,7 +4942,7 @@
     <row r="14" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="27"/>
       <c r="B14" s="9" t="s">
-        <v>558</v>
+        <v>589</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>52</v>
@@ -4951,7 +4951,7 @@
         <v>75</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>557</v>
+        <v>590</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -4974,7 +4974,7 @@
         <v>196</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>559</v>
+        <v>591</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>556</v>
@@ -4999,10 +4999,10 @@
         <v>26</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>563</v>
+        <v>592</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -5017,7 +5017,7 @@
     <row r="17" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="27"/>
       <c r="B17" s="5" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>52</v>
@@ -5026,7 +5026,7 @@
         <v>75</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
@@ -5070,7 +5070,7 @@
         <v>196</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>556</v>
@@ -5095,10 +5095,10 @@
         <v>26</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
@@ -5119,7 +5119,7 @@
         <v>193</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
@@ -10086,7 +10086,7 @@
         <v>193</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -10109,7 +10109,7 @@
         <v>163</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -10132,7 +10132,7 @@
         <v>163</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -10179,10 +10179,10 @@
         <v>157</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -10204,7 +10204,7 @@
         <v>75</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -10227,7 +10227,7 @@
         <v>163</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -10250,10 +10250,10 @@
         <v>196</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -10275,10 +10275,10 @@
         <v>26</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -10293,7 +10293,7 @@
     <row r="14" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="27"/>
       <c r="B14" s="9" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>52</v>
@@ -10302,7 +10302,7 @@
         <v>75</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -10325,10 +10325,10 @@
         <v>196</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -10350,10 +10350,10 @@
         <v>26</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -10368,7 +10368,7 @@
     <row r="17" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="27"/>
       <c r="B17" s="5" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>52</v>
@@ -10377,7 +10377,7 @@
         <v>75</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
@@ -10421,10 +10421,10 @@
         <v>196</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -10446,10 +10446,10 @@
         <v>26</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
@@ -10470,7 +10470,7 @@
         <v>193</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
@@ -15289,7 +15289,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3D818EF-5B2F-0749-B2BD-AA7BB51B9894}">
   <dimension ref="A1:O301"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
@@ -15437,7 +15437,7 @@
         <v>193</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -15460,7 +15460,7 @@
         <v>163</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -15483,7 +15483,7 @@
         <v>163</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -15530,10 +15530,10 @@
         <v>157</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -15555,7 +15555,7 @@
         <v>75</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -15578,7 +15578,7 @@
         <v>163</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -15601,10 +15601,10 @@
         <v>196</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -15626,10 +15626,10 @@
         <v>26</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -15644,7 +15644,7 @@
     <row r="14" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="27"/>
       <c r="B14" s="9" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>52</v>
@@ -15653,7 +15653,7 @@
         <v>75</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -15676,10 +15676,10 @@
         <v>196</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -15701,10 +15701,10 @@
         <v>26</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -15719,7 +15719,7 @@
     <row r="17" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="27"/>
       <c r="B17" s="5" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>52</v>
@@ -15728,7 +15728,7 @@
         <v>75</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
@@ -15772,10 +15772,10 @@
         <v>196</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -15797,10 +15797,10 @@
         <v>26</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
@@ -15821,7 +15821,7 @@
         <v>193</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>

--- a/src/test/resources/unittesting/artifact/script/unitTest_web_metrics.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_web_metrics.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr documentId="13_ncr:1_{0F833599-EF3A-E34B-BD75-EAF2B7E6A259}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="500" windowHeight="24240" windowWidth="51200" xWindow="2380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="6220" firstSheet="1"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="24240" windowWidth="51200" xWindow="2380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="6220"/>
   </bookViews>
   <sheets>
     <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1944" uniqueCount="598">
   <si>
     <t>description</t>
   </si>
@@ -1879,7 +1879,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="43" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2057,8 +2057,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="31">
+  <fills count="58">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2230,8 +2331,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="35">
+  <borders count="67">
     <border>
       <left/>
       <right/>
@@ -2595,6 +2849,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -2602,7 +3182,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="70">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2735,52 +3315,100 @@
     <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="10" fillId="6" fontId="11" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="14" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="9" fontId="13" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="12" fontId="14" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="15" fontId="15" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="18" fontId="17" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="26" fillId="21" fontId="19" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="12" fontId="20" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="34" fillId="24" fontId="21" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="34" fillId="24" fontId="22" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="23" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="27" fontId="24" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="25" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="26" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="36" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="42" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="48" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="39" borderId="62" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="51" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="51" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3257,7 +3885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF137"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -5244,7 +5872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P301"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0" zoomScaleNormal="100" zoomScale="100">
+    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -10597,7 +11225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EC92655-763B-2247-A204-5162177073D9}">
   <dimension ref="A1:P301"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -15950,7 +16578,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3D818EF-5B2F-0749-B2BD-AA7BB51B9894}">
   <dimension ref="A1:P301"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>

--- a/src/test/resources/unittesting/artifact/script/unitTest_web_metrics.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_web_metrics.xlsx
@@ -50,7 +50,7 @@
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$137</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$138</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1944" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3076" uniqueCount="599">
   <si>
     <t>description</t>
   </si>
@@ -1872,6 +1872,9 @@
   </si>
   <si>
     <t>saveSelectedValue(var,locator)</t>
+  </si>
+  <si>
+    <t>saveBrowserVersion(var)</t>
   </si>
 </sst>
 </file>
@@ -1879,7 +1882,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="43" x14ac:knownFonts="1">
+  <fonts count="75" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2158,8 +2161,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="58">
+  <fills count="112">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2484,8 +2689,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="67">
+  <borders count="131">
     <border>
       <left/>
       <right/>
@@ -3175,6 +3686,658 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3182,7 +4345,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="102">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3363,52 +4526,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="26" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="33" fontId="27" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="36" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="46" fillId="36" fontId="29" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="50" fillId="39" fontId="30" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="42" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="54" fillId="42" fontId="31" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="45" fontId="33" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="48" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="48" fontId="35" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="39" borderId="62" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="62" fillId="39" fontId="36" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="51" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="51" fontId="37" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="51" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="51" fontId="38" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="39" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="54" fontId="40" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="41" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="57" fontId="42" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="60" fontId="43" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="44" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="78" fillId="63" fontId="45" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="82" fillId="66" fontId="46" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="69" fontId="47" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="48" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="72" fontId="49" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="50" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="90" fillId="75" fontId="51" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="94" fillId="66" fontId="52" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="78" fontId="53" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="78" fontId="54" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="55" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="81" fontId="56" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="57" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="58" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="87" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="90" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="93" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="96" borderId="118" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="102" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="93" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="105" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="105" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3883,7 +5142,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF137"/>
+  <dimension ref="A1:AF138"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -5593,7 +6852,7 @@
         <v>266</v>
       </c>
       <c r="Z89" t="s">
-        <v>196</v>
+        <v>598</v>
       </c>
     </row>
     <row r="90">
@@ -5601,7 +6860,7 @@
         <v>283</v>
       </c>
       <c r="Z90" t="s">
-        <v>446</v>
+        <v>196</v>
       </c>
     </row>
     <row r="91">
@@ -5609,7 +6868,7 @@
         <v>267</v>
       </c>
       <c r="Z91" t="s">
-        <v>197</v>
+        <v>446</v>
       </c>
     </row>
     <row r="92">
@@ -5617,7 +6876,7 @@
         <v>268</v>
       </c>
       <c r="Z92" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="93">
@@ -5625,7 +6884,7 @@
         <v>300</v>
       </c>
       <c r="Z93" t="s">
-        <v>537</v>
+        <v>198</v>
       </c>
     </row>
     <row r="94">
@@ -5633,7 +6892,7 @@
         <v>306</v>
       </c>
       <c r="Z94" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="95">
@@ -5641,7 +6900,7 @@
         <v>290</v>
       </c>
       <c r="Z95" t="s">
-        <v>211</v>
+        <v>538</v>
       </c>
     </row>
     <row r="96">
@@ -5649,7 +6908,7 @@
         <v>335</v>
       </c>
       <c r="Z96" t="s">
-        <v>144</v>
+        <v>211</v>
       </c>
     </row>
     <row r="97">
@@ -5657,7 +6916,7 @@
         <v>272</v>
       </c>
       <c r="Z97" t="s">
-        <v>199</v>
+        <v>144</v>
       </c>
     </row>
     <row r="98">
@@ -5665,201 +6924,206 @@
         <v>273</v>
       </c>
       <c r="Z98" t="s">
-        <v>434</v>
+        <v>199</v>
       </c>
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>596</v>
+        <v>434</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>435</v>
+        <v>597</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>200</v>
+        <v>435</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>490</v>
+        <v>204</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>541</v>
+        <v>490</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>514</v>
+        <v>541</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>145</v>
+        <v>514</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>515</v>
+        <v>145</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>375</v>
+        <v>515</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>146</v>
+        <v>375</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>436</v>
+        <v>158</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>159</v>
+        <v>436</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>535</v>
+        <v>159</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>160</v>
+        <v>535</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>46</v>
+        <v>162</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>163</v>
+        <v>46</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="136">
       <c r="Z136" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="137">
       <c r="Z137" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="Z138" t="s">
         <v>166</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_web_metrics.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_web_metrics.xlsx
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3076" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3642" uniqueCount="599">
   <si>
     <t>description</t>
   </si>
@@ -1882,7 +1882,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="75" x14ac:knownFonts="1">
+  <fonts count="91" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2363,8 +2363,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="112">
+  <fills count="139">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2995,8 +3096,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="131">
+  <borders count="163">
     <border>
       <left/>
       <right/>
@@ -4338,6 +4592,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4345,7 +4925,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="118">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4622,52 +5202,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="58" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="87" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="106" fillId="87" fontId="59" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="60" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="90" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="110" fillId="90" fontId="61" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="93" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="93" fontId="62" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="96" borderId="118" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="118" fillId="96" fontId="63" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="64" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="99" fontId="65" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="66" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="102" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="122" fillId="102" fontId="67" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="93" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="126" fillId="93" fontId="68" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="105" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="105" fontId="69" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="105" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="105" fontId="70" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="71" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="72" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="73" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="74" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="114" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="117" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="120" borderId="146" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="123" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="126" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="129" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="120" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="132" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="132" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_web_metrics.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_web_metrics.xlsx
@@ -28,7 +28,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$14</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$15</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
@@ -41,7 +41,7 @@
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$16</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$17</definedName>
     <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
@@ -50,9 +50,9 @@
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$138</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$144</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$10</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
     <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
     <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3642" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4218" uniqueCount="609">
   <si>
     <t>description</t>
   </si>
@@ -1875,6 +1875,36 @@
   </si>
   <si>
     <t>saveBrowserVersion(var)</t>
+  </si>
+  <si>
+    <t>saveTotalDataCount(file,worksheet,saveVar)</t>
+  </si>
+  <si>
+    <t>saveAsPdf(profile,content,file)</t>
+  </si>
+  <si>
+    <t>assertElementEnabled(locator)</t>
+  </si>
+  <si>
+    <t>saveTitle(var)</t>
+  </si>
+  <si>
+    <t>selectAllOptions(locator)</t>
+  </si>
+  <si>
+    <t>selectMultiByValue(locator,array)</t>
+  </si>
+  <si>
+    <t>switchBrowser(profile,config)</t>
+  </si>
+  <si>
+    <t>waitForElementsPresent(locators)</t>
+  </si>
+  <si>
+    <t>clearCookieFields(var,remove)</t>
+  </si>
+  <si>
+    <t>saveAllAsText(var,exclude)</t>
   </si>
 </sst>
 </file>
@@ -1882,7 +1912,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="91" x14ac:knownFonts="1">
+  <fonts count="107" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2464,8 +2494,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="139">
+  <fills count="166">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3249,8 +3380,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="163">
+  <borders count="195">
     <border>
       <left/>
       <right/>
@@ -4918,6 +5202,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4925,7 +5535,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="134">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5250,52 +5860,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="74" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="114" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="138" fillId="114" fontId="75" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="76" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="117" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="117" fontId="77" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="120" borderId="146" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="146" fillId="120" fontId="78" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="123" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="150" fillId="123" fontId="79" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="80" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="126" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="126" fontId="81" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="82" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="129" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="154" fillId="129" fontId="83" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="120" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="120" fontId="84" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="132" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="132" fontId="85" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="132" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="132" fontId="86" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="87" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="88" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="89" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="138" fontId="90" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="141" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="144" borderId="174" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="147" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="150" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="153" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="156" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="147" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="159" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="159" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5770,7 +6428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF138"/>
+  <dimension ref="A1:AF144"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -6202,7 +6860,7 @@
         <v>170</v>
       </c>
       <c r="AB5" t="s">
-        <v>175</v>
+        <v>607</v>
       </c>
       <c r="AC5" t="s">
         <v>181</v>
@@ -6273,7 +6931,7 @@
         <v>437</v>
       </c>
       <c r="AB6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AC6" t="s">
         <v>182</v>
@@ -6335,7 +6993,7 @@
         <v>438</v>
       </c>
       <c r="AB7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AC7" t="s">
         <v>183</v>
@@ -6391,7 +7049,7 @@
         <v>171</v>
       </c>
       <c r="AB8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AC8" t="s">
         <v>184</v>
@@ -6443,6 +7101,9 @@
       <c r="Z9" t="s">
         <v>205</v>
       </c>
+      <c r="AB9" t="s">
+        <v>178</v>
+      </c>
       <c r="AC9" t="s">
         <v>185</v>
       </c>
@@ -6461,7 +7122,7 @@
         <v>301</v>
       </c>
       <c r="I10" t="s">
-        <v>444</v>
+        <v>599</v>
       </c>
       <c r="L10" t="s">
         <v>78</v>
@@ -6483,6 +7144,9 @@
       </c>
       <c r="Z10" t="s">
         <v>252</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>608</v>
       </c>
       <c r="AC10" t="s">
         <v>186</v>
@@ -6502,7 +7166,7 @@
         <v>347</v>
       </c>
       <c r="I11" t="s">
-        <v>317</v>
+        <v>444</v>
       </c>
       <c r="L11" t="s">
         <v>37</v>
@@ -6540,7 +7204,7 @@
         <v>269</v>
       </c>
       <c r="I12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L12" t="s">
         <v>478</v>
@@ -6578,7 +7242,7 @@
         <v>258</v>
       </c>
       <c r="I13" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L13" t="s">
         <v>382</v>
@@ -6590,7 +7254,7 @@
         <v>92</v>
       </c>
       <c r="S13" t="s">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="Z13" t="s">
         <v>321</v>
@@ -6613,7 +7277,7 @@
         <v>311</v>
       </c>
       <c r="I14" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L14" t="s">
         <v>17</v>
@@ -6625,7 +7289,7 @@
         <v>93</v>
       </c>
       <c r="S14" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Z14" t="s">
         <v>100</v>
@@ -6647,6 +7311,9 @@
       <c r="H15" t="s">
         <v>259</v>
       </c>
+      <c r="I15" t="s">
+        <v>320</v>
+      </c>
       <c r="L15" t="s">
         <v>41</v>
       </c>
@@ -6657,10 +7324,10 @@
         <v>483</v>
       </c>
       <c r="S15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="Z15" t="s">
-        <v>101</v>
+        <v>601</v>
       </c>
       <c r="AC15" t="s">
         <v>190</v>
@@ -6689,10 +7356,10 @@
         <v>484</v>
       </c>
       <c r="S16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Z16" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="AC16" t="s">
         <v>191</v>
@@ -6717,8 +7384,11 @@
       <c r="N17" t="s">
         <v>39</v>
       </c>
+      <c r="S17" t="s">
+        <v>248</v>
+      </c>
       <c r="Z17" t="s">
-        <v>485</v>
+        <v>73</v>
       </c>
       <c r="AC17" t="s">
         <v>459</v>
@@ -6744,7 +7414,7 @@
         <v>42</v>
       </c>
       <c r="Z18" t="s">
-        <v>102</v>
+        <v>485</v>
       </c>
       <c r="AE18" t="s">
         <v>467</v>
@@ -6764,7 +7434,7 @@
         <v>455</v>
       </c>
       <c r="Z19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AE19" t="s">
         <v>496</v>
@@ -6784,7 +7454,7 @@
         <v>81</v>
       </c>
       <c r="Z20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AE20" t="s">
         <v>497</v>
@@ -6804,7 +7474,7 @@
         <v>82</v>
       </c>
       <c r="Z21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AE21" t="s">
         <v>498</v>
@@ -6824,7 +7494,7 @@
         <v>546</v>
       </c>
       <c r="Z22" t="s">
-        <v>486</v>
+        <v>105</v>
       </c>
       <c r="AE22" t="s">
         <v>231</v>
@@ -6844,7 +7514,7 @@
         <v>462</v>
       </c>
       <c r="Z23" t="s">
-        <v>106</v>
+        <v>486</v>
       </c>
       <c r="AE23" t="s">
         <v>523</v>
@@ -6864,7 +7534,7 @@
         <v>43</v>
       </c>
       <c r="Z24" t="s">
-        <v>533</v>
+        <v>106</v>
       </c>
       <c r="AE24" t="s">
         <v>524</v>
@@ -6884,7 +7554,7 @@
         <v>384</v>
       </c>
       <c r="Z25" t="s">
-        <v>107</v>
+        <v>533</v>
       </c>
       <c r="AE25" t="s">
         <v>525</v>
@@ -6904,7 +7574,7 @@
         <v>516</v>
       </c>
       <c r="Z26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AE26" t="s">
         <v>232</v>
@@ -6924,7 +7594,7 @@
         <v>83</v>
       </c>
       <c r="Z27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AE27" t="s">
         <v>233</v>
@@ -6944,7 +7614,7 @@
         <v>426</v>
       </c>
       <c r="Z28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29">
@@ -6961,7 +7631,7 @@
         <v>44</v>
       </c>
       <c r="Z29" t="s">
-        <v>322</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30">
@@ -6978,7 +7648,7 @@
         <v>45</v>
       </c>
       <c r="Z30" t="s">
-        <v>111</v>
+        <v>322</v>
       </c>
     </row>
     <row r="31">
@@ -6992,7 +7662,7 @@
         <v>212</v>
       </c>
       <c r="Z31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32">
@@ -7003,7 +7673,7 @@
         <v>270</v>
       </c>
       <c r="Z32" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33">
@@ -7014,7 +7684,7 @@
         <v>280</v>
       </c>
       <c r="Z33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34">
@@ -7025,7 +7695,7 @@
         <v>501</v>
       </c>
       <c r="Z34" t="s">
-        <v>534</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35">
@@ -7036,7 +7706,7 @@
         <v>255</v>
       </c>
       <c r="Z35" t="s">
-        <v>115</v>
+        <v>534</v>
       </c>
     </row>
     <row r="36">
@@ -7047,7 +7717,7 @@
         <v>325</v>
       </c>
       <c r="Z36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37">
@@ -7058,7 +7728,7 @@
         <v>302</v>
       </c>
       <c r="Z37" t="s">
-        <v>206</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38">
@@ -7069,7 +7739,7 @@
         <v>256</v>
       </c>
       <c r="Z38" t="s">
-        <v>117</v>
+        <v>206</v>
       </c>
     </row>
     <row r="39">
@@ -7080,7 +7750,7 @@
         <v>303</v>
       </c>
       <c r="Z39" t="s">
-        <v>333</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40">
@@ -7088,7 +7758,7 @@
         <v>262</v>
       </c>
       <c r="Z40" t="s">
-        <v>430</v>
+        <v>333</v>
       </c>
     </row>
     <row r="41">
@@ -7096,7 +7766,7 @@
         <v>76</v>
       </c>
       <c r="Z41" t="s">
-        <v>544</v>
+        <v>430</v>
       </c>
     </row>
     <row r="42">
@@ -7104,7 +7774,7 @@
         <v>208</v>
       </c>
       <c r="Z42" t="s">
-        <v>385</v>
+        <v>544</v>
       </c>
     </row>
     <row r="43">
@@ -7112,7 +7782,7 @@
         <v>530</v>
       </c>
       <c r="Z43" t="s">
-        <v>118</v>
+        <v>385</v>
       </c>
     </row>
     <row r="44">
@@ -7120,7 +7790,7 @@
         <v>284</v>
       </c>
       <c r="Z44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45">
@@ -7128,7 +7798,7 @@
         <v>295</v>
       </c>
       <c r="Z45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46">
@@ -7136,7 +7806,7 @@
         <v>296</v>
       </c>
       <c r="Z46" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47">
@@ -7144,7 +7814,7 @@
         <v>338</v>
       </c>
       <c r="Z47" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48">
@@ -7152,7 +7822,7 @@
         <v>337</v>
       </c>
       <c r="Z48" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49">
@@ -7160,7 +7830,7 @@
         <v>207</v>
       </c>
       <c r="Z49" t="s">
-        <v>431</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50">
@@ -7168,7 +7838,7 @@
         <v>315</v>
       </c>
       <c r="Z50" t="s">
-        <v>209</v>
+        <v>431</v>
       </c>
     </row>
     <row r="51">
@@ -7176,7 +7846,7 @@
         <v>334</v>
       </c>
       <c r="Z51" t="s">
-        <v>75</v>
+        <v>209</v>
       </c>
     </row>
     <row r="52">
@@ -7184,7 +7854,7 @@
         <v>361</v>
       </c>
       <c r="Z52" t="s">
-        <v>527</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53">
@@ -7192,7 +7862,7 @@
         <v>297</v>
       </c>
       <c r="Z53" t="s">
-        <v>124</v>
+        <v>527</v>
       </c>
     </row>
     <row r="54">
@@ -7200,7 +7870,7 @@
         <v>349</v>
       </c>
       <c r="Z54" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55">
@@ -7208,7 +7878,7 @@
         <v>326</v>
       </c>
       <c r="Z55" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56">
@@ -7216,7 +7886,7 @@
         <v>263</v>
       </c>
       <c r="Z56" t="s">
-        <v>487</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57">
@@ -7224,7 +7894,7 @@
         <v>287</v>
       </c>
       <c r="Z57" t="s">
-        <v>456</v>
+        <v>487</v>
       </c>
     </row>
     <row r="58">
@@ -7232,7 +7902,7 @@
         <v>288</v>
       </c>
       <c r="Z58" t="s">
-        <v>127</v>
+        <v>456</v>
       </c>
     </row>
     <row r="59">
@@ -7240,7 +7910,7 @@
         <v>531</v>
       </c>
       <c r="Z59" t="s">
-        <v>341</v>
+        <v>127</v>
       </c>
     </row>
     <row r="60">
@@ -7248,7 +7918,7 @@
         <v>289</v>
       </c>
       <c r="Z60" t="s">
-        <v>457</v>
+        <v>341</v>
       </c>
     </row>
     <row r="61">
@@ -7256,7 +7926,7 @@
         <v>298</v>
       </c>
       <c r="Z61" t="s">
-        <v>128</v>
+        <v>457</v>
       </c>
     </row>
     <row r="62">
@@ -7264,7 +7934,7 @@
         <v>307</v>
       </c>
       <c r="Z62" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="63">
@@ -7272,7 +7942,7 @@
         <v>332</v>
       </c>
       <c r="Z63" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="64">
@@ -7280,7 +7950,7 @@
         <v>304</v>
       </c>
       <c r="Z64" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="65">
@@ -7288,7 +7958,7 @@
         <v>305</v>
       </c>
       <c r="Z65" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="66">
@@ -7296,7 +7966,7 @@
         <v>362</v>
       </c>
       <c r="Z66" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="67">
@@ -7304,7 +7974,7 @@
         <v>363</v>
       </c>
       <c r="Z67" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="68">
@@ -7312,7 +7982,7 @@
         <v>340</v>
       </c>
       <c r="Z68" t="s">
-        <v>432</v>
+        <v>134</v>
       </c>
     </row>
     <row r="69">
@@ -7320,7 +7990,7 @@
         <v>308</v>
       </c>
       <c r="Z69" t="s">
-        <v>465</v>
+        <v>432</v>
       </c>
     </row>
     <row r="70">
@@ -7328,7 +7998,7 @@
         <v>264</v>
       </c>
       <c r="Z70" t="s">
-        <v>210</v>
+        <v>465</v>
       </c>
     </row>
     <row r="71">
@@ -7336,7 +8006,7 @@
         <v>517</v>
       </c>
       <c r="Z71" t="s">
-        <v>381</v>
+        <v>210</v>
       </c>
     </row>
     <row r="72">
@@ -7344,7 +8014,7 @@
         <v>309</v>
       </c>
       <c r="Z72" t="s">
-        <v>433</v>
+        <v>381</v>
       </c>
     </row>
     <row r="73">
@@ -7352,7 +8022,7 @@
         <v>402</v>
       </c>
       <c r="Z73" t="s">
-        <v>135</v>
+        <v>433</v>
       </c>
     </row>
     <row r="74">
@@ -7360,7 +8030,7 @@
         <v>299</v>
       </c>
       <c r="Z74" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="75">
@@ -7368,7 +8038,7 @@
         <v>403</v>
       </c>
       <c r="Z75" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="76">
@@ -7376,7 +8046,7 @@
         <v>257</v>
       </c>
       <c r="Z76" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="77">
@@ -7384,7 +8054,7 @@
         <v>502</v>
       </c>
       <c r="Z77" t="s">
-        <v>193</v>
+        <v>138</v>
       </c>
     </row>
     <row r="78">
@@ -7392,7 +8062,7 @@
         <v>339</v>
       </c>
       <c r="Z78" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="79">
@@ -7400,7 +8070,7 @@
         <v>275</v>
       </c>
       <c r="Z79" t="s">
-        <v>445</v>
+        <v>194</v>
       </c>
     </row>
     <row r="80">
@@ -7408,7 +8078,7 @@
         <v>281</v>
       </c>
       <c r="Z80" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
     </row>
     <row r="81">
@@ -7416,7 +8086,7 @@
         <v>286</v>
       </c>
       <c r="Z81" t="s">
-        <v>139</v>
+        <v>458</v>
       </c>
     </row>
     <row r="82">
@@ -7424,7 +8094,7 @@
         <v>421</v>
       </c>
       <c r="Z82" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="83">
@@ -7432,7 +8102,7 @@
         <v>327</v>
       </c>
       <c r="Z83" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="84">
@@ -7440,7 +8110,7 @@
         <v>265</v>
       </c>
       <c r="Z84" t="s">
-        <v>488</v>
+        <v>141</v>
       </c>
     </row>
     <row r="85">
@@ -7448,7 +8118,7 @@
         <v>276</v>
       </c>
       <c r="Z85" t="s">
-        <v>142</v>
+        <v>488</v>
       </c>
     </row>
     <row r="86">
@@ -7456,7 +8126,7 @@
         <v>282</v>
       </c>
       <c r="Z86" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="87">
@@ -7464,7 +8134,7 @@
         <v>271</v>
       </c>
       <c r="Z87" t="s">
-        <v>195</v>
+        <v>143</v>
       </c>
     </row>
     <row r="88">
@@ -7472,7 +8142,7 @@
         <v>519</v>
       </c>
       <c r="Z88" t="s">
-        <v>489</v>
+        <v>195</v>
       </c>
     </row>
     <row r="89">
@@ -7480,7 +8150,7 @@
         <v>266</v>
       </c>
       <c r="Z89" t="s">
-        <v>598</v>
+        <v>489</v>
       </c>
     </row>
     <row r="90">
@@ -7488,7 +8158,7 @@
         <v>283</v>
       </c>
       <c r="Z90" t="s">
-        <v>196</v>
+        <v>598</v>
       </c>
     </row>
     <row r="91">
@@ -7496,7 +8166,7 @@
         <v>267</v>
       </c>
       <c r="Z91" t="s">
-        <v>446</v>
+        <v>196</v>
       </c>
     </row>
     <row r="92">
@@ -7504,7 +8174,7 @@
         <v>268</v>
       </c>
       <c r="Z92" t="s">
-        <v>197</v>
+        <v>446</v>
       </c>
     </row>
     <row r="93">
@@ -7512,7 +8182,7 @@
         <v>300</v>
       </c>
       <c r="Z93" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="94">
@@ -7520,7 +8190,7 @@
         <v>306</v>
       </c>
       <c r="Z94" t="s">
-        <v>537</v>
+        <v>198</v>
       </c>
     </row>
     <row r="95">
@@ -7528,7 +8198,7 @@
         <v>290</v>
       </c>
       <c r="Z95" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="96">
@@ -7536,7 +8206,7 @@
         <v>335</v>
       </c>
       <c r="Z96" t="s">
-        <v>211</v>
+        <v>538</v>
       </c>
     </row>
     <row r="97">
@@ -7544,7 +8214,7 @@
         <v>272</v>
       </c>
       <c r="Z97" t="s">
-        <v>144</v>
+        <v>211</v>
       </c>
     </row>
     <row r="98">
@@ -7552,206 +8222,236 @@
         <v>273</v>
       </c>
       <c r="Z98" t="s">
-        <v>199</v>
+        <v>144</v>
       </c>
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>434</v>
+        <v>199</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>596</v>
+        <v>434</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>435</v>
+        <v>597</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>200</v>
+        <v>435</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>490</v>
+        <v>602</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>541</v>
+        <v>204</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>514</v>
+        <v>490</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>145</v>
+        <v>541</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>375</v>
+        <v>145</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>146</v>
+        <v>515</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>147</v>
+        <v>375</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>150</v>
+        <v>603</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>153</v>
+        <v>604</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>436</v>
+        <v>155</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>159</v>
+        <v>605</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>535</v>
+        <v>156</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>162</v>
+        <v>436</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>46</v>
+        <v>159</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
-        <v>163</v>
+        <v>535</v>
       </c>
     </row>
     <row r="136">
       <c r="Z136" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="137">
       <c r="Z137" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="138">
       <c r="Z138" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="Z139" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="Z140" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="Z141" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="Z142" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="Z143" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="Z144" t="s">
         <v>166</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_web_metrics.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_web_metrics.xlsx
@@ -28,7 +28,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$15</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4218" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4795" uniqueCount="611">
   <si>
     <t>description</t>
   </si>
@@ -1905,6 +1905,12 @@
   </si>
   <si>
     <t>saveAllAsText(var,exclude)</t>
+  </si>
+  <si>
+    <t>saveTotalColumnCount(file,worksheet,row,saveVar)</t>
+  </si>
+  <si>
+    <t>saveTotalRowCount(file,worksheet,saveVar)</t>
   </si>
 </sst>
 </file>
@@ -1912,7 +1918,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="107" x14ac:knownFonts="1">
+  <fonts count="123" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2595,8 +2601,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="166">
+  <fills count="193">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3533,8 +3640,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="195">
+  <borders count="227">
     <border>
       <left/>
       <right/>
@@ -5528,6 +5788,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5535,7 +6121,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="150">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5908,52 +6494,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="138" fontId="90" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="141" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="141" fontId="91" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="92" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="144" borderId="174" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="174" fillId="144" fontId="93" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="147" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="178" fillId="147" fontId="94" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="150" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="182" fillId="150" fontId="95" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="96" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="153" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="153" fontId="97" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="98" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="156" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="156" fontId="99" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="147" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="190" fillId="147" fontId="100" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="159" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="159" fontId="101" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="159" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="159" fontId="102" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="103" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="104" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="162" fontId="104" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="105" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="105" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="106" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="106" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="168" borderId="202" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="171" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="174" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="177" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="180" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="183" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="174" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="186" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="186" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7122,7 +7756,7 @@
         <v>301</v>
       </c>
       <c r="I10" t="s">
-        <v>599</v>
+        <v>609</v>
       </c>
       <c r="L10" t="s">
         <v>78</v>
@@ -7166,7 +7800,7 @@
         <v>347</v>
       </c>
       <c r="I11" t="s">
-        <v>444</v>
+        <v>610</v>
       </c>
       <c r="L11" t="s">
         <v>37</v>
@@ -7204,7 +7838,7 @@
         <v>269</v>
       </c>
       <c r="I12" t="s">
-        <v>317</v>
+        <v>444</v>
       </c>
       <c r="L12" t="s">
         <v>478</v>
@@ -7242,7 +7876,7 @@
         <v>258</v>
       </c>
       <c r="I13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L13" t="s">
         <v>382</v>
@@ -7277,7 +7911,7 @@
         <v>311</v>
       </c>
       <c r="I14" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L14" t="s">
         <v>17</v>
@@ -7312,7 +7946,7 @@
         <v>259</v>
       </c>
       <c r="I15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L15" t="s">
         <v>41</v>
@@ -7345,6 +7979,9 @@
       </c>
       <c r="H16" t="s">
         <v>260</v>
+      </c>
+      <c r="I16" t="s">
+        <v>320</v>
       </c>
       <c r="L16" t="s">
         <v>479</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_web_metrics.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_web_metrics.xlsx
@@ -30,7 +30,7 @@
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
-    <definedName name="image">'#system'!$K$2:$K$7</definedName>
+    <definedName name="image">'#system'!$K$2:$K$8</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
@@ -48,14 +48,15 @@
     <definedName name="sound">'#system'!$W$2:$W$5</definedName>
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="target">'#system'!$A$2:$A$32</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$144</definedName>
-    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$10</definedName>
-    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
-    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
-    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$144</definedName>
+    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
+    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
+    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
+    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
+    <definedName name="tn.5250">'#system'!$Z$2:$Z$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -78,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4795" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5965" uniqueCount="620">
   <si>
     <t>description</t>
   </si>
@@ -1911,6 +1912,33 @@
   </si>
   <si>
     <t>saveTotalRowCount(file,worksheet,saveVar)</t>
+  </si>
+  <si>
+    <t>tn.5250</t>
+  </si>
+  <si>
+    <t>ocr(source,saveVar)</t>
+  </si>
+  <si>
+    <t>close(profile)</t>
+  </si>
+  <si>
+    <t>open(profile)</t>
+  </si>
+  <si>
+    <t>saveText(profile,var)</t>
+  </si>
+  <si>
+    <t>typeKeys(profile,keystrokes)</t>
+  </si>
+  <si>
+    <t>updateScreenFields(profile)</t>
+  </si>
+  <si>
+    <t>colorbit(image,bit,saveTo)</t>
+  </si>
+  <si>
+    <t>ocr(image,saveVar)</t>
   </si>
 </sst>
 </file>
@@ -1918,7 +1946,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="123" x14ac:knownFonts="1">
+  <fonts count="155" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2702,8 +2730,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="193">
+  <fills count="247">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3793,8 +4023,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="227">
+  <borders count="291">
     <border>
       <left/>
       <right/>
@@ -6114,6 +6650,658 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6121,7 +7309,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="182">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6542,52 +7730,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="106" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="107" fillId="168" borderId="202" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="202" fillId="168" fontId="107" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="108" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="109" fillId="171" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="206" fillId="171" fontId="109" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="110" fillId="174" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="210" fillId="174" fontId="110" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="111" fillId="177" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="177" fontId="111" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="112" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="113" fillId="180" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="180" fontId="113" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="114" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="115" fillId="183" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="218" fillId="183" fontId="115" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="116" fillId="174" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="222" fillId="174" fontId="116" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="117" fillId="186" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="186" fontId="117" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="118" fillId="186" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="186" fontId="118" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="119" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="119" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="120" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="189" fontId="120" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="121" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="121" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="122" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="122" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="234" fillId="195" fontId="123" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="124" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="238" fillId="198" fontId="125" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="201" fontId="126" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="246" fillId="204" fontId="127" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="128" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="207" fontId="129" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="130" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="250" fillId="210" fontId="131" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="201" fontId="132" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="258" fillId="213" fontId="133" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="258" fillId="213" fontId="134" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="135" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="216" fontId="136" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="137" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="219" fontId="138" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="222" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="225" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="228" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="231" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="234" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="237" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="228" borderId="286" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="240" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="240" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7062,7 +8346,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF144"/>
+  <dimension ref="A1:AG144"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -7150,21 +8434,24 @@
         <v>389</v>
       </c>
       <c r="Z1" t="s">
+        <v>611</v>
+      </c>
+      <c r="AA1" t="s">
         <v>52</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>53</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>54</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>55</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>406</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>223</v>
       </c>
     </row>
@@ -7200,7 +8487,7 @@
         <v>77</v>
       </c>
       <c r="K2" t="s">
-        <v>453</v>
+        <v>618</v>
       </c>
       <c r="L2" t="s">
         <v>310</v>
@@ -7245,21 +8532,24 @@
         <v>399</v>
       </c>
       <c r="Z2" t="s">
+        <v>613</v>
+      </c>
+      <c r="AA2" t="s">
         <v>94</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>167</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>172</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>179</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>424</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>491</v>
       </c>
     </row>
@@ -7331,21 +8621,24 @@
         <v>400</v>
       </c>
       <c r="Z3" t="s">
+        <v>614</v>
+      </c>
+      <c r="AA3" t="s">
         <v>95</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>168</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>173</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>357</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>180</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>224</v>
       </c>
     </row>
@@ -7414,21 +8707,24 @@
         <v>401</v>
       </c>
       <c r="Z4" t="s">
+        <v>615</v>
+      </c>
+      <c r="AA4" t="s">
         <v>595</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>169</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>174</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>180</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>416</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>225</v>
       </c>
     </row>
@@ -7488,21 +8784,24 @@
         <v>352</v>
       </c>
       <c r="Z5" t="s">
+        <v>616</v>
+      </c>
+      <c r="AA5" t="s">
         <v>543</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>170</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>607</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>181</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>417</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>226</v>
       </c>
     </row>
@@ -7532,7 +8831,7 @@
         <v>593</v>
       </c>
       <c r="K6" t="s">
-        <v>343</v>
+        <v>619</v>
       </c>
       <c r="L6" t="s">
         <v>454</v>
@@ -7559,21 +8858,24 @@
         <v>354</v>
       </c>
       <c r="Z6" t="s">
+        <v>617</v>
+      </c>
+      <c r="AA6" t="s">
         <v>96</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>437</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>175</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>182</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>418</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>227</v>
       </c>
     </row>
@@ -7594,7 +8896,7 @@
         <v>439</v>
       </c>
       <c r="K7" t="s">
-        <v>526</v>
+        <v>343</v>
       </c>
       <c r="L7" t="s">
         <v>70</v>
@@ -7620,22 +8922,22 @@
       <c r="X7" t="s">
         <v>353</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>97</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>438</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>176</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>183</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>419</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AF7" t="s">
         <v>520</v>
       </c>
     </row>
@@ -7655,6 +8957,9 @@
       <c r="I8" t="s">
         <v>323</v>
       </c>
+      <c r="K8" t="s">
+        <v>526</v>
+      </c>
       <c r="L8" t="s">
         <v>16</v>
       </c>
@@ -7676,22 +8981,22 @@
       <c r="X8" t="s">
         <v>355</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>98</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>171</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>177</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>184</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>420</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AF8" t="s">
         <v>521</v>
       </c>
     </row>
@@ -7732,16 +9037,16 @@
       <c r="X9" t="s">
         <v>356</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>205</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>178</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>185</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AF9" t="s">
         <v>522</v>
       </c>
     </row>
@@ -7776,16 +9081,16 @@
       <c r="U10" t="s">
         <v>398</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>252</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>608</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>186</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AF10" t="s">
         <v>228</v>
       </c>
     </row>
@@ -7817,13 +9122,13 @@
       <c r="S11" t="s">
         <v>244</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>253</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>254</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AF11" t="s">
         <v>229</v>
       </c>
     </row>
@@ -7855,13 +9160,13 @@
       <c r="S12" t="s">
         <v>245</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>99</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>187</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AF12" t="s">
         <v>230</v>
       </c>
     </row>
@@ -7890,13 +9195,13 @@
       <c r="S13" t="s">
         <v>600</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
         <v>321</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>188</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AF13" t="s">
         <v>466</v>
       </c>
     </row>
@@ -7925,13 +9230,13 @@
       <c r="S14" t="s">
         <v>250</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AA14" t="s">
         <v>100</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>189</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AF14" t="s">
         <v>492</v>
       </c>
     </row>
@@ -7960,13 +9265,13 @@
       <c r="S15" t="s">
         <v>246</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>601</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>190</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AF15" t="s">
         <v>493</v>
       </c>
     </row>
@@ -7995,13 +9300,13 @@
       <c r="S16" t="s">
         <v>247</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AA16" t="s">
         <v>101</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>191</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AF16" t="s">
         <v>494</v>
       </c>
     </row>
@@ -8024,13 +9329,13 @@
       <c r="S17" t="s">
         <v>248</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="AA17" t="s">
         <v>73</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>459</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AF17" t="s">
         <v>495</v>
       </c>
     </row>
@@ -8050,10 +9355,10 @@
       <c r="N18" t="s">
         <v>42</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="AA18" t="s">
         <v>485</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AF18" t="s">
         <v>467</v>
       </c>
     </row>
@@ -8070,10 +9375,10 @@
       <c r="L19" t="s">
         <v>455</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="AA19" t="s">
         <v>102</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AF19" t="s">
         <v>496</v>
       </c>
     </row>
@@ -8090,10 +9395,10 @@
       <c r="L20" t="s">
         <v>81</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="AA20" t="s">
         <v>103</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AF20" t="s">
         <v>497</v>
       </c>
     </row>
@@ -8110,10 +9415,10 @@
       <c r="L21" t="s">
         <v>82</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="AA21" t="s">
         <v>104</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AF21" t="s">
         <v>498</v>
       </c>
     </row>
@@ -8130,10 +9435,10 @@
       <c r="L22" t="s">
         <v>546</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="AA22" t="s">
         <v>105</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AF22" t="s">
         <v>231</v>
       </c>
     </row>
@@ -8150,10 +9455,10 @@
       <c r="L23" t="s">
         <v>462</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="AA23" t="s">
         <v>486</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AF23" t="s">
         <v>523</v>
       </c>
     </row>
@@ -8170,10 +9475,10 @@
       <c r="L24" t="s">
         <v>43</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="AA24" t="s">
         <v>106</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AF24" t="s">
         <v>524</v>
       </c>
     </row>
@@ -8190,16 +9495,16 @@
       <c r="L25" t="s">
         <v>384</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="AA25" t="s">
         <v>533</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AF25" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>611</v>
       </c>
       <c r="F26" t="s">
         <v>441</v>
@@ -8210,16 +9515,16 @@
       <c r="L26" t="s">
         <v>516</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="AA26" t="s">
         <v>107</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AF26" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F27" t="s">
         <v>221</v>
@@ -8230,16 +9535,16 @@
       <c r="L27" t="s">
         <v>83</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="AA27" t="s">
         <v>108</v>
       </c>
-      <c r="AE27" t="s">
+      <c r="AF27" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F28" t="s">
         <v>222</v>
@@ -8250,13 +9555,13 @@
       <c r="L28" t="s">
         <v>426</v>
       </c>
-      <c r="Z28" t="s">
+      <c r="AA28" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F29" t="s">
         <v>460</v>
@@ -8267,13 +9572,13 @@
       <c r="L29" t="s">
         <v>44</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="AA29" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>406</v>
+        <v>55</v>
       </c>
       <c r="F30" t="s">
         <v>461</v>
@@ -8284,13 +9589,13 @@
       <c r="L30" t="s">
         <v>45</v>
       </c>
-      <c r="Z30" t="s">
+      <c r="AA30" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>223</v>
+        <v>406</v>
       </c>
       <c r="F31" t="s">
         <v>408</v>
@@ -8298,18 +9603,21 @@
       <c r="H31" t="s">
         <v>212</v>
       </c>
-      <c r="Z31" t="s">
+      <c r="AA31" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="s">
+        <v>223</v>
+      </c>
       <c r="F32" t="s">
         <v>62</v>
       </c>
       <c r="H32" t="s">
         <v>270</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="AA32" t="s">
         <v>112</v>
       </c>
     </row>
@@ -8320,7 +9628,7 @@
       <c r="H33" t="s">
         <v>280</v>
       </c>
-      <c r="Z33" t="s">
+      <c r="AA33" t="s">
         <v>113</v>
       </c>
     </row>
@@ -8331,7 +9639,7 @@
       <c r="H34" t="s">
         <v>501</v>
       </c>
-      <c r="Z34" t="s">
+      <c r="AA34" t="s">
         <v>114</v>
       </c>
     </row>
@@ -8342,7 +9650,7 @@
       <c r="H35" t="s">
         <v>255</v>
       </c>
-      <c r="Z35" t="s">
+      <c r="AA35" t="s">
         <v>534</v>
       </c>
     </row>
@@ -8353,7 +9661,7 @@
       <c r="H36" t="s">
         <v>325</v>
       </c>
-      <c r="Z36" t="s">
+      <c r="AA36" t="s">
         <v>115</v>
       </c>
     </row>
@@ -8364,7 +9672,7 @@
       <c r="H37" t="s">
         <v>302</v>
       </c>
-      <c r="Z37" t="s">
+      <c r="AA37" t="s">
         <v>116</v>
       </c>
     </row>
@@ -8375,7 +9683,7 @@
       <c r="H38" t="s">
         <v>256</v>
       </c>
-      <c r="Z38" t="s">
+      <c r="AA38" t="s">
         <v>206</v>
       </c>
     </row>
@@ -8386,7 +9694,7 @@
       <c r="H39" t="s">
         <v>303</v>
       </c>
-      <c r="Z39" t="s">
+      <c r="AA39" t="s">
         <v>117</v>
       </c>
     </row>
@@ -8394,7 +9702,7 @@
       <c r="H40" t="s">
         <v>262</v>
       </c>
-      <c r="Z40" t="s">
+      <c r="AA40" t="s">
         <v>333</v>
       </c>
     </row>
@@ -8402,7 +9710,7 @@
       <c r="H41" t="s">
         <v>76</v>
       </c>
-      <c r="Z41" t="s">
+      <c r="AA41" t="s">
         <v>430</v>
       </c>
     </row>
@@ -8410,7 +9718,7 @@
       <c r="H42" t="s">
         <v>208</v>
       </c>
-      <c r="Z42" t="s">
+      <c r="AA42" t="s">
         <v>544</v>
       </c>
     </row>
@@ -8418,7 +9726,7 @@
       <c r="H43" t="s">
         <v>530</v>
       </c>
-      <c r="Z43" t="s">
+      <c r="AA43" t="s">
         <v>385</v>
       </c>
     </row>
@@ -8426,7 +9734,7 @@
       <c r="H44" t="s">
         <v>284</v>
       </c>
-      <c r="Z44" t="s">
+      <c r="AA44" t="s">
         <v>118</v>
       </c>
     </row>
@@ -8434,7 +9742,7 @@
       <c r="H45" t="s">
         <v>295</v>
       </c>
-      <c r="Z45" t="s">
+      <c r="AA45" t="s">
         <v>119</v>
       </c>
     </row>
@@ -8442,7 +9750,7 @@
       <c r="H46" t="s">
         <v>296</v>
       </c>
-      <c r="Z46" t="s">
+      <c r="AA46" t="s">
         <v>120</v>
       </c>
     </row>
@@ -8450,7 +9758,7 @@
       <c r="H47" t="s">
         <v>338</v>
       </c>
-      <c r="Z47" t="s">
+      <c r="AA47" t="s">
         <v>121</v>
       </c>
     </row>
@@ -8458,7 +9766,7 @@
       <c r="H48" t="s">
         <v>337</v>
       </c>
-      <c r="Z48" t="s">
+      <c r="AA48" t="s">
         <v>122</v>
       </c>
     </row>
@@ -8466,7 +9774,7 @@
       <c r="H49" t="s">
         <v>207</v>
       </c>
-      <c r="Z49" t="s">
+      <c r="AA49" t="s">
         <v>123</v>
       </c>
     </row>
@@ -8474,7 +9782,7 @@
       <c r="H50" t="s">
         <v>315</v>
       </c>
-      <c r="Z50" t="s">
+      <c r="AA50" t="s">
         <v>431</v>
       </c>
     </row>
@@ -8482,7 +9790,7 @@
       <c r="H51" t="s">
         <v>334</v>
       </c>
-      <c r="Z51" t="s">
+      <c r="AA51" t="s">
         <v>209</v>
       </c>
     </row>
@@ -8490,7 +9798,7 @@
       <c r="H52" t="s">
         <v>361</v>
       </c>
-      <c r="Z52" t="s">
+      <c r="AA52" t="s">
         <v>75</v>
       </c>
     </row>
@@ -8498,7 +9806,7 @@
       <c r="H53" t="s">
         <v>297</v>
       </c>
-      <c r="Z53" t="s">
+      <c r="AA53" t="s">
         <v>527</v>
       </c>
     </row>
@@ -8506,7 +9814,7 @@
       <c r="H54" t="s">
         <v>349</v>
       </c>
-      <c r="Z54" t="s">
+      <c r="AA54" t="s">
         <v>124</v>
       </c>
     </row>
@@ -8514,7 +9822,7 @@
       <c r="H55" t="s">
         <v>326</v>
       </c>
-      <c r="Z55" t="s">
+      <c r="AA55" t="s">
         <v>125</v>
       </c>
     </row>
@@ -8522,7 +9830,7 @@
       <c r="H56" t="s">
         <v>263</v>
       </c>
-      <c r="Z56" t="s">
+      <c r="AA56" t="s">
         <v>126</v>
       </c>
     </row>
@@ -8530,7 +9838,7 @@
       <c r="H57" t="s">
         <v>287</v>
       </c>
-      <c r="Z57" t="s">
+      <c r="AA57" t="s">
         <v>487</v>
       </c>
     </row>
@@ -8538,7 +9846,7 @@
       <c r="H58" t="s">
         <v>288</v>
       </c>
-      <c r="Z58" t="s">
+      <c r="AA58" t="s">
         <v>456</v>
       </c>
     </row>
@@ -8546,7 +9854,7 @@
       <c r="H59" t="s">
         <v>531</v>
       </c>
-      <c r="Z59" t="s">
+      <c r="AA59" t="s">
         <v>127</v>
       </c>
     </row>
@@ -8554,7 +9862,7 @@
       <c r="H60" t="s">
         <v>289</v>
       </c>
-      <c r="Z60" t="s">
+      <c r="AA60" t="s">
         <v>341</v>
       </c>
     </row>
@@ -8562,7 +9870,7 @@
       <c r="H61" t="s">
         <v>298</v>
       </c>
-      <c r="Z61" t="s">
+      <c r="AA61" t="s">
         <v>457</v>
       </c>
     </row>
@@ -8570,7 +9878,7 @@
       <c r="H62" t="s">
         <v>307</v>
       </c>
-      <c r="Z62" t="s">
+      <c r="AA62" t="s">
         <v>128</v>
       </c>
     </row>
@@ -8578,7 +9886,7 @@
       <c r="H63" t="s">
         <v>332</v>
       </c>
-      <c r="Z63" t="s">
+      <c r="AA63" t="s">
         <v>129</v>
       </c>
     </row>
@@ -8586,7 +9894,7 @@
       <c r="H64" t="s">
         <v>304</v>
       </c>
-      <c r="Z64" t="s">
+      <c r="AA64" t="s">
         <v>130</v>
       </c>
     </row>
@@ -8594,7 +9902,7 @@
       <c r="H65" t="s">
         <v>305</v>
       </c>
-      <c r="Z65" t="s">
+      <c r="AA65" t="s">
         <v>131</v>
       </c>
     </row>
@@ -8602,7 +9910,7 @@
       <c r="H66" t="s">
         <v>362</v>
       </c>
-      <c r="Z66" t="s">
+      <c r="AA66" t="s">
         <v>132</v>
       </c>
     </row>
@@ -8610,7 +9918,7 @@
       <c r="H67" t="s">
         <v>363</v>
       </c>
-      <c r="Z67" t="s">
+      <c r="AA67" t="s">
         <v>133</v>
       </c>
     </row>
@@ -8618,7 +9926,7 @@
       <c r="H68" t="s">
         <v>340</v>
       </c>
-      <c r="Z68" t="s">
+      <c r="AA68" t="s">
         <v>134</v>
       </c>
     </row>
@@ -8626,7 +9934,7 @@
       <c r="H69" t="s">
         <v>308</v>
       </c>
-      <c r="Z69" t="s">
+      <c r="AA69" t="s">
         <v>432</v>
       </c>
     </row>
@@ -8634,7 +9942,7 @@
       <c r="H70" t="s">
         <v>264</v>
       </c>
-      <c r="Z70" t="s">
+      <c r="AA70" t="s">
         <v>465</v>
       </c>
     </row>
@@ -8642,7 +9950,7 @@
       <c r="H71" t="s">
         <v>517</v>
       </c>
-      <c r="Z71" t="s">
+      <c r="AA71" t="s">
         <v>210</v>
       </c>
     </row>
@@ -8650,7 +9958,7 @@
       <c r="H72" t="s">
         <v>309</v>
       </c>
-      <c r="Z72" t="s">
+      <c r="AA72" t="s">
         <v>381</v>
       </c>
     </row>
@@ -8658,7 +9966,7 @@
       <c r="H73" t="s">
         <v>402</v>
       </c>
-      <c r="Z73" t="s">
+      <c r="AA73" t="s">
         <v>433</v>
       </c>
     </row>
@@ -8666,7 +9974,7 @@
       <c r="H74" t="s">
         <v>299</v>
       </c>
-      <c r="Z74" t="s">
+      <c r="AA74" t="s">
         <v>135</v>
       </c>
     </row>
@@ -8674,7 +9982,7 @@
       <c r="H75" t="s">
         <v>403</v>
       </c>
-      <c r="Z75" t="s">
+      <c r="AA75" t="s">
         <v>136</v>
       </c>
     </row>
@@ -8682,7 +9990,7 @@
       <c r="H76" t="s">
         <v>257</v>
       </c>
-      <c r="Z76" t="s">
+      <c r="AA76" t="s">
         <v>137</v>
       </c>
     </row>
@@ -8690,7 +9998,7 @@
       <c r="H77" t="s">
         <v>502</v>
       </c>
-      <c r="Z77" t="s">
+      <c r="AA77" t="s">
         <v>138</v>
       </c>
     </row>
@@ -8698,7 +10006,7 @@
       <c r="H78" t="s">
         <v>339</v>
       </c>
-      <c r="Z78" t="s">
+      <c r="AA78" t="s">
         <v>193</v>
       </c>
     </row>
@@ -8706,7 +10014,7 @@
       <c r="H79" t="s">
         <v>275</v>
       </c>
-      <c r="Z79" t="s">
+      <c r="AA79" t="s">
         <v>194</v>
       </c>
     </row>
@@ -8714,7 +10022,7 @@
       <c r="H80" t="s">
         <v>281</v>
       </c>
-      <c r="Z80" t="s">
+      <c r="AA80" t="s">
         <v>445</v>
       </c>
     </row>
@@ -8722,7 +10030,7 @@
       <c r="H81" t="s">
         <v>286</v>
       </c>
-      <c r="Z81" t="s">
+      <c r="AA81" t="s">
         <v>458</v>
       </c>
     </row>
@@ -8730,7 +10038,7 @@
       <c r="H82" t="s">
         <v>421</v>
       </c>
-      <c r="Z82" t="s">
+      <c r="AA82" t="s">
         <v>139</v>
       </c>
     </row>
@@ -8738,7 +10046,7 @@
       <c r="H83" t="s">
         <v>327</v>
       </c>
-      <c r="Z83" t="s">
+      <c r="AA83" t="s">
         <v>140</v>
       </c>
     </row>
@@ -8746,7 +10054,7 @@
       <c r="H84" t="s">
         <v>265</v>
       </c>
-      <c r="Z84" t="s">
+      <c r="AA84" t="s">
         <v>141</v>
       </c>
     </row>
@@ -8754,7 +10062,7 @@
       <c r="H85" t="s">
         <v>276</v>
       </c>
-      <c r="Z85" t="s">
+      <c r="AA85" t="s">
         <v>488</v>
       </c>
     </row>
@@ -8762,7 +10070,7 @@
       <c r="H86" t="s">
         <v>282</v>
       </c>
-      <c r="Z86" t="s">
+      <c r="AA86" t="s">
         <v>142</v>
       </c>
     </row>
@@ -8770,7 +10078,7 @@
       <c r="H87" t="s">
         <v>271</v>
       </c>
-      <c r="Z87" t="s">
+      <c r="AA87" t="s">
         <v>143</v>
       </c>
     </row>
@@ -8778,7 +10086,7 @@
       <c r="H88" t="s">
         <v>519</v>
       </c>
-      <c r="Z88" t="s">
+      <c r="AA88" t="s">
         <v>195</v>
       </c>
     </row>
@@ -8786,7 +10094,7 @@
       <c r="H89" t="s">
         <v>266</v>
       </c>
-      <c r="Z89" t="s">
+      <c r="AA89" t="s">
         <v>489</v>
       </c>
     </row>
@@ -8794,7 +10102,7 @@
       <c r="H90" t="s">
         <v>283</v>
       </c>
-      <c r="Z90" t="s">
+      <c r="AA90" t="s">
         <v>598</v>
       </c>
     </row>
@@ -8802,7 +10110,7 @@
       <c r="H91" t="s">
         <v>267</v>
       </c>
-      <c r="Z91" t="s">
+      <c r="AA91" t="s">
         <v>196</v>
       </c>
     </row>
@@ -8810,7 +10118,7 @@
       <c r="H92" t="s">
         <v>268</v>
       </c>
-      <c r="Z92" t="s">
+      <c r="AA92" t="s">
         <v>446</v>
       </c>
     </row>
@@ -8818,7 +10126,7 @@
       <c r="H93" t="s">
         <v>300</v>
       </c>
-      <c r="Z93" t="s">
+      <c r="AA93" t="s">
         <v>197</v>
       </c>
     </row>
@@ -8826,7 +10134,7 @@
       <c r="H94" t="s">
         <v>306</v>
       </c>
-      <c r="Z94" t="s">
+      <c r="AA94" t="s">
         <v>198</v>
       </c>
     </row>
@@ -8834,7 +10142,7 @@
       <c r="H95" t="s">
         <v>290</v>
       </c>
-      <c r="Z95" t="s">
+      <c r="AA95" t="s">
         <v>537</v>
       </c>
     </row>
@@ -8842,7 +10150,7 @@
       <c r="H96" t="s">
         <v>335</v>
       </c>
-      <c r="Z96" t="s">
+      <c r="AA96" t="s">
         <v>538</v>
       </c>
     </row>
@@ -8850,7 +10158,7 @@
       <c r="H97" t="s">
         <v>272</v>
       </c>
-      <c r="Z97" t="s">
+      <c r="AA97" t="s">
         <v>211</v>
       </c>
     </row>
@@ -8858,237 +10166,237 @@
       <c r="H98" t="s">
         <v>273</v>
       </c>
-      <c r="Z98" t="s">
+      <c r="AA98" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="99">
-      <c r="Z99" t="s">
+      <c r="AA99" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="100">
-      <c r="Z100" t="s">
+      <c r="AA100" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="101">
-      <c r="Z101" t="s">
+      <c r="AA101" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="102">
-      <c r="Z102" t="s">
+      <c r="AA102" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="103">
-      <c r="Z103" t="s">
+      <c r="AA103" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="104">
-      <c r="Z104" t="s">
+      <c r="AA104" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="105">
-      <c r="Z105" t="s">
+      <c r="AA105" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="106">
-      <c r="Z106" t="s">
+      <c r="AA106" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="107">
-      <c r="Z107" t="s">
+      <c r="AA107" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="108">
-      <c r="Z108" t="s">
+      <c r="AA108" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="109">
-      <c r="Z109" t="s">
+      <c r="AA109" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="110">
-      <c r="Z110" t="s">
+      <c r="AA110" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="111">
-      <c r="Z111" t="s">
+      <c r="AA111" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="112">
-      <c r="Z112" t="s">
+      <c r="AA112" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="113">
-      <c r="Z113" t="s">
+      <c r="AA113" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="114">
-      <c r="Z114" t="s">
+      <c r="AA114" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="115">
-      <c r="Z115" t="s">
+      <c r="AA115" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="116">
-      <c r="Z116" t="s">
+      <c r="AA116" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="117">
-      <c r="Z117" t="s">
+      <c r="AA117" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="118">
-      <c r="Z118" t="s">
+      <c r="AA118" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="119">
-      <c r="Z119" t="s">
+      <c r="AA119" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="120">
-      <c r="Z120" t="s">
+      <c r="AA120" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="121">
-      <c r="Z121" t="s">
+      <c r="AA121" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="122">
-      <c r="Z122" t="s">
+      <c r="AA122" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="123">
-      <c r="Z123" t="s">
+      <c r="AA123" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="124">
-      <c r="Z124" t="s">
+      <c r="AA124" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="125">
-      <c r="Z125" t="s">
+      <c r="AA125" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="126">
-      <c r="Z126" t="s">
+      <c r="AA126" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="127">
-      <c r="Z127" t="s">
+      <c r="AA127" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="128">
-      <c r="Z128" t="s">
+      <c r="AA128" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="129">
-      <c r="Z129" t="s">
+      <c r="AA129" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="130">
-      <c r="Z130" t="s">
+      <c r="AA130" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="131">
-      <c r="Z131" t="s">
+      <c r="AA131" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="132">
-      <c r="Z132" t="s">
+      <c r="AA132" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="133">
-      <c r="Z133" t="s">
+      <c r="AA133" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="134">
-      <c r="Z134" t="s">
+      <c r="AA134" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="135">
-      <c r="Z135" t="s">
+      <c r="AA135" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="136">
-      <c r="Z136" t="s">
+      <c r="AA136" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="137">
-      <c r="Z137" t="s">
+      <c r="AA137" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="138">
-      <c r="Z138" t="s">
+      <c r="AA138" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="139">
-      <c r="Z139" t="s">
+      <c r="AA139" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="140">
-      <c r="Z140" t="s">
+      <c r="AA140" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="141">
-      <c r="Z141" t="s">
+      <c r="AA141" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="142">
-      <c r="Z142" t="s">
+      <c r="AA142" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="143">
-      <c r="Z143" t="s">
+      <c r="AA143" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="144">
-      <c r="Z144" t="s">
+      <c r="AA144" t="s">
         <v>166</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_web_metrics.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_web_metrics.xlsx
@@ -34,7 +34,7 @@
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
-    <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
+    <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
     <definedName name="macro">'#system'!$P$2:$P$4</definedName>
     <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
@@ -42,7 +42,7 @@
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
     <definedName name="pdf">'#system'!$S$2:$S$17</definedName>
-    <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
+    <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
     <definedName name="sound">'#system'!$W$2:$W$5</definedName>
@@ -50,13 +50,14 @@
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$32</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$144</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$145</definedName>
     <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
     <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
     <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
     <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
     <definedName name="tn.5250">'#system'!$Z$2:$Z$6</definedName>
+    <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -79,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5965" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6552" uniqueCount="630">
   <si>
     <t>description</t>
   </si>
@@ -1939,6 +1940,36 @@
   </si>
   <si>
     <t>ocr(image,saveVar)</t>
+  </si>
+  <si>
+    <t>step.inTime</t>
+  </si>
+  <si>
+    <t>queryAsCSV(var,sql)</t>
+  </si>
+  <si>
+    <t>assertResultMatch(var,columns,search)</t>
+  </si>
+  <si>
+    <t>assertResultNotMatch(var,columns,search)</t>
+  </si>
+  <si>
+    <t>observe(prompt,waitMs)</t>
+  </si>
+  <si>
+    <t>perform(instructions,waitMs)</t>
+  </si>
+  <si>
+    <t>validate(prompt,responses,passResponses,waitMs)</t>
+  </si>
+  <si>
+    <t>assertElementDisabled(locator)</t>
+  </si>
+  <si>
+    <t>checkAll(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>uncheckAll(locator,waitMs)</t>
   </si>
 </sst>
 </file>
@@ -1946,7 +1977,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="155" x14ac:knownFonts="1">
+  <fonts count="171" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2932,8 +2963,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="247">
+  <fills count="274">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4329,8 +4461,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="291">
+  <borders count="323">
     <border>
       <left/>
       <right/>
@@ -7302,6 +7587,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -7309,7 +7920,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="198">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7826,52 +8437,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="219" fontId="138" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="139" fillId="222" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="266" fillId="222" fontId="139" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="140" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="141" fillId="225" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="270" fillId="225" fontId="141" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="142" fillId="228" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="274" fillId="228" fontId="142" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="143" fillId="231" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="278" fillId="231" fontId="143" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="144" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="145" fillId="234" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="234" fontId="145" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="146" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="147" fillId="237" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="237" fontId="147" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="148" fillId="228" borderId="286" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="286" fillId="228" fontId="148" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="149" fillId="240" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="290" fillId="240" fontId="149" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="150" fillId="240" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="290" fillId="240" fontId="150" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="151" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="151" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="152" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="243" fontId="152" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="153" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="153" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="154" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="246" fontId="154" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="249" borderId="298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="252" borderId="302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="255" borderId="306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="258" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="261" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="264" borderId="314" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="255" borderId="318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="267" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="267" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="270" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="273" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8346,7 +9005,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG144"/>
+  <dimension ref="A1:AG145"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -8434,7 +9093,7 @@
         <v>389</v>
       </c>
       <c r="Z1" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
       <c r="AA1" t="s">
         <v>52</v>
@@ -8514,7 +9173,7 @@
         <v>249</v>
       </c>
       <c r="T2" t="s">
-        <v>213</v>
+        <v>622</v>
       </c>
       <c r="U2" t="s">
         <v>390</v>
@@ -8532,7 +9191,7 @@
         <v>399</v>
       </c>
       <c r="Z2" t="s">
-        <v>613</v>
+        <v>624</v>
       </c>
       <c r="AA2" t="s">
         <v>94</v>
@@ -8606,7 +9265,7 @@
         <v>236</v>
       </c>
       <c r="T3" t="s">
-        <v>214</v>
+        <v>623</v>
       </c>
       <c r="U3" t="s">
         <v>391</v>
@@ -8621,7 +9280,7 @@
         <v>400</v>
       </c>
       <c r="Z3" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
       <c r="AA3" t="s">
         <v>95</v>
@@ -8692,7 +9351,7 @@
         <v>237</v>
       </c>
       <c r="T4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="U4" t="s">
         <v>392</v>
@@ -8707,7 +9366,7 @@
         <v>401</v>
       </c>
       <c r="Z4" t="s">
-        <v>615</v>
+        <v>626</v>
       </c>
       <c r="AA4" t="s">
         <v>595</v>
@@ -8772,7 +9431,7 @@
         <v>238</v>
       </c>
       <c r="T5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="U5" t="s">
         <v>393</v>
@@ -8782,9 +9441,6 @@
       </c>
       <c r="X5" t="s">
         <v>352</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>616</v>
       </c>
       <c r="AA5" t="s">
         <v>543</v>
@@ -8849,16 +9505,13 @@
         <v>239</v>
       </c>
       <c r="T6" t="s">
-        <v>383</v>
+        <v>215</v>
       </c>
       <c r="U6" t="s">
         <v>394</v>
       </c>
       <c r="X6" t="s">
         <v>354</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>617</v>
       </c>
       <c r="AA6" t="s">
         <v>96</v>
@@ -8914,7 +9567,7 @@
         <v>240</v>
       </c>
       <c r="T7" t="s">
-        <v>410</v>
+        <v>216</v>
       </c>
       <c r="U7" t="s">
         <v>395</v>
@@ -8975,6 +9628,9 @@
       <c r="S8" t="s">
         <v>241</v>
       </c>
+      <c r="T8" t="s">
+        <v>383</v>
+      </c>
       <c r="U8" t="s">
         <v>396</v>
       </c>
@@ -9031,6 +9687,9 @@
       <c r="S9" t="s">
         <v>242</v>
       </c>
+      <c r="T9" t="s">
+        <v>410</v>
+      </c>
       <c r="U9" t="s">
         <v>397</v>
       </c>
@@ -9152,7 +9811,7 @@
         <v>528</v>
       </c>
       <c r="O12" t="s">
-        <v>513</v>
+        <v>621</v>
       </c>
       <c r="R12" t="s">
         <v>40</v>
@@ -9189,6 +9848,9 @@
       <c r="N13" t="s">
         <v>428</v>
       </c>
+      <c r="O13" t="s">
+        <v>513</v>
+      </c>
       <c r="R13" t="s">
         <v>92</v>
       </c>
@@ -9266,7 +9928,7 @@
         <v>246</v>
       </c>
       <c r="AA15" t="s">
-        <v>601</v>
+        <v>627</v>
       </c>
       <c r="AD15" t="s">
         <v>190</v>
@@ -9301,7 +9963,7 @@
         <v>247</v>
       </c>
       <c r="AA16" t="s">
-        <v>101</v>
+        <v>601</v>
       </c>
       <c r="AD16" t="s">
         <v>191</v>
@@ -9330,7 +9992,7 @@
         <v>248</v>
       </c>
       <c r="AA17" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="AD17" t="s">
         <v>459</v>
@@ -9356,7 +10018,7 @@
         <v>42</v>
       </c>
       <c r="AA18" t="s">
-        <v>485</v>
+        <v>73</v>
       </c>
       <c r="AF18" t="s">
         <v>467</v>
@@ -9376,7 +10038,7 @@
         <v>455</v>
       </c>
       <c r="AA19" t="s">
-        <v>102</v>
+        <v>485</v>
       </c>
       <c r="AF19" t="s">
         <v>496</v>
@@ -9396,7 +10058,7 @@
         <v>81</v>
       </c>
       <c r="AA20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AF20" t="s">
         <v>497</v>
@@ -9416,7 +10078,7 @@
         <v>82</v>
       </c>
       <c r="AA21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AF21" t="s">
         <v>498</v>
@@ -9436,7 +10098,7 @@
         <v>546</v>
       </c>
       <c r="AA22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AF22" t="s">
         <v>231</v>
@@ -9456,7 +10118,7 @@
         <v>462</v>
       </c>
       <c r="AA23" t="s">
-        <v>486</v>
+        <v>105</v>
       </c>
       <c r="AF23" t="s">
         <v>523</v>
@@ -9476,7 +10138,7 @@
         <v>43</v>
       </c>
       <c r="AA24" t="s">
-        <v>106</v>
+        <v>486</v>
       </c>
       <c r="AF24" t="s">
         <v>524</v>
@@ -9496,7 +10158,7 @@
         <v>384</v>
       </c>
       <c r="AA25" t="s">
-        <v>533</v>
+        <v>106</v>
       </c>
       <c r="AF25" t="s">
         <v>525</v>
@@ -9504,7 +10166,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
       <c r="F26" t="s">
         <v>441</v>
@@ -9516,7 +10178,7 @@
         <v>516</v>
       </c>
       <c r="AA26" t="s">
-        <v>107</v>
+        <v>533</v>
       </c>
       <c r="AF26" t="s">
         <v>232</v>
@@ -9536,7 +10198,7 @@
         <v>83</v>
       </c>
       <c r="AA27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AF27" t="s">
         <v>233</v>
@@ -9556,7 +10218,7 @@
         <v>426</v>
       </c>
       <c r="AA28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29">
@@ -9573,7 +10235,7 @@
         <v>44</v>
       </c>
       <c r="AA29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30">
@@ -9590,7 +10252,7 @@
         <v>45</v>
       </c>
       <c r="AA30" t="s">
-        <v>322</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31">
@@ -9604,7 +10266,7 @@
         <v>212</v>
       </c>
       <c r="AA31" t="s">
-        <v>111</v>
+        <v>322</v>
       </c>
     </row>
     <row r="32">
@@ -9618,7 +10280,7 @@
         <v>270</v>
       </c>
       <c r="AA32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33">
@@ -9629,7 +10291,7 @@
         <v>280</v>
       </c>
       <c r="AA33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34">
@@ -9640,7 +10302,7 @@
         <v>501</v>
       </c>
       <c r="AA34" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35">
@@ -9651,7 +10313,7 @@
         <v>255</v>
       </c>
       <c r="AA35" t="s">
-        <v>534</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36">
@@ -9662,7 +10324,7 @@
         <v>325</v>
       </c>
       <c r="AA36" t="s">
-        <v>115</v>
+        <v>534</v>
       </c>
     </row>
     <row r="37">
@@ -9673,7 +10335,7 @@
         <v>302</v>
       </c>
       <c r="AA37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38">
@@ -9684,7 +10346,7 @@
         <v>256</v>
       </c>
       <c r="AA38" t="s">
-        <v>206</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39">
@@ -9695,7 +10357,7 @@
         <v>303</v>
       </c>
       <c r="AA39" t="s">
-        <v>117</v>
+        <v>206</v>
       </c>
     </row>
     <row r="40">
@@ -9703,7 +10365,7 @@
         <v>262</v>
       </c>
       <c r="AA40" t="s">
-        <v>333</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41">
@@ -9711,7 +10373,7 @@
         <v>76</v>
       </c>
       <c r="AA41" t="s">
-        <v>430</v>
+        <v>333</v>
       </c>
     </row>
     <row r="42">
@@ -9719,7 +10381,7 @@
         <v>208</v>
       </c>
       <c r="AA42" t="s">
-        <v>544</v>
+        <v>430</v>
       </c>
     </row>
     <row r="43">
@@ -9727,7 +10389,7 @@
         <v>530</v>
       </c>
       <c r="AA43" t="s">
-        <v>385</v>
+        <v>544</v>
       </c>
     </row>
     <row r="44">
@@ -9735,7 +10397,7 @@
         <v>284</v>
       </c>
       <c r="AA44" t="s">
-        <v>118</v>
+        <v>385</v>
       </c>
     </row>
     <row r="45">
@@ -9743,7 +10405,7 @@
         <v>295</v>
       </c>
       <c r="AA45" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46">
@@ -9751,7 +10413,7 @@
         <v>296</v>
       </c>
       <c r="AA46" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47">
@@ -9759,7 +10421,7 @@
         <v>338</v>
       </c>
       <c r="AA47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48">
@@ -9767,7 +10429,7 @@
         <v>337</v>
       </c>
       <c r="AA48" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49">
@@ -9775,7 +10437,7 @@
         <v>207</v>
       </c>
       <c r="AA49" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50">
@@ -9783,7 +10445,7 @@
         <v>315</v>
       </c>
       <c r="AA50" t="s">
-        <v>431</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51">
@@ -9791,7 +10453,7 @@
         <v>334</v>
       </c>
       <c r="AA51" t="s">
-        <v>209</v>
+        <v>628</v>
       </c>
     </row>
     <row r="52">
@@ -9799,7 +10461,7 @@
         <v>361</v>
       </c>
       <c r="AA52" t="s">
-        <v>75</v>
+        <v>209</v>
       </c>
     </row>
     <row r="53">
@@ -9807,7 +10469,7 @@
         <v>297</v>
       </c>
       <c r="AA53" t="s">
-        <v>527</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54">
@@ -9815,7 +10477,7 @@
         <v>349</v>
       </c>
       <c r="AA54" t="s">
-        <v>124</v>
+        <v>527</v>
       </c>
     </row>
     <row r="55">
@@ -9823,7 +10485,7 @@
         <v>326</v>
       </c>
       <c r="AA55" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="56">
@@ -9831,7 +10493,7 @@
         <v>263</v>
       </c>
       <c r="AA56" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="57">
@@ -9839,7 +10501,7 @@
         <v>287</v>
       </c>
       <c r="AA57" t="s">
-        <v>487</v>
+        <v>126</v>
       </c>
     </row>
     <row r="58">
@@ -9847,7 +10509,7 @@
         <v>288</v>
       </c>
       <c r="AA58" t="s">
-        <v>456</v>
+        <v>487</v>
       </c>
     </row>
     <row r="59">
@@ -9855,7 +10517,7 @@
         <v>531</v>
       </c>
       <c r="AA59" t="s">
-        <v>127</v>
+        <v>456</v>
       </c>
     </row>
     <row r="60">
@@ -9863,7 +10525,7 @@
         <v>289</v>
       </c>
       <c r="AA60" t="s">
-        <v>341</v>
+        <v>127</v>
       </c>
     </row>
     <row r="61">
@@ -9871,7 +10533,7 @@
         <v>298</v>
       </c>
       <c r="AA61" t="s">
-        <v>457</v>
+        <v>341</v>
       </c>
     </row>
     <row r="62">
@@ -9879,7 +10541,7 @@
         <v>307</v>
       </c>
       <c r="AA62" t="s">
-        <v>128</v>
+        <v>457</v>
       </c>
     </row>
     <row r="63">
@@ -9887,7 +10549,7 @@
         <v>332</v>
       </c>
       <c r="AA63" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="64">
@@ -9895,7 +10557,7 @@
         <v>304</v>
       </c>
       <c r="AA64" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="65">
@@ -9903,7 +10565,7 @@
         <v>305</v>
       </c>
       <c r="AA65" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="66">
@@ -9911,7 +10573,7 @@
         <v>362</v>
       </c>
       <c r="AA66" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="67">
@@ -9919,7 +10581,7 @@
         <v>363</v>
       </c>
       <c r="AA67" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="68">
@@ -9927,7 +10589,7 @@
         <v>340</v>
       </c>
       <c r="AA68" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="69">
@@ -9935,7 +10597,7 @@
         <v>308</v>
       </c>
       <c r="AA69" t="s">
-        <v>432</v>
+        <v>134</v>
       </c>
     </row>
     <row r="70">
@@ -9943,7 +10605,7 @@
         <v>264</v>
       </c>
       <c r="AA70" t="s">
-        <v>465</v>
+        <v>432</v>
       </c>
     </row>
     <row r="71">
@@ -9951,7 +10613,7 @@
         <v>517</v>
       </c>
       <c r="AA71" t="s">
-        <v>210</v>
+        <v>465</v>
       </c>
     </row>
     <row r="72">
@@ -9959,7 +10621,7 @@
         <v>309</v>
       </c>
       <c r="AA72" t="s">
-        <v>381</v>
+        <v>210</v>
       </c>
     </row>
     <row r="73">
@@ -9967,7 +10629,7 @@
         <v>402</v>
       </c>
       <c r="AA73" t="s">
-        <v>433</v>
+        <v>381</v>
       </c>
     </row>
     <row r="74">
@@ -9975,7 +10637,7 @@
         <v>299</v>
       </c>
       <c r="AA74" t="s">
-        <v>135</v>
+        <v>433</v>
       </c>
     </row>
     <row r="75">
@@ -9983,7 +10645,7 @@
         <v>403</v>
       </c>
       <c r="AA75" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="76">
@@ -9991,7 +10653,7 @@
         <v>257</v>
       </c>
       <c r="AA76" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="77">
@@ -9999,7 +10661,7 @@
         <v>502</v>
       </c>
       <c r="AA77" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="78">
@@ -10007,7 +10669,7 @@
         <v>339</v>
       </c>
       <c r="AA78" t="s">
-        <v>193</v>
+        <v>138</v>
       </c>
     </row>
     <row r="79">
@@ -10015,7 +10677,7 @@
         <v>275</v>
       </c>
       <c r="AA79" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="80">
@@ -10023,7 +10685,7 @@
         <v>281</v>
       </c>
       <c r="AA80" t="s">
-        <v>445</v>
+        <v>194</v>
       </c>
     </row>
     <row r="81">
@@ -10031,7 +10693,7 @@
         <v>286</v>
       </c>
       <c r="AA81" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
     </row>
     <row r="82">
@@ -10039,7 +10701,7 @@
         <v>421</v>
       </c>
       <c r="AA82" t="s">
-        <v>139</v>
+        <v>458</v>
       </c>
     </row>
     <row r="83">
@@ -10047,7 +10709,7 @@
         <v>327</v>
       </c>
       <c r="AA83" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="84">
@@ -10055,7 +10717,7 @@
         <v>265</v>
       </c>
       <c r="AA84" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="85">
@@ -10063,7 +10725,7 @@
         <v>276</v>
       </c>
       <c r="AA85" t="s">
-        <v>488</v>
+        <v>141</v>
       </c>
     </row>
     <row r="86">
@@ -10071,7 +10733,7 @@
         <v>282</v>
       </c>
       <c r="AA86" t="s">
-        <v>142</v>
+        <v>488</v>
       </c>
     </row>
     <row r="87">
@@ -10079,7 +10741,7 @@
         <v>271</v>
       </c>
       <c r="AA87" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="88">
@@ -10087,7 +10749,7 @@
         <v>519</v>
       </c>
       <c r="AA88" t="s">
-        <v>195</v>
+        <v>143</v>
       </c>
     </row>
     <row r="89">
@@ -10095,7 +10757,7 @@
         <v>266</v>
       </c>
       <c r="AA89" t="s">
-        <v>489</v>
+        <v>195</v>
       </c>
     </row>
     <row r="90">
@@ -10103,7 +10765,7 @@
         <v>283</v>
       </c>
       <c r="AA90" t="s">
-        <v>598</v>
+        <v>489</v>
       </c>
     </row>
     <row r="91">
@@ -10111,7 +10773,7 @@
         <v>267</v>
       </c>
       <c r="AA91" t="s">
-        <v>196</v>
+        <v>598</v>
       </c>
     </row>
     <row r="92">
@@ -10119,7 +10781,7 @@
         <v>268</v>
       </c>
       <c r="AA92" t="s">
-        <v>446</v>
+        <v>196</v>
       </c>
     </row>
     <row r="93">
@@ -10127,7 +10789,7 @@
         <v>300</v>
       </c>
       <c r="AA93" t="s">
-        <v>197</v>
+        <v>446</v>
       </c>
     </row>
     <row r="94">
@@ -10135,7 +10797,7 @@
         <v>306</v>
       </c>
       <c r="AA94" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="95">
@@ -10143,7 +10805,7 @@
         <v>290</v>
       </c>
       <c r="AA95" t="s">
-        <v>537</v>
+        <v>198</v>
       </c>
     </row>
     <row r="96">
@@ -10151,7 +10813,7 @@
         <v>335</v>
       </c>
       <c r="AA96" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="97">
@@ -10159,7 +10821,7 @@
         <v>272</v>
       </c>
       <c r="AA97" t="s">
-        <v>211</v>
+        <v>538</v>
       </c>
     </row>
     <row r="98">
@@ -10167,236 +10829,241 @@
         <v>273</v>
       </c>
       <c r="AA98" t="s">
-        <v>144</v>
+        <v>211</v>
       </c>
     </row>
     <row r="99">
       <c r="AA99" t="s">
-        <v>199</v>
+        <v>144</v>
       </c>
     </row>
     <row r="100">
       <c r="AA100" t="s">
-        <v>434</v>
+        <v>199</v>
       </c>
     </row>
     <row r="101">
       <c r="AA101" t="s">
-        <v>596</v>
+        <v>434</v>
       </c>
     </row>
     <row r="102">
       <c r="AA102" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="103">
       <c r="AA103" t="s">
-        <v>435</v>
+        <v>597</v>
       </c>
     </row>
     <row r="104">
       <c r="AA104" t="s">
-        <v>200</v>
+        <v>435</v>
       </c>
     </row>
     <row r="105">
       <c r="AA105" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="106">
       <c r="AA106" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="107">
       <c r="AA107" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="108">
       <c r="AA108" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
     </row>
     <row r="109">
       <c r="AA109" t="s">
-        <v>602</v>
+        <v>219</v>
       </c>
     </row>
     <row r="110">
       <c r="AA110" t="s">
-        <v>204</v>
+        <v>602</v>
       </c>
     </row>
     <row r="111">
       <c r="AA111" t="s">
-        <v>490</v>
+        <v>204</v>
       </c>
     </row>
     <row r="112">
       <c r="AA112" t="s">
-        <v>541</v>
+        <v>490</v>
       </c>
     </row>
     <row r="113">
       <c r="AA113" t="s">
-        <v>514</v>
+        <v>541</v>
       </c>
     </row>
     <row r="114">
       <c r="AA114" t="s">
-        <v>145</v>
+        <v>514</v>
       </c>
     </row>
     <row r="115">
       <c r="AA115" t="s">
-        <v>515</v>
+        <v>145</v>
       </c>
     </row>
     <row r="116">
       <c r="AA116" t="s">
-        <v>375</v>
+        <v>515</v>
       </c>
     </row>
     <row r="117">
       <c r="AA117" t="s">
-        <v>146</v>
+        <v>375</v>
       </c>
     </row>
     <row r="118">
       <c r="AA118" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="119">
       <c r="AA119" t="s">
-        <v>603</v>
+        <v>147</v>
       </c>
     </row>
     <row r="120">
       <c r="AA120" t="s">
-        <v>148</v>
+        <v>603</v>
       </c>
     </row>
     <row r="121">
       <c r="AA121" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="122">
       <c r="AA122" t="s">
-        <v>604</v>
+        <v>149</v>
       </c>
     </row>
     <row r="123">
       <c r="AA123" t="s">
-        <v>150</v>
+        <v>604</v>
       </c>
     </row>
     <row r="124">
       <c r="AA124" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="125">
       <c r="AA125" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="126">
       <c r="AA126" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="127">
       <c r="AA127" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="128">
       <c r="AA128" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="129">
       <c r="AA129" t="s">
-        <v>605</v>
+        <v>155</v>
       </c>
     </row>
     <row r="130">
       <c r="AA130" t="s">
-        <v>156</v>
+        <v>605</v>
       </c>
     </row>
     <row r="131">
       <c r="AA131" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="132">
       <c r="AA132" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="133">
       <c r="AA133" t="s">
-        <v>436</v>
+        <v>158</v>
       </c>
     </row>
     <row r="134">
       <c r="AA134" t="s">
-        <v>159</v>
+        <v>629</v>
       </c>
     </row>
     <row r="135">
       <c r="AA135" t="s">
-        <v>535</v>
+        <v>159</v>
       </c>
     </row>
     <row r="136">
       <c r="AA136" t="s">
-        <v>160</v>
+        <v>535</v>
       </c>
     </row>
     <row r="137">
       <c r="AA137" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="138">
       <c r="AA138" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="139">
       <c r="AA139" t="s">
-        <v>46</v>
+        <v>162</v>
       </c>
     </row>
     <row r="140">
       <c r="AA140" t="s">
-        <v>163</v>
+        <v>46</v>
       </c>
     </row>
     <row r="141">
       <c r="AA141" t="s">
-        <v>606</v>
+        <v>163</v>
       </c>
     </row>
     <row r="142">
       <c r="AA142" t="s">
-        <v>164</v>
+        <v>606</v>
       </c>
     </row>
     <row r="143">
       <c r="AA143" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="144">
       <c r="AA144" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="AA145" t="s">
         <v>166</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_web_metrics.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_web_metrics.xlsx
@@ -23,13 +23,13 @@
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
-    <definedName name="base">'#system'!$F$2:$F$44</definedName>
+    <definedName name="base">'#system'!$F$2:$F$45</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
-    <definedName name="external">'#system'!$J$2:$J$6</definedName>
+    <definedName name="external">'#system'!$J$2:$J$7</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
     <definedName name="io">'#system'!$L$2:$L$31</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
@@ -49,15 +49,15 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$33</definedName>
+    <definedName name="target">'#system'!$A$2:$A$32</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
     <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
-    <definedName name="web">'#system'!$AB$2:$AB$151</definedName>
-    <definedName name="webalert">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="webcookie">'#system'!$AD$2:$AD$10</definedName>
-    <definedName name="ws">'#system'!$AE$2:$AE$17</definedName>
-    <definedName name="ws.async">'#system'!$AF$2:$AF$8</definedName>
-    <definedName name="xml">'#system'!$AG$2:$AG$27</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$151</definedName>
+    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
+    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
+    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
+    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1539" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2141" uniqueCount="671">
   <si>
     <t>description</t>
   </si>
@@ -2087,6 +2087,12 @@
   </si>
   <si>
     <t>5000</t>
+  </si>
+  <si>
+    <t>assertMatch(text,regex)</t>
+  </si>
+  <si>
+    <t>openFile(filePath)</t>
   </si>
 </sst>
 </file>
@@ -2094,7 +2100,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="45" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2278,8 +2284,115 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="28">
+  <fills count="52">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2296,6 +2409,142 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -2480,7 +2729,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="72">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2613,55 +2862,106 @@
     <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="6" fontId="11" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="9" fontId="13" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="12" fontId="14" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="15" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="18" fontId="17" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="21" fontId="19" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="24" fontId="20" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="12" fontId="21" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="24" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="27" fontId="25" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="26" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="24" fontId="27" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="39" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="48" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="36" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="39" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="51" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="39" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="48" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3136,9 +3436,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH151"/>
+  <dimension ref="A1:AG151"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -3227,24 +3527,21 @@
         <v>608</v>
       </c>
       <c r="AA1" t="s">
-        <v>603</v>
+        <v>52</v>
       </c>
       <c r="AB1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AC1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AD1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE1" t="s">
-        <v>55</v>
+        <v>404</v>
       </c>
       <c r="AF1" t="s">
-        <v>404</v>
-      </c>
-      <c r="AG1" t="s">
         <v>222</v>
       </c>
     </row>
@@ -3277,7 +3574,7 @@
         <v>438</v>
       </c>
       <c r="J2" t="s">
-        <v>77</v>
+        <v>670</v>
       </c>
       <c r="K2" t="s">
         <v>606</v>
@@ -3328,24 +3625,21 @@
         <v>612</v>
       </c>
       <c r="AA2" t="s">
-        <v>625</v>
+        <v>94</v>
       </c>
       <c r="AB2" t="s">
-        <v>94</v>
+        <v>166</v>
       </c>
       <c r="AC2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="AD2" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="AE2" t="s">
-        <v>178</v>
+        <v>422</v>
       </c>
       <c r="AF2" t="s">
-        <v>422</v>
-      </c>
-      <c r="AG2" t="s">
         <v>486</v>
       </c>
     </row>
@@ -3375,7 +3669,7 @@
         <v>47</v>
       </c>
       <c r="J3" t="s">
-        <v>470</v>
+        <v>77</v>
       </c>
       <c r="K3" t="s">
         <v>343</v>
@@ -3420,24 +3714,21 @@
         <v>613</v>
       </c>
       <c r="AA3" t="s">
-        <v>626</v>
+        <v>95</v>
       </c>
       <c r="AB3" t="s">
-        <v>95</v>
+        <v>167</v>
       </c>
       <c r="AC3" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="AD3" t="s">
-        <v>172</v>
+        <v>355</v>
       </c>
       <c r="AE3" t="s">
-        <v>355</v>
+        <v>179</v>
       </c>
       <c r="AF3" t="s">
-        <v>179</v>
-      </c>
-      <c r="AG3" t="s">
         <v>223</v>
       </c>
     </row>
@@ -3464,7 +3755,7 @@
         <v>439</v>
       </c>
       <c r="J4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="K4" t="s">
         <v>344</v>
@@ -3509,24 +3800,21 @@
         <v>614</v>
       </c>
       <c r="AA4" t="s">
-        <v>627</v>
+        <v>588</v>
       </c>
       <c r="AB4" t="s">
-        <v>588</v>
+        <v>168</v>
       </c>
       <c r="AC4" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="AD4" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="AE4" t="s">
-        <v>179</v>
+        <v>414</v>
       </c>
       <c r="AF4" t="s">
-        <v>414</v>
-      </c>
-      <c r="AG4" t="s">
         <v>224</v>
       </c>
     </row>
@@ -3553,7 +3841,7 @@
         <v>448</v>
       </c>
       <c r="J5" t="s">
-        <v>513</v>
+        <v>471</v>
       </c>
       <c r="K5" t="s">
         <v>345</v>
@@ -3586,24 +3874,21 @@
         <v>350</v>
       </c>
       <c r="AA5" t="s">
-        <v>628</v>
+        <v>537</v>
       </c>
       <c r="AB5" t="s">
-        <v>537</v>
+        <v>169</v>
       </c>
       <c r="AC5" t="s">
-        <v>169</v>
+        <v>599</v>
       </c>
       <c r="AD5" t="s">
-        <v>599</v>
+        <v>180</v>
       </c>
       <c r="AE5" t="s">
-        <v>180</v>
+        <v>415</v>
       </c>
       <c r="AF5" t="s">
-        <v>415</v>
-      </c>
-      <c r="AG5" t="s">
         <v>225</v>
       </c>
     </row>
@@ -3630,7 +3915,7 @@
         <v>436</v>
       </c>
       <c r="J6" t="s">
-        <v>586</v>
+        <v>513</v>
       </c>
       <c r="K6" t="s">
         <v>607</v>
@@ -3660,24 +3945,21 @@
         <v>352</v>
       </c>
       <c r="AA6" t="s">
-        <v>629</v>
+        <v>96</v>
       </c>
       <c r="AB6" t="s">
-        <v>96</v>
+        <v>433</v>
       </c>
       <c r="AC6" t="s">
-        <v>433</v>
+        <v>174</v>
       </c>
       <c r="AD6" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="AE6" t="s">
-        <v>181</v>
+        <v>416</v>
       </c>
       <c r="AF6" t="s">
-        <v>416</v>
-      </c>
-      <c r="AG6" t="s">
         <v>226</v>
       </c>
     </row>
@@ -3697,6 +3979,9 @@
       <c r="I7" t="s">
         <v>435</v>
       </c>
+      <c r="J7" t="s">
+        <v>586</v>
+      </c>
       <c r="K7" t="s">
         <v>342</v>
       </c>
@@ -3725,24 +4010,21 @@
         <v>351</v>
       </c>
       <c r="AA7" t="s">
-        <v>630</v>
+        <v>97</v>
       </c>
       <c r="AB7" t="s">
-        <v>97</v>
+        <v>434</v>
       </c>
       <c r="AC7" t="s">
-        <v>434</v>
+        <v>175</v>
       </c>
       <c r="AD7" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="AE7" t="s">
-        <v>182</v>
+        <v>417</v>
       </c>
       <c r="AF7" t="s">
-        <v>417</v>
-      </c>
-      <c r="AG7" t="s">
         <v>515</v>
       </c>
     </row>
@@ -3790,24 +4072,21 @@
         <v>353</v>
       </c>
       <c r="AA8" t="s">
-        <v>631</v>
+        <v>98</v>
       </c>
       <c r="AB8" t="s">
-        <v>98</v>
+        <v>170</v>
       </c>
       <c r="AC8" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="AD8" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="AE8" t="s">
-        <v>183</v>
+        <v>418</v>
       </c>
       <c r="AF8" t="s">
-        <v>418</v>
-      </c>
-      <c r="AG8" t="s">
         <v>516</v>
       </c>
     </row>
@@ -3852,18 +4131,15 @@
         <v>354</v>
       </c>
       <c r="AA9" t="s">
-        <v>632</v>
-      </c>
-      <c r="AB9" t="s">
         <v>204</v>
       </c>
+      <c r="AC9" t="s">
+        <v>177</v>
+      </c>
       <c r="AD9" t="s">
-        <v>177</v>
-      </c>
-      <c r="AE9" t="s">
         <v>184</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="AF9" t="s">
         <v>517</v>
       </c>
     </row>
@@ -3899,18 +4175,15 @@
         <v>396</v>
       </c>
       <c r="AA10" t="s">
-        <v>633</v>
-      </c>
-      <c r="AB10" t="s">
         <v>251</v>
       </c>
+      <c r="AC10" t="s">
+        <v>600</v>
+      </c>
       <c r="AD10" t="s">
-        <v>600</v>
-      </c>
-      <c r="AE10" t="s">
         <v>185</v>
       </c>
-      <c r="AG10" t="s">
+      <c r="AF10" t="s">
         <v>227</v>
       </c>
     </row>
@@ -3919,7 +4192,7 @@
         <v>341</v>
       </c>
       <c r="F11" t="s">
-        <v>536</v>
+        <v>669</v>
       </c>
       <c r="H11" t="s">
         <v>346</v>
@@ -3943,15 +4216,12 @@
         <v>624</v>
       </c>
       <c r="AA11" t="s">
-        <v>634</v>
-      </c>
-      <c r="AB11" t="s">
         <v>252</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AD11" t="s">
         <v>253</v>
       </c>
-      <c r="AG11" t="s">
+      <c r="AF11" t="s">
         <v>228</v>
       </c>
     </row>
@@ -3960,7 +4230,7 @@
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>313</v>
+        <v>536</v>
       </c>
       <c r="H12" t="s">
         <v>268</v>
@@ -3984,15 +4254,12 @@
         <v>243</v>
       </c>
       <c r="AA12" t="s">
-        <v>635</v>
-      </c>
-      <c r="AB12" t="s">
         <v>99</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AD12" t="s">
         <v>186</v>
       </c>
-      <c r="AG12" t="s">
+      <c r="AF12" t="s">
         <v>229</v>
       </c>
     </row>
@@ -4001,7 +4268,7 @@
         <v>327</v>
       </c>
       <c r="F13" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="H13" t="s">
         <v>257</v>
@@ -4025,15 +4292,12 @@
         <v>244</v>
       </c>
       <c r="AA13" t="s">
-        <v>636</v>
-      </c>
-      <c r="AB13" t="s">
         <v>320</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AD13" t="s">
         <v>187</v>
       </c>
-      <c r="AG13" t="s">
+      <c r="AF13" t="s">
         <v>461</v>
       </c>
     </row>
@@ -4042,7 +4306,7 @@
         <v>24</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>335</v>
       </c>
       <c r="H14" t="s">
         <v>310</v>
@@ -4063,15 +4327,12 @@
         <v>592</v>
       </c>
       <c r="AA14" t="s">
-        <v>637</v>
-      </c>
-      <c r="AB14" t="s">
         <v>100</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AD14" t="s">
         <v>188</v>
       </c>
-      <c r="AG14" t="s">
+      <c r="AF14" t="s">
         <v>487</v>
       </c>
     </row>
@@ -4080,7 +4341,7 @@
         <v>494</v>
       </c>
       <c r="F15" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="H15" t="s">
         <v>258</v>
@@ -4101,15 +4362,12 @@
         <v>249</v>
       </c>
       <c r="AA15" t="s">
-        <v>638</v>
-      </c>
-      <c r="AB15" t="s">
         <v>615</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AD15" t="s">
         <v>189</v>
       </c>
-      <c r="AG15" t="s">
+      <c r="AF15" t="s">
         <v>488</v>
       </c>
     </row>
@@ -4118,7 +4376,7 @@
         <v>464</v>
       </c>
       <c r="F16" t="s">
-        <v>375</v>
+        <v>57</v>
       </c>
       <c r="H16" t="s">
         <v>259</v>
@@ -4139,15 +4397,12 @@
         <v>245</v>
       </c>
       <c r="AA16" t="s">
-        <v>639</v>
-      </c>
-      <c r="AB16" t="s">
         <v>593</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AD16" t="s">
         <v>190</v>
       </c>
-      <c r="AG16" t="s">
+      <c r="AF16" t="s">
         <v>489</v>
       </c>
     </row>
@@ -4156,7 +4411,7 @@
         <v>191</v>
       </c>
       <c r="F17" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H17" t="s">
         <v>311</v>
@@ -4171,15 +4426,12 @@
         <v>246</v>
       </c>
       <c r="AA17" t="s">
-        <v>640</v>
-      </c>
-      <c r="AB17" t="s">
         <v>101</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AD17" t="s">
         <v>454</v>
       </c>
-      <c r="AG17" t="s">
+      <c r="AF17" t="s">
         <v>490</v>
       </c>
     </row>
@@ -4188,7 +4440,7 @@
         <v>50</v>
       </c>
       <c r="F18" t="s">
-        <v>405</v>
+        <v>376</v>
       </c>
       <c r="H18" t="s">
         <v>87</v>
@@ -4203,12 +4455,9 @@
         <v>247</v>
       </c>
       <c r="AA18" t="s">
-        <v>641</v>
-      </c>
-      <c r="AB18" t="s">
         <v>73</v>
       </c>
-      <c r="AG18" t="s">
+      <c r="AF18" t="s">
         <v>462</v>
       </c>
     </row>
@@ -4217,7 +4466,7 @@
         <v>234</v>
       </c>
       <c r="F19" t="s">
-        <v>618</v>
+        <v>405</v>
       </c>
       <c r="H19" t="s">
         <v>88</v>
@@ -4226,12 +4475,9 @@
         <v>450</v>
       </c>
       <c r="AA19" t="s">
-        <v>642</v>
-      </c>
-      <c r="AB19" t="s">
         <v>480</v>
       </c>
-      <c r="AG19" t="s">
+      <c r="AF19" t="s">
         <v>491</v>
       </c>
     </row>
@@ -4240,7 +4486,7 @@
         <v>51</v>
       </c>
       <c r="F20" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H20" t="s">
         <v>290</v>
@@ -4249,12 +4495,9 @@
         <v>81</v>
       </c>
       <c r="AA20" t="s">
-        <v>643</v>
-      </c>
-      <c r="AB20" t="s">
         <v>102</v>
       </c>
-      <c r="AG20" t="s">
+      <c r="AF20" t="s">
         <v>492</v>
       </c>
     </row>
@@ -4263,7 +4506,7 @@
         <v>386</v>
       </c>
       <c r="F21" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H21" t="s">
         <v>291</v>
@@ -4272,12 +4515,9 @@
         <v>82</v>
       </c>
       <c r="AA21" t="s">
-        <v>644</v>
-      </c>
-      <c r="AB21" t="s">
         <v>103</v>
       </c>
-      <c r="AG21" t="s">
+      <c r="AF21" t="s">
         <v>493</v>
       </c>
     </row>
@@ -4286,7 +4526,7 @@
         <v>402</v>
       </c>
       <c r="F22" t="s">
-        <v>58</v>
+        <v>620</v>
       </c>
       <c r="H22" t="s">
         <v>292</v>
@@ -4295,12 +4535,9 @@
         <v>539</v>
       </c>
       <c r="AA22" t="s">
-        <v>604</v>
-      </c>
-      <c r="AB22" t="s">
         <v>104</v>
       </c>
-      <c r="AG22" t="s">
+      <c r="AF22" t="s">
         <v>230</v>
       </c>
     </row>
@@ -4309,7 +4546,7 @@
         <v>403</v>
       </c>
       <c r="F23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H23" t="s">
         <v>293</v>
@@ -4318,12 +4555,9 @@
         <v>457</v>
       </c>
       <c r="AA23" t="s">
-        <v>645</v>
-      </c>
-      <c r="AB23" t="s">
         <v>105</v>
       </c>
-      <c r="AG23" t="s">
+      <c r="AF23" t="s">
         <v>518</v>
       </c>
     </row>
@@ -4332,7 +4566,7 @@
         <v>348</v>
       </c>
       <c r="F24" t="s">
-        <v>250</v>
+        <v>59</v>
       </c>
       <c r="H24" t="s">
         <v>284</v>
@@ -4341,12 +4575,9 @@
         <v>43</v>
       </c>
       <c r="AA24" t="s">
-        <v>646</v>
-      </c>
-      <c r="AB24" t="s">
         <v>481</v>
       </c>
-      <c r="AG24" t="s">
+      <c r="AF24" t="s">
         <v>519</v>
       </c>
     </row>
@@ -4355,7 +4586,7 @@
         <v>387</v>
       </c>
       <c r="F25" t="s">
-        <v>621</v>
+        <v>250</v>
       </c>
       <c r="H25" t="s">
         <v>273</v>
@@ -4364,12 +4595,9 @@
         <v>382</v>
       </c>
       <c r="AA25" t="s">
-        <v>647</v>
-      </c>
-      <c r="AB25" t="s">
         <v>106</v>
       </c>
-      <c r="AG25" t="s">
+      <c r="AF25" t="s">
         <v>520</v>
       </c>
     </row>
@@ -4378,7 +4606,7 @@
         <v>608</v>
       </c>
       <c r="F26" t="s">
-        <v>524</v>
+        <v>621</v>
       </c>
       <c r="H26" t="s">
         <v>74</v>
@@ -4387,21 +4615,18 @@
         <v>623</v>
       </c>
       <c r="AA26" t="s">
-        <v>605</v>
-      </c>
-      <c r="AB26" t="s">
         <v>528</v>
       </c>
-      <c r="AG26" t="s">
+      <c r="AF26" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>603</v>
+        <v>52</v>
       </c>
       <c r="F27" t="s">
-        <v>60</v>
+        <v>524</v>
       </c>
       <c r="H27" t="s">
         <v>276</v>
@@ -4410,21 +4635,18 @@
         <v>511</v>
       </c>
       <c r="AA27" t="s">
-        <v>648</v>
-      </c>
-      <c r="AB27" t="s">
         <v>107</v>
       </c>
-      <c r="AG27" t="s">
+      <c r="AF27" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F28" t="s">
-        <v>315</v>
+        <v>60</v>
       </c>
       <c r="H28" t="s">
         <v>260</v>
@@ -4433,18 +4655,15 @@
         <v>83</v>
       </c>
       <c r="AA28" t="s">
-        <v>649</v>
-      </c>
-      <c r="AB28" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F29" t="s">
-        <v>61</v>
+        <v>315</v>
       </c>
       <c r="H29" t="s">
         <v>277</v>
@@ -4453,18 +4672,15 @@
         <v>424</v>
       </c>
       <c r="AA29" t="s">
-        <v>650</v>
-      </c>
-      <c r="AB29" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F30" t="s">
-        <v>437</v>
+        <v>61</v>
       </c>
       <c r="H30" t="s">
         <v>278</v>
@@ -4473,18 +4689,15 @@
         <v>44</v>
       </c>
       <c r="AA30" t="s">
-        <v>651</v>
-      </c>
-      <c r="AB30" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>404</v>
       </c>
       <c r="F31" t="s">
-        <v>220</v>
+        <v>437</v>
       </c>
       <c r="H31" t="s">
         <v>211</v>
@@ -4493,187 +4706,163 @@
         <v>45</v>
       </c>
       <c r="AA31" t="s">
-        <v>652</v>
-      </c>
-      <c r="AB31" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>404</v>
+        <v>222</v>
       </c>
       <c r="F32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H32" t="s">
         <v>269</v>
       </c>
       <c r="AA32" t="s">
-        <v>653</v>
-      </c>
-      <c r="AB32" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s">
-        <v>222</v>
-      </c>
       <c r="F33" t="s">
-        <v>455</v>
+        <v>221</v>
       </c>
       <c r="H33" t="s">
         <v>279</v>
       </c>
       <c r="AA33" t="s">
-        <v>654</v>
-      </c>
-      <c r="AB33" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H34" t="s">
         <v>496</v>
       </c>
       <c r="AA34" t="s">
-        <v>655</v>
-      </c>
-      <c r="AB34" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>406</v>
+        <v>456</v>
       </c>
       <c r="H35" t="s">
         <v>254</v>
       </c>
       <c r="AA35" t="s">
-        <v>656</v>
-      </c>
-      <c r="AB35" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>62</v>
+        <v>406</v>
       </c>
       <c r="H36" t="s">
         <v>324</v>
       </c>
       <c r="AA36" t="s">
-        <v>657</v>
-      </c>
-      <c r="AB36" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H37" t="s">
         <v>301</v>
       </c>
       <c r="AA37" t="s">
-        <v>658</v>
-      </c>
-      <c r="AB37" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H38" t="s">
         <v>255</v>
       </c>
       <c r="AA38" t="s">
-        <v>659</v>
-      </c>
-      <c r="AB38" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H39" t="s">
         <v>302</v>
       </c>
-      <c r="AB39" t="s">
+      <c r="AA39" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="40">
       <c r="F40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H40" t="s">
         <v>261</v>
       </c>
-      <c r="AB40" t="s">
+      <c r="AA40" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="41">
       <c r="F41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H41" t="s">
         <v>76</v>
       </c>
-      <c r="AB41" t="s">
+      <c r="AA41" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="42">
       <c r="F42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H42" t="s">
         <v>207</v>
       </c>
-      <c r="AB42" t="s">
+      <c r="AA42" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="43">
       <c r="F43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H43" t="s">
         <v>525</v>
       </c>
-      <c r="AB43" t="s">
+      <c r="AA43" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="44">
       <c r="F44" t="s">
-        <v>622</v>
+        <v>69</v>
       </c>
       <c r="H44" t="s">
         <v>283</v>
       </c>
-      <c r="AB44" t="s">
+      <c r="AA44" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="45">
+      <c r="F45" t="s">
+        <v>622</v>
+      </c>
       <c r="H45" t="s">
         <v>294</v>
       </c>
-      <c r="AB45" t="s">
+      <c r="AA45" t="s">
         <v>118</v>
       </c>
     </row>
@@ -4681,7 +4870,7 @@
       <c r="H46" t="s">
         <v>295</v>
       </c>
-      <c r="AB46" t="s">
+      <c r="AA46" t="s">
         <v>119</v>
       </c>
     </row>
@@ -4689,7 +4878,7 @@
       <c r="H47" t="s">
         <v>337</v>
       </c>
-      <c r="AB47" t="s">
+      <c r="AA47" t="s">
         <v>120</v>
       </c>
     </row>
@@ -4697,7 +4886,7 @@
       <c r="H48" t="s">
         <v>336</v>
       </c>
-      <c r="AB48" t="s">
+      <c r="AA48" t="s">
         <v>121</v>
       </c>
     </row>
@@ -4705,7 +4894,7 @@
       <c r="H49" t="s">
         <v>206</v>
       </c>
-      <c r="AB49" t="s">
+      <c r="AA49" t="s">
         <v>122</v>
       </c>
     </row>
@@ -4713,7 +4902,7 @@
       <c r="H50" t="s">
         <v>314</v>
       </c>
-      <c r="AB50" t="s">
+      <c r="AA50" t="s">
         <v>123</v>
       </c>
     </row>
@@ -4721,7 +4910,7 @@
       <c r="H51" t="s">
         <v>333</v>
       </c>
-      <c r="AB51" t="s">
+      <c r="AA51" t="s">
         <v>616</v>
       </c>
     </row>
@@ -4729,7 +4918,7 @@
       <c r="H52" t="s">
         <v>359</v>
       </c>
-      <c r="AB52" t="s">
+      <c r="AA52" t="s">
         <v>208</v>
       </c>
     </row>
@@ -4737,7 +4926,7 @@
       <c r="H53" t="s">
         <v>296</v>
       </c>
-      <c r="AB53" t="s">
+      <c r="AA53" t="s">
         <v>75</v>
       </c>
     </row>
@@ -4745,7 +4934,7 @@
       <c r="H54" t="s">
         <v>347</v>
       </c>
-      <c r="AB54" t="s">
+      <c r="AA54" t="s">
         <v>522</v>
       </c>
     </row>
@@ -4753,7 +4942,7 @@
       <c r="H55" t="s">
         <v>325</v>
       </c>
-      <c r="AB55" t="s">
+      <c r="AA55" t="s">
         <v>124</v>
       </c>
     </row>
@@ -4761,7 +4950,7 @@
       <c r="H56" t="s">
         <v>262</v>
       </c>
-      <c r="AB56" t="s">
+      <c r="AA56" t="s">
         <v>125</v>
       </c>
     </row>
@@ -4769,7 +4958,7 @@
       <c r="H57" t="s">
         <v>286</v>
       </c>
-      <c r="AB57" t="s">
+      <c r="AA57" t="s">
         <v>126</v>
       </c>
     </row>
@@ -4777,7 +4966,7 @@
       <c r="H58" t="s">
         <v>287</v>
       </c>
-      <c r="AB58" t="s">
+      <c r="AA58" t="s">
         <v>482</v>
       </c>
     </row>
@@ -4785,7 +4974,7 @@
       <c r="H59" t="s">
         <v>526</v>
       </c>
-      <c r="AB59" t="s">
+      <c r="AA59" t="s">
         <v>451</v>
       </c>
     </row>
@@ -4793,7 +4982,7 @@
       <c r="H60" t="s">
         <v>288</v>
       </c>
-      <c r="AB60" t="s">
+      <c r="AA60" t="s">
         <v>127</v>
       </c>
     </row>
@@ -4801,7 +4990,7 @@
       <c r="H61" t="s">
         <v>297</v>
       </c>
-      <c r="AB61" t="s">
+      <c r="AA61" t="s">
         <v>340</v>
       </c>
     </row>
@@ -4809,7 +4998,7 @@
       <c r="H62" t="s">
         <v>306</v>
       </c>
-      <c r="AB62" t="s">
+      <c r="AA62" t="s">
         <v>452</v>
       </c>
     </row>
@@ -4817,7 +5006,7 @@
       <c r="H63" t="s">
         <v>331</v>
       </c>
-      <c r="AB63" t="s">
+      <c r="AA63" t="s">
         <v>128</v>
       </c>
     </row>
@@ -4825,7 +5014,7 @@
       <c r="H64" t="s">
         <v>303</v>
       </c>
-      <c r="AB64" t="s">
+      <c r="AA64" t="s">
         <v>129</v>
       </c>
     </row>
@@ -4833,7 +5022,7 @@
       <c r="H65" t="s">
         <v>304</v>
       </c>
-      <c r="AB65" t="s">
+      <c r="AA65" t="s">
         <v>130</v>
       </c>
     </row>
@@ -4841,7 +5030,7 @@
       <c r="H66" t="s">
         <v>360</v>
       </c>
-      <c r="AB66" t="s">
+      <c r="AA66" t="s">
         <v>131</v>
       </c>
     </row>
@@ -4849,7 +5038,7 @@
       <c r="H67" t="s">
         <v>361</v>
       </c>
-      <c r="AB67" t="s">
+      <c r="AA67" t="s">
         <v>132</v>
       </c>
     </row>
@@ -4857,7 +5046,7 @@
       <c r="H68" t="s">
         <v>339</v>
       </c>
-      <c r="AB68" t="s">
+      <c r="AA68" t="s">
         <v>133</v>
       </c>
     </row>
@@ -4865,7 +5054,7 @@
       <c r="H69" t="s">
         <v>307</v>
       </c>
-      <c r="AB69" t="s">
+      <c r="AA69" t="s">
         <v>134</v>
       </c>
     </row>
@@ -4873,7 +5062,7 @@
       <c r="H70" t="s">
         <v>263</v>
       </c>
-      <c r="AB70" t="s">
+      <c r="AA70" t="s">
         <v>429</v>
       </c>
     </row>
@@ -4881,7 +5070,7 @@
       <c r="H71" t="s">
         <v>512</v>
       </c>
-      <c r="AB71" t="s">
+      <c r="AA71" t="s">
         <v>460</v>
       </c>
     </row>
@@ -4889,7 +5078,7 @@
       <c r="H72" t="s">
         <v>308</v>
       </c>
-      <c r="AB72" t="s">
+      <c r="AA72" t="s">
         <v>209</v>
       </c>
     </row>
@@ -4897,7 +5086,7 @@
       <c r="H73" t="s">
         <v>400</v>
       </c>
-      <c r="AB73" t="s">
+      <c r="AA73" t="s">
         <v>379</v>
       </c>
     </row>
@@ -4905,7 +5094,7 @@
       <c r="H74" t="s">
         <v>298</v>
       </c>
-      <c r="AB74" t="s">
+      <c r="AA74" t="s">
         <v>430</v>
       </c>
     </row>
@@ -4913,7 +5102,7 @@
       <c r="H75" t="s">
         <v>401</v>
       </c>
-      <c r="AB75" t="s">
+      <c r="AA75" t="s">
         <v>135</v>
       </c>
     </row>
@@ -4921,7 +5110,7 @@
       <c r="H76" t="s">
         <v>256</v>
       </c>
-      <c r="AB76" t="s">
+      <c r="AA76" t="s">
         <v>136</v>
       </c>
     </row>
@@ -4929,7 +5118,7 @@
       <c r="H77" t="s">
         <v>497</v>
       </c>
-      <c r="AB77" t="s">
+      <c r="AA77" t="s">
         <v>137</v>
       </c>
     </row>
@@ -4937,7 +5126,7 @@
       <c r="H78" t="s">
         <v>338</v>
       </c>
-      <c r="AB78" t="s">
+      <c r="AA78" t="s">
         <v>138</v>
       </c>
     </row>
@@ -4945,7 +5134,7 @@
       <c r="H79" t="s">
         <v>274</v>
       </c>
-      <c r="AB79" t="s">
+      <c r="AA79" t="s">
         <v>660</v>
       </c>
     </row>
@@ -4953,7 +5142,7 @@
       <c r="H80" t="s">
         <v>280</v>
       </c>
-      <c r="AB80" t="s">
+      <c r="AA80" t="s">
         <v>192</v>
       </c>
     </row>
@@ -4961,7 +5150,7 @@
       <c r="H81" t="s">
         <v>285</v>
       </c>
-      <c r="AB81" t="s">
+      <c r="AA81" t="s">
         <v>193</v>
       </c>
     </row>
@@ -4969,7 +5158,7 @@
       <c r="H82" t="s">
         <v>419</v>
       </c>
-      <c r="AB82" t="s">
+      <c r="AA82" t="s">
         <v>441</v>
       </c>
     </row>
@@ -4977,7 +5166,7 @@
       <c r="H83" t="s">
         <v>326</v>
       </c>
-      <c r="AB83" t="s">
+      <c r="AA83" t="s">
         <v>453</v>
       </c>
     </row>
@@ -4985,7 +5174,7 @@
       <c r="H84" t="s">
         <v>264</v>
       </c>
-      <c r="AB84" t="s">
+      <c r="AA84" t="s">
         <v>139</v>
       </c>
     </row>
@@ -4993,7 +5182,7 @@
       <c r="H85" t="s">
         <v>275</v>
       </c>
-      <c r="AB85" t="s">
+      <c r="AA85" t="s">
         <v>140</v>
       </c>
     </row>
@@ -5001,7 +5190,7 @@
       <c r="H86" t="s">
         <v>281</v>
       </c>
-      <c r="AB86" t="s">
+      <c r="AA86" t="s">
         <v>141</v>
       </c>
     </row>
@@ -5009,7 +5198,7 @@
       <c r="H87" t="s">
         <v>270</v>
       </c>
-      <c r="AB87" t="s">
+      <c r="AA87" t="s">
         <v>483</v>
       </c>
     </row>
@@ -5017,7 +5206,7 @@
       <c r="H88" t="s">
         <v>514</v>
       </c>
-      <c r="AB88" t="s">
+      <c r="AA88" t="s">
         <v>142</v>
       </c>
     </row>
@@ -5025,7 +5214,7 @@
       <c r="H89" t="s">
         <v>265</v>
       </c>
-      <c r="AB89" t="s">
+      <c r="AA89" t="s">
         <v>143</v>
       </c>
     </row>
@@ -5033,7 +5222,7 @@
       <c r="H90" t="s">
         <v>282</v>
       </c>
-      <c r="AB90" t="s">
+      <c r="AA90" t="s">
         <v>194</v>
       </c>
     </row>
@@ -5041,7 +5230,7 @@
       <c r="H91" t="s">
         <v>266</v>
       </c>
-      <c r="AB91" t="s">
+      <c r="AA91" t="s">
         <v>484</v>
       </c>
     </row>
@@ -5049,7 +5238,7 @@
       <c r="H92" t="s">
         <v>267</v>
       </c>
-      <c r="AB92" t="s">
+      <c r="AA92" t="s">
         <v>591</v>
       </c>
     </row>
@@ -5057,7 +5246,7 @@
       <c r="H93" t="s">
         <v>299</v>
       </c>
-      <c r="AB93" t="s">
+      <c r="AA93" t="s">
         <v>195</v>
       </c>
     </row>
@@ -5065,7 +5254,7 @@
       <c r="H94" t="s">
         <v>305</v>
       </c>
-      <c r="AB94" t="s">
+      <c r="AA94" t="s">
         <v>442</v>
       </c>
     </row>
@@ -5073,7 +5262,7 @@
       <c r="H95" t="s">
         <v>289</v>
       </c>
-      <c r="AB95" t="s">
+      <c r="AA95" t="s">
         <v>196</v>
       </c>
     </row>
@@ -5081,7 +5270,7 @@
       <c r="H96" t="s">
         <v>334</v>
       </c>
-      <c r="AB96" t="s">
+      <c r="AA96" t="s">
         <v>197</v>
       </c>
     </row>
@@ -5089,7 +5278,7 @@
       <c r="H97" t="s">
         <v>271</v>
       </c>
-      <c r="AB97" t="s">
+      <c r="AA97" t="s">
         <v>532</v>
       </c>
     </row>
@@ -5097,272 +5286,272 @@
       <c r="H98" t="s">
         <v>272</v>
       </c>
-      <c r="AB98" t="s">
+      <c r="AA98" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="99">
-      <c r="AB99" t="s">
+      <c r="AA99" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="100">
-      <c r="AB100" t="s">
+      <c r="AA100" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="101">
-      <c r="AB101" t="s">
+      <c r="AA101" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="102">
-      <c r="AB102" t="s">
+      <c r="AA102" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="103">
-      <c r="AB103" t="s">
+      <c r="AA103" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="104">
-      <c r="AB104" t="s">
+      <c r="AA104" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="105">
-      <c r="AB105" t="s">
+      <c r="AA105" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="106">
-      <c r="AB106" t="s">
+      <c r="AA106" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="107">
-      <c r="AB107" t="s">
+      <c r="AA107" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="108">
-      <c r="AB108" t="s">
+      <c r="AA108" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="109">
-      <c r="AB109" t="s">
+      <c r="AA109" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="110">
-      <c r="AB110" t="s">
+      <c r="AA110" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="111">
-      <c r="AB111" t="s">
+      <c r="AA111" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="112">
-      <c r="AB112" t="s">
+      <c r="AA112" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="113">
-      <c r="AB113" t="s">
+      <c r="AA113" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="114">
-      <c r="AB114" t="s">
+      <c r="AA114" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="115">
-      <c r="AB115" t="s">
+      <c r="AA115" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="116">
-      <c r="AB116" t="s">
+      <c r="AA116" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="117">
-      <c r="AB117" t="s">
+      <c r="AA117" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="118">
-      <c r="AB118" t="s">
+      <c r="AA118" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="119">
-      <c r="AB119" t="s">
+      <c r="AA119" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="120">
-      <c r="AB120" t="s">
+      <c r="AA120" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="121">
-      <c r="AB121" t="s">
+      <c r="AA121" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="122">
-      <c r="AB122" t="s">
+      <c r="AA122" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="123">
-      <c r="AB123" t="s">
+      <c r="AA123" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="124">
-      <c r="AB124" t="s">
+      <c r="AA124" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="125">
-      <c r="AB125" t="s">
+      <c r="AA125" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="126">
-      <c r="AB126" t="s">
+      <c r="AA126" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="127">
-      <c r="AB127" t="s">
+      <c r="AA127" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="128">
-      <c r="AB128" t="s">
+      <c r="AA128" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="129">
-      <c r="AB129" t="s">
+      <c r="AA129" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="130">
-      <c r="AB130" t="s">
+      <c r="AA130" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="131">
-      <c r="AB131" t="s">
+      <c r="AA131" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="132">
-      <c r="AB132" t="s">
+      <c r="AA132" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="133">
-      <c r="AB133" t="s">
+      <c r="AA133" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="134">
-      <c r="AB134" t="s">
+      <c r="AA134" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="135">
-      <c r="AB135" t="s">
+      <c r="AA135" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="136">
-      <c r="AB136" t="s">
+      <c r="AA136" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="137">
-      <c r="AB137" t="s">
+      <c r="AA137" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="138">
-      <c r="AB138" t="s">
+      <c r="AA138" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="139">
-      <c r="AB139" t="s">
+      <c r="AA139" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="140">
-      <c r="AB140" t="s">
+      <c r="AA140" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="141">
-      <c r="AB141" t="s">
+      <c r="AA141" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="142">
-      <c r="AB142" t="s">
+      <c r="AA142" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="143">
-      <c r="AB143" t="s">
+      <c r="AA143" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="144">
-      <c r="AB144" t="s">
+      <c r="AA144" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="145">
-      <c r="AB145" t="s">
+      <c r="AA145" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="146">
-      <c r="AB146" t="s">
+      <c r="AA146" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="147">
-      <c r="AB147" t="s">
+      <c r="AA147" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="148">
-      <c r="AB148" t="s">
+      <c r="AA148" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="149">
-      <c r="AB149" t="s">
+      <c r="AA149" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="150">
-      <c r="AB150" t="s">
+      <c r="AA150" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="151">
-      <c r="AB151" t="s">
+      <c r="AA151" t="s">
         <v>667</v>
       </c>
     </row>
@@ -5375,7 +5564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P301"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0" zoomScaleNormal="100" zoomScale="100">
+    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -10734,7 +10923,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EC92655-763B-2247-A204-5162177073D9}">
   <dimension ref="A1:P301"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -16093,7 +16282,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3D818EF-5B2F-0749-B2BD-AA7BB51B9894}">
   <dimension ref="A1:P301"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>

--- a/src/test/resources/unittesting/artifact/script/unitTest_web_metrics.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_web_metrics.xlsx
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2141" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3345" uniqueCount="671">
   <si>
     <t>description</t>
   </si>
@@ -2100,7 +2100,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="45" x14ac:knownFonts="1">
+  <fonts count="79" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2391,8 +2391,222 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="52">
+  <fills count="100">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2409,6 +2623,278 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -2729,7 +3215,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="106">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2913,55 +3399,157 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="24" fontId="27" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="28" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="33" fontId="30" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="36" fontId="31" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="39" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="39" fontId="32" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="34" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="45" fontId="36" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="48" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="48" fontId="37" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="36" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="36" fontId="38" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="39" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="40" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="39" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="39" fontId="41" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="51" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="51" fontId="42" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="39" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="39" fontId="43" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="48" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="48" fontId="44" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="54" fontId="45" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="46" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="57" fontId="47" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="60" fontId="48" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="63" fontId="49" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="50" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="66" fontId="51" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="52" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="53" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="72" fontId="54" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="60" fontId="55" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="56" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="57" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="63" fontId="58" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="75" fontId="59" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="63" fontId="60" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="72" fontId="61" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="78" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="81" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="87" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="90" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="93" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="87" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="87" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_web_metrics.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_web_metrics.xlsx
@@ -31,12 +31,12 @@
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$7</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
-    <definedName name="io">'#system'!$L$2:$L$31</definedName>
+    <definedName name="io">'#system'!$L$2:$L$32</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
     <definedName name="macro">'#system'!$P$2:$P$4</definedName>
-    <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$4</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3345" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4555" uniqueCount="675">
   <si>
     <t>description</t>
   </si>
@@ -2093,6 +2093,18 @@
   </si>
   <si>
     <t>openFile(filePath)</t>
+  </si>
+  <si>
+    <t>checksum(var,file)</t>
+  </si>
+  <si>
+    <t>clearMail(var)</t>
+  </si>
+  <si>
+    <t>composeMail(var,action,value)</t>
+  </si>
+  <si>
+    <t>send(profile,var)</t>
   </si>
 </sst>
 </file>
@@ -2100,7 +2112,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="79" x14ac:knownFonts="1">
+  <fonts count="113" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2605,8 +2617,222 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="100">
+  <fills count="148">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2623,6 +2849,278 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -3215,7 +3713,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="140">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3501,55 +3999,157 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="72" fontId="61" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="78" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="78" fontId="62" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="63" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="81" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="81" fontId="64" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="65" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="87" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="87" fontId="66" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="67" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="90" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="90" fontId="68" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="69" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="93" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="93" fontId="70" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="71" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="72" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="73" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="74" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="87" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="87" fontId="75" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="99" fontId="76" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="87" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="87" fontId="77" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="78" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="102" fontId="79" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="80" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="105" fontId="81" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="82" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="83" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="84" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="114" fontId="85" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="86" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="117" fontId="87" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="120" fontId="88" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="89" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="90" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="91" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="92" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="93" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="94" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="120" fontId="95" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="126" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="129" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="132" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="141" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="144" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="132" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="147" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="144" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4183,7 +4783,7 @@
         <v>475</v>
       </c>
       <c r="Q2" t="s">
-        <v>407</v>
+        <v>672</v>
       </c>
       <c r="R2" t="s">
         <v>420</v>
@@ -4277,6 +4877,9 @@
       <c r="P3" t="s">
         <v>476</v>
       </c>
+      <c r="Q3" t="s">
+        <v>673</v>
+      </c>
       <c r="R3" t="s">
         <v>421</v>
       </c>
@@ -4363,6 +4966,9 @@
       <c r="P4" t="s">
         <v>477</v>
       </c>
+      <c r="Q4" t="s">
+        <v>674</v>
+      </c>
       <c r="R4" t="s">
         <v>26</v>
       </c>
@@ -4574,7 +5180,7 @@
         <v>342</v>
       </c>
       <c r="L7" t="s">
-        <v>70</v>
+        <v>671</v>
       </c>
       <c r="N7" t="s">
         <v>309</v>
@@ -4636,7 +5242,7 @@
         <v>521</v>
       </c>
       <c r="L8" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="N8" t="s">
         <v>33</v>
@@ -4695,7 +5301,7 @@
         <v>323</v>
       </c>
       <c r="L9" t="s">
-        <v>472</v>
+        <v>16</v>
       </c>
       <c r="N9" t="s">
         <v>34</v>
@@ -4745,7 +5351,7 @@
         <v>601</v>
       </c>
       <c r="L10" t="s">
-        <v>78</v>
+        <v>472</v>
       </c>
       <c r="N10" t="s">
         <v>35</v>
@@ -4789,7 +5395,7 @@
         <v>602</v>
       </c>
       <c r="L11" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="N11" t="s">
         <v>458</v>
@@ -4827,7 +5433,7 @@
         <v>440</v>
       </c>
       <c r="L12" t="s">
-        <v>473</v>
+        <v>37</v>
       </c>
       <c r="N12" t="s">
         <v>523</v>
@@ -4865,7 +5471,7 @@
         <v>316</v>
       </c>
       <c r="L13" t="s">
-        <v>380</v>
+        <v>473</v>
       </c>
       <c r="N13" t="s">
         <v>426</v>
@@ -4903,7 +5509,7 @@
         <v>317</v>
       </c>
       <c r="L14" t="s">
-        <v>17</v>
+        <v>380</v>
       </c>
       <c r="N14" t="s">
         <v>459</v>
@@ -4938,7 +5544,7 @@
         <v>318</v>
       </c>
       <c r="L15" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="N15" t="s">
         <v>38</v>
@@ -4973,7 +5579,7 @@
         <v>319</v>
       </c>
       <c r="L16" t="s">
-        <v>474</v>
+        <v>41</v>
       </c>
       <c r="N16" t="s">
         <v>527</v>
@@ -5005,7 +5611,7 @@
         <v>311</v>
       </c>
       <c r="L17" t="s">
-        <v>79</v>
+        <v>474</v>
       </c>
       <c r="N17" t="s">
         <v>39</v>
@@ -5034,7 +5640,7 @@
         <v>87</v>
       </c>
       <c r="L18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N18" t="s">
         <v>42</v>
@@ -5060,7 +5666,7 @@
         <v>88</v>
       </c>
       <c r="L19" t="s">
-        <v>450</v>
+        <v>80</v>
       </c>
       <c r="AA19" t="s">
         <v>480</v>
@@ -5080,7 +5686,7 @@
         <v>290</v>
       </c>
       <c r="L20" t="s">
-        <v>81</v>
+        <v>450</v>
       </c>
       <c r="AA20" t="s">
         <v>102</v>
@@ -5100,7 +5706,7 @@
         <v>291</v>
       </c>
       <c r="L21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA21" t="s">
         <v>103</v>
@@ -5120,7 +5726,7 @@
         <v>292</v>
       </c>
       <c r="L22" t="s">
-        <v>539</v>
+        <v>82</v>
       </c>
       <c r="AA22" t="s">
         <v>104</v>
@@ -5140,7 +5746,7 @@
         <v>293</v>
       </c>
       <c r="L23" t="s">
-        <v>457</v>
+        <v>539</v>
       </c>
       <c r="AA23" t="s">
         <v>105</v>
@@ -5160,7 +5766,7 @@
         <v>284</v>
       </c>
       <c r="L24" t="s">
-        <v>43</v>
+        <v>457</v>
       </c>
       <c r="AA24" t="s">
         <v>481</v>
@@ -5180,7 +5786,7 @@
         <v>273</v>
       </c>
       <c r="L25" t="s">
-        <v>382</v>
+        <v>43</v>
       </c>
       <c r="AA25" t="s">
         <v>106</v>
@@ -5200,7 +5806,7 @@
         <v>74</v>
       </c>
       <c r="L26" t="s">
-        <v>623</v>
+        <v>382</v>
       </c>
       <c r="AA26" t="s">
         <v>528</v>
@@ -5220,7 +5826,7 @@
         <v>276</v>
       </c>
       <c r="L27" t="s">
-        <v>511</v>
+        <v>623</v>
       </c>
       <c r="AA27" t="s">
         <v>107</v>
@@ -5240,7 +5846,7 @@
         <v>260</v>
       </c>
       <c r="L28" t="s">
-        <v>83</v>
+        <v>511</v>
       </c>
       <c r="AA28" t="s">
         <v>108</v>
@@ -5257,7 +5863,7 @@
         <v>277</v>
       </c>
       <c r="L29" t="s">
-        <v>424</v>
+        <v>83</v>
       </c>
       <c r="AA29" t="s">
         <v>109</v>
@@ -5274,7 +5880,7 @@
         <v>278</v>
       </c>
       <c r="L30" t="s">
-        <v>44</v>
+        <v>424</v>
       </c>
       <c r="AA30" t="s">
         <v>110</v>
@@ -5291,7 +5897,7 @@
         <v>211</v>
       </c>
       <c r="L31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AA31" t="s">
         <v>321</v>
@@ -5306,6 +5912,9 @@
       </c>
       <c r="H32" t="s">
         <v>269</v>
+      </c>
+      <c r="L32" t="s">
+        <v>45</v>
       </c>
       <c r="AA32" t="s">
         <v>111</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_web_metrics.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_web_metrics.xlsx
@@ -36,12 +36,12 @@
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
     <definedName name="macro">'#system'!$P$2:$P$4</definedName>
-    <definedName name="mail">'#system'!$Q$2:$Q$4</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$5</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$18</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$21</definedName>
     <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4555" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5164" uniqueCount="681">
   <si>
     <t>description</t>
   </si>
@@ -2105,6 +2105,24 @@
   </si>
   <si>
     <t>send(profile,var)</t>
+  </si>
+  <si>
+    <t>clearComposed(var)</t>
+  </si>
+  <si>
+    <t>compose(var,config,value)</t>
+  </si>
+  <si>
+    <t>sendComposed(profile,var)</t>
+  </si>
+  <si>
+    <t>ocr(pdf,saveTo)</t>
+  </si>
+  <si>
+    <t>savePageCount(pdf,var)</t>
+  </si>
+  <si>
+    <t>split(pdf,saveTo)</t>
   </si>
 </sst>
 </file>
@@ -2112,7 +2130,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="113" x14ac:knownFonts="1">
+  <fonts count="130" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2831,8 +2849,115 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="148">
+  <fills count="172">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2849,6 +2974,142 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -3713,7 +3974,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="157">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4101,55 +4362,106 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="120" fontId="95" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="126" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="126" fontId="96" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="97" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="129" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="129" fontId="98" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="132" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="132" fontId="99" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="100" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="101" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="138" fontId="102" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="103" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="104" fillId="141" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="141" fontId="104" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="105" fillId="144" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="144" fontId="105" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="106" fillId="132" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="132" fontId="106" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="107" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="108" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="109" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="109" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="110" fillId="147" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="147" fontId="110" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="111" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="111" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="112" fillId="144" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="144" fontId="112" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="153" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="156" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="159" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="168" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="156" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="159" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="171" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="159" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="168" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4783,7 +5095,7 @@
         <v>475</v>
       </c>
       <c r="Q2" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="R2" t="s">
         <v>420</v>
@@ -4878,7 +5190,7 @@
         <v>476</v>
       </c>
       <c r="Q3" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="R3" t="s">
         <v>421</v>
@@ -4967,7 +5279,7 @@
         <v>477</v>
       </c>
       <c r="Q4" t="s">
-        <v>674</v>
+        <v>407</v>
       </c>
       <c r="R4" t="s">
         <v>26</v>
@@ -5049,6 +5361,9 @@
       <c r="O5" t="s">
         <v>501</v>
       </c>
+      <c r="Q5" t="s">
+        <v>677</v>
+      </c>
       <c r="R5" t="s">
         <v>29</v>
       </c>
@@ -5483,7 +5798,7 @@
         <v>92</v>
       </c>
       <c r="S13" t="s">
-        <v>244</v>
+        <v>678</v>
       </c>
       <c r="AA13" t="s">
         <v>320</v>
@@ -5518,7 +5833,7 @@
         <v>93</v>
       </c>
       <c r="S14" t="s">
-        <v>592</v>
+        <v>244</v>
       </c>
       <c r="AA14" t="s">
         <v>100</v>
@@ -5553,7 +5868,7 @@
         <v>478</v>
       </c>
       <c r="S15" t="s">
-        <v>249</v>
+        <v>592</v>
       </c>
       <c r="AA15" t="s">
         <v>615</v>
@@ -5588,7 +5903,7 @@
         <v>479</v>
       </c>
       <c r="S16" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="AA16" t="s">
         <v>593</v>
@@ -5617,7 +5932,7 @@
         <v>39</v>
       </c>
       <c r="S17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AA17" t="s">
         <v>101</v>
@@ -5646,7 +5961,7 @@
         <v>42</v>
       </c>
       <c r="S18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AA18" t="s">
         <v>73</v>
@@ -5668,6 +5983,9 @@
       <c r="L19" t="s">
         <v>80</v>
       </c>
+      <c r="S19" t="s">
+        <v>679</v>
+      </c>
       <c r="AA19" t="s">
         <v>480</v>
       </c>
@@ -5688,6 +6006,9 @@
       <c r="L20" t="s">
         <v>450</v>
       </c>
+      <c r="S20" t="s">
+        <v>247</v>
+      </c>
       <c r="AA20" t="s">
         <v>102</v>
       </c>
@@ -5707,6 +6028,9 @@
       </c>
       <c r="L21" t="s">
         <v>81</v>
+      </c>
+      <c r="S21" t="s">
+        <v>680</v>
       </c>
       <c r="AA21" t="s">
         <v>103</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_web_metrics.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_web_metrics.xlsx
@@ -23,12 +23,12 @@
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
-    <definedName name="base">'#system'!$F$2:$F$45</definedName>
+    <definedName name="base">'#system'!$F$2:$F$47</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$16</definedName>
+    <definedName name="desktop">'#system'!$H$2:$H$111</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$18</definedName>
     <definedName name="external">'#system'!$J$2:$J$7</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
     <definedName name="io">'#system'!$L$2:$L$32</definedName>
@@ -49,15 +49,17 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$32</definedName>
+    <definedName name="target">'#system'!$A$2:$A$34</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
     <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$151</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$153</definedName>
     <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
-    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
-    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
-    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
+    <definedName name="ws">'#system'!$AF$2:$AF$17</definedName>
+    <definedName name="ws.async">'#system'!$AG$2:$AG$8</definedName>
+    <definedName name="xml">'#system'!$AH$2:$AH$27</definedName>
+    <definedName name="webmail">'#system'!$AD$2:$AD$4</definedName>
+    <definedName name="word">'#system'!$AE$2:$AE$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -80,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5164" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5807" uniqueCount="718">
   <si>
     <t>description</t>
   </si>
@@ -2123,6 +2125,117 @@
   </si>
   <si>
     <t>split(pdf,saveTo)</t>
+  </si>
+  <si>
+    <t>webmail</t>
+  </si>
+  <si>
+    <t>word</t>
+  </si>
+  <si>
+    <t>assertVarsNotPresent(vars)</t>
+  </si>
+  <si>
+    <t>assertVarsPresent(vars)</t>
+  </si>
+  <si>
+    <t>check(name)</t>
+  </si>
+  <si>
+    <t>checkByLocator(locator)</t>
+  </si>
+  <si>
+    <t>clickMenuByLocator(locator,menu)</t>
+  </si>
+  <si>
+    <t>contextMenu(name,menu,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>contextMenuByLocator(locator,menu,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>doubleClick(name)</t>
+  </si>
+  <si>
+    <t>doubleClickByLocator(locator)</t>
+  </si>
+  <si>
+    <t>rightClickElementOffset(name,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>rightClickOffset(locator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>saveAllTableRows(var,csv)</t>
+  </si>
+  <si>
+    <t>saveComboOptions(var,name)</t>
+  </si>
+  <si>
+    <t>saveComboOptionsByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>saveTableRows(var,contains,csv)</t>
+  </si>
+  <si>
+    <t>saveTableRowsRange(var,beginRow,endRow,csv)</t>
+  </si>
+  <si>
+    <t>screenshot(name,file)</t>
+  </si>
+  <si>
+    <t>screenshotByLocator(locator,file)</t>
+  </si>
+  <si>
+    <t>uncheck(name)</t>
+  </si>
+  <si>
+    <t>uncheckByLocator(locator)</t>
+  </si>
+  <si>
+    <t>renameSheet(file,worksheet,newName)</t>
+  </si>
+  <si>
+    <t>xls2xlsx(xlsFile,xlsxFile)</t>
+  </si>
+  <si>
+    <t>assertLocation(search)</t>
+  </si>
+  <si>
+    <t>openInTab(name,url)</t>
+  </si>
+  <si>
+    <t>delete(profile,id)</t>
+  </si>
+  <si>
+    <t>read(var,profile,id)</t>
+  </si>
+  <si>
+    <t>search(var,profile,searchCriteria,duration)</t>
+  </si>
+  <si>
+    <t>assertContains(file,text)</t>
+  </si>
+  <si>
+    <t>assertNotContain(file,text)</t>
+  </si>
+  <si>
+    <t>assertNotReadOnly(file)</t>
+  </si>
+  <si>
+    <t>assertPassword(file,password)</t>
+  </si>
+  <si>
+    <t>assertReadOnly(file)</t>
+  </si>
+  <si>
+    <t>extractText(var,file)</t>
+  </si>
+  <si>
+    <t>readOnly(file,password)</t>
+  </si>
+  <si>
+    <t>removeProtection(file)</t>
   </si>
 </sst>
 </file>
@@ -2130,7 +2243,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="130" x14ac:knownFonts="1">
+  <fonts count="147" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2956,8 +3069,115 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="172">
+  <fills count="196">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2974,6 +3194,142 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -3974,7 +4330,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="174">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4464,6 +4820,57 @@
     <xf numFmtId="0" fontId="129" fillId="168" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="130" fillId="174" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="180" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="183" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="186" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="180" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="183" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="195" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="183" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="1"/>
@@ -4936,7 +5343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG151"/>
+  <dimension ref="A1:AI153"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -5036,12 +5443,18 @@
         <v>54</v>
       </c>
       <c r="AD1" t="s">
+        <v>681</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>682</v>
+      </c>
+      <c r="AF1" t="s">
         <v>55</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>404</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>222</v>
       </c>
     </row>
@@ -5134,12 +5547,18 @@
         <v>171</v>
       </c>
       <c r="AD2" t="s">
+        <v>707</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>710</v>
+      </c>
+      <c r="AF2" t="s">
         <v>178</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AG2" t="s">
         <v>422</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AH2" t="s">
         <v>486</v>
       </c>
     </row>
@@ -5226,12 +5645,18 @@
         <v>172</v>
       </c>
       <c r="AD3" t="s">
+        <v>708</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>711</v>
+      </c>
+      <c r="AF3" t="s">
         <v>355</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AG3" t="s">
         <v>179</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AH3" t="s">
         <v>223</v>
       </c>
     </row>
@@ -5315,12 +5740,18 @@
         <v>173</v>
       </c>
       <c r="AD4" t="s">
+        <v>709</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>712</v>
+      </c>
+      <c r="AF4" t="s">
         <v>179</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AG4" t="s">
         <v>414</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AH4" t="s">
         <v>224</v>
       </c>
     </row>
@@ -5391,13 +5822,16 @@
       <c r="AC5" t="s">
         <v>599</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
+        <v>713</v>
+      </c>
+      <c r="AF5" t="s">
         <v>180</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AG5" t="s">
         <v>415</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AH5" t="s">
         <v>225</v>
       </c>
     </row>
@@ -5462,13 +5896,16 @@
       <c r="AC6" t="s">
         <v>174</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
+        <v>714</v>
+      </c>
+      <c r="AF6" t="s">
         <v>181</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AG6" t="s">
         <v>416</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AH6" t="s">
         <v>226</v>
       </c>
     </row>
@@ -5527,13 +5964,16 @@
       <c r="AC7" t="s">
         <v>175</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
+        <v>715</v>
+      </c>
+      <c r="AF7" t="s">
         <v>182</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AG7" t="s">
         <v>417</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AH7" t="s">
         <v>515</v>
       </c>
     </row>
@@ -5551,7 +5991,7 @@
         <v>357</v>
       </c>
       <c r="I8" t="s">
-        <v>322</v>
+        <v>703</v>
       </c>
       <c r="K8" t="s">
         <v>521</v>
@@ -5589,13 +6029,16 @@
       <c r="AC8" t="s">
         <v>176</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
+        <v>716</v>
+      </c>
+      <c r="AF8" t="s">
         <v>183</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AG8" t="s">
         <v>418</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AH8" t="s">
         <v>516</v>
       </c>
     </row>
@@ -5613,7 +6056,7 @@
         <v>358</v>
       </c>
       <c r="I9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L9" t="s">
         <v>16</v>
@@ -5645,10 +6088,13 @@
       <c r="AC9" t="s">
         <v>177</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
+        <v>717</v>
+      </c>
+      <c r="AF9" t="s">
         <v>184</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AH9" t="s">
         <v>517</v>
       </c>
     </row>
@@ -5663,7 +6109,7 @@
         <v>300</v>
       </c>
       <c r="I10" t="s">
-        <v>601</v>
+        <v>323</v>
       </c>
       <c r="L10" t="s">
         <v>472</v>
@@ -5689,10 +6135,10 @@
       <c r="AC10" t="s">
         <v>600</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AF10" t="s">
         <v>185</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AH10" t="s">
         <v>227</v>
       </c>
     </row>
@@ -5707,7 +6153,7 @@
         <v>346</v>
       </c>
       <c r="I11" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="L11" t="s">
         <v>78</v>
@@ -5727,10 +6173,10 @@
       <c r="AA11" t="s">
         <v>252</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AF11" t="s">
         <v>253</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AH11" t="s">
         <v>228</v>
       </c>
     </row>
@@ -5745,7 +6191,7 @@
         <v>268</v>
       </c>
       <c r="I12" t="s">
-        <v>440</v>
+        <v>602</v>
       </c>
       <c r="L12" t="s">
         <v>37</v>
@@ -5765,10 +6211,10 @@
       <c r="AA12" t="s">
         <v>99</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AF12" t="s">
         <v>186</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AH12" t="s">
         <v>229</v>
       </c>
     </row>
@@ -5783,7 +6229,7 @@
         <v>257</v>
       </c>
       <c r="I13" t="s">
-        <v>316</v>
+        <v>440</v>
       </c>
       <c r="L13" t="s">
         <v>473</v>
@@ -5803,10 +6249,10 @@
       <c r="AA13" t="s">
         <v>320</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AF13" t="s">
         <v>187</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AH13" t="s">
         <v>461</v>
       </c>
     </row>
@@ -5821,7 +6267,7 @@
         <v>310</v>
       </c>
       <c r="I14" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="L14" t="s">
         <v>380</v>
@@ -5838,10 +6284,10 @@
       <c r="AA14" t="s">
         <v>100</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AF14" t="s">
         <v>188</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AH14" t="s">
         <v>487</v>
       </c>
     </row>
@@ -5856,7 +6302,7 @@
         <v>258</v>
       </c>
       <c r="I15" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L15" t="s">
         <v>17</v>
@@ -5873,10 +6319,10 @@
       <c r="AA15" t="s">
         <v>615</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AF15" t="s">
         <v>189</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AH15" t="s">
         <v>488</v>
       </c>
     </row>
@@ -5891,7 +6337,7 @@
         <v>259</v>
       </c>
       <c r="I16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L16" t="s">
         <v>41</v>
@@ -5908,10 +6354,10 @@
       <c r="AA16" t="s">
         <v>593</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AF16" t="s">
         <v>190</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AH16" t="s">
         <v>489</v>
       </c>
     </row>
@@ -5925,6 +6371,9 @@
       <c r="H17" t="s">
         <v>311</v>
       </c>
+      <c r="I17" t="s">
+        <v>319</v>
+      </c>
       <c r="L17" t="s">
         <v>474</v>
       </c>
@@ -5937,10 +6386,10 @@
       <c r="AA17" t="s">
         <v>101</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AF17" t="s">
         <v>454</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AH17" t="s">
         <v>490</v>
       </c>
     </row>
@@ -5954,6 +6403,9 @@
       <c r="H18" t="s">
         <v>87</v>
       </c>
+      <c r="I18" t="s">
+        <v>704</v>
+      </c>
       <c r="L18" t="s">
         <v>79</v>
       </c>
@@ -5966,7 +6418,7 @@
       <c r="AA18" t="s">
         <v>73</v>
       </c>
-      <c r="AF18" t="s">
+      <c r="AH18" t="s">
         <v>462</v>
       </c>
     </row>
@@ -5975,7 +6427,7 @@
         <v>234</v>
       </c>
       <c r="F19" t="s">
-        <v>405</v>
+        <v>683</v>
       </c>
       <c r="H19" t="s">
         <v>88</v>
@@ -5989,7 +6441,7 @@
       <c r="AA19" t="s">
         <v>480</v>
       </c>
-      <c r="AF19" t="s">
+      <c r="AH19" t="s">
         <v>491</v>
       </c>
     </row>
@@ -5998,7 +6450,7 @@
         <v>51</v>
       </c>
       <c r="F20" t="s">
-        <v>618</v>
+        <v>684</v>
       </c>
       <c r="H20" t="s">
         <v>290</v>
@@ -6012,7 +6464,7 @@
       <c r="AA20" t="s">
         <v>102</v>
       </c>
-      <c r="AF20" t="s">
+      <c r="AH20" t="s">
         <v>492</v>
       </c>
     </row>
@@ -6021,7 +6473,7 @@
         <v>386</v>
       </c>
       <c r="F21" t="s">
-        <v>619</v>
+        <v>405</v>
       </c>
       <c r="H21" t="s">
         <v>291</v>
@@ -6035,7 +6487,7 @@
       <c r="AA21" t="s">
         <v>103</v>
       </c>
-      <c r="AF21" t="s">
+      <c r="AH21" t="s">
         <v>493</v>
       </c>
     </row>
@@ -6044,7 +6496,7 @@
         <v>402</v>
       </c>
       <c r="F22" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="H22" t="s">
         <v>292</v>
@@ -6055,7 +6507,7 @@
       <c r="AA22" t="s">
         <v>104</v>
       </c>
-      <c r="AF22" t="s">
+      <c r="AH22" t="s">
         <v>230</v>
       </c>
     </row>
@@ -6064,7 +6516,7 @@
         <v>403</v>
       </c>
       <c r="F23" t="s">
-        <v>58</v>
+        <v>619</v>
       </c>
       <c r="H23" t="s">
         <v>293</v>
@@ -6075,7 +6527,7 @@
       <c r="AA23" t="s">
         <v>105</v>
       </c>
-      <c r="AF23" t="s">
+      <c r="AH23" t="s">
         <v>518</v>
       </c>
     </row>
@@ -6084,7 +6536,7 @@
         <v>348</v>
       </c>
       <c r="F24" t="s">
-        <v>59</v>
+        <v>620</v>
       </c>
       <c r="H24" t="s">
         <v>284</v>
@@ -6095,7 +6547,7 @@
       <c r="AA24" t="s">
         <v>481</v>
       </c>
-      <c r="AF24" t="s">
+      <c r="AH24" t="s">
         <v>519</v>
       </c>
     </row>
@@ -6104,7 +6556,7 @@
         <v>387</v>
       </c>
       <c r="F25" t="s">
-        <v>250</v>
+        <v>58</v>
       </c>
       <c r="H25" t="s">
         <v>273</v>
@@ -6115,7 +6567,7 @@
       <c r="AA25" t="s">
         <v>106</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AH25" t="s">
         <v>520</v>
       </c>
     </row>
@@ -6124,18 +6576,18 @@
         <v>608</v>
       </c>
       <c r="F26" t="s">
-        <v>621</v>
+        <v>59</v>
       </c>
       <c r="H26" t="s">
-        <v>74</v>
+        <v>685</v>
       </c>
       <c r="L26" t="s">
         <v>382</v>
       </c>
       <c r="AA26" t="s">
-        <v>528</v>
-      </c>
-      <c r="AF26" t="s">
+        <v>705</v>
+      </c>
+      <c r="AH26" t="s">
         <v>231</v>
       </c>
     </row>
@@ -6144,18 +6596,18 @@
         <v>52</v>
       </c>
       <c r="F27" t="s">
-        <v>524</v>
+        <v>250</v>
       </c>
       <c r="H27" t="s">
-        <v>276</v>
+        <v>686</v>
       </c>
       <c r="L27" t="s">
         <v>623</v>
       </c>
       <c r="AA27" t="s">
-        <v>107</v>
-      </c>
-      <c r="AF27" t="s">
+        <v>528</v>
+      </c>
+      <c r="AH27" t="s">
         <v>232</v>
       </c>
     </row>
@@ -6164,16 +6616,16 @@
         <v>53</v>
       </c>
       <c r="F28" t="s">
-        <v>60</v>
+        <v>621</v>
       </c>
       <c r="H28" t="s">
-        <v>260</v>
+        <v>74</v>
       </c>
       <c r="L28" t="s">
         <v>511</v>
       </c>
       <c r="AA28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29">
@@ -6181,898 +6633,959 @@
         <v>54</v>
       </c>
       <c r="F29" t="s">
-        <v>315</v>
+        <v>524</v>
       </c>
       <c r="H29" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="L29" t="s">
         <v>83</v>
       </c>
       <c r="AA29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>681</v>
       </c>
       <c r="F30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H30" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="L30" t="s">
         <v>424</v>
       </c>
       <c r="AA30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>404</v>
+        <v>682</v>
       </c>
       <c r="F31" t="s">
-        <v>437</v>
+        <v>315</v>
       </c>
       <c r="H31" t="s">
-        <v>211</v>
+        <v>277</v>
       </c>
       <c r="L31" t="s">
         <v>44</v>
       </c>
       <c r="AA31" t="s">
-        <v>321</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>222</v>
+        <v>55</v>
       </c>
       <c r="F32" t="s">
-        <v>220</v>
+        <v>61</v>
       </c>
       <c r="H32" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="L32" t="s">
         <v>45</v>
       </c>
       <c r="AA32" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>404</v>
+      </c>
+      <c r="F33" t="s">
+        <v>437</v>
+      </c>
+      <c r="H33" t="s">
+        <v>211</v>
+      </c>
+      <c r="AA33" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="33">
-      <c r="F33" t="s">
-        <v>221</v>
-      </c>
-      <c r="H33" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA33" t="s">
+    <row r="34">
+      <c r="A34" t="s">
+        <v>222</v>
+      </c>
+      <c r="F34" t="s">
+        <v>220</v>
+      </c>
+      <c r="H34" t="s">
+        <v>269</v>
+      </c>
+      <c r="AA34" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="F34" t="s">
-        <v>455</v>
-      </c>
-      <c r="H34" t="s">
-        <v>496</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>456</v>
+        <v>221</v>
       </c>
       <c r="H35" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="AA35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>406</v>
+        <v>455</v>
       </c>
       <c r="H36" t="s">
-        <v>324</v>
+        <v>496</v>
       </c>
       <c r="AA36" t="s">
-        <v>529</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>62</v>
+        <v>456</v>
       </c>
       <c r="H37" t="s">
-        <v>301</v>
+        <v>254</v>
       </c>
       <c r="AA37" t="s">
-        <v>115</v>
+        <v>529</v>
       </c>
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>63</v>
+        <v>406</v>
       </c>
       <c r="H38" t="s">
-        <v>255</v>
+        <v>324</v>
       </c>
       <c r="AA38" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H39" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AA39" t="s">
-        <v>205</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40">
       <c r="F40" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H40" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="AA40" t="s">
-        <v>117</v>
+        <v>205</v>
       </c>
     </row>
     <row r="41">
       <c r="F41" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H41" t="s">
-        <v>76</v>
+        <v>302</v>
       </c>
       <c r="AA41" t="s">
-        <v>332</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42">
       <c r="F42" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H42" t="s">
-        <v>207</v>
+        <v>261</v>
       </c>
       <c r="AA42" t="s">
-        <v>428</v>
+        <v>332</v>
       </c>
     </row>
     <row r="43">
       <c r="F43" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H43" t="s">
-        <v>525</v>
+        <v>687</v>
       </c>
       <c r="AA43" t="s">
-        <v>538</v>
+        <v>428</v>
       </c>
     </row>
     <row r="44">
       <c r="F44" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H44" t="s">
-        <v>283</v>
+        <v>76</v>
       </c>
       <c r="AA44" t="s">
-        <v>383</v>
+        <v>538</v>
       </c>
     </row>
     <row r="45">
       <c r="F45" t="s">
+        <v>68</v>
+      </c>
+      <c r="H45" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="F46" t="s">
+        <v>69</v>
+      </c>
+      <c r="H46" t="s">
+        <v>525</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="F47" t="s">
         <v>622</v>
       </c>
-      <c r="H45" t="s">
-        <v>294</v>
-      </c>
-      <c r="AA45" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="H46" t="s">
-        <v>295</v>
-      </c>
-      <c r="AA46" t="s">
+      <c r="H47" t="s">
+        <v>283</v>
+      </c>
+      <c r="AA47" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="H47" t="s">
-        <v>337</v>
-      </c>
-      <c r="AA47" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="48">
       <c r="H48" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
       <c r="AA48" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49">
       <c r="H49" t="s">
-        <v>206</v>
+        <v>295</v>
       </c>
       <c r="AA49" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50">
       <c r="H50" t="s">
-        <v>314</v>
+        <v>337</v>
       </c>
       <c r="AA50" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51">
       <c r="H51" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="AA51" t="s">
-        <v>616</v>
+        <v>123</v>
       </c>
     </row>
     <row r="52">
       <c r="H52" t="s">
-        <v>359</v>
+        <v>206</v>
       </c>
       <c r="AA52" t="s">
-        <v>208</v>
+        <v>616</v>
       </c>
     </row>
     <row r="53">
       <c r="H53" t="s">
-        <v>296</v>
+        <v>314</v>
       </c>
       <c r="AA53" t="s">
-        <v>75</v>
+        <v>208</v>
       </c>
     </row>
     <row r="54">
       <c r="H54" t="s">
-        <v>347</v>
+        <v>688</v>
       </c>
       <c r="AA54" t="s">
-        <v>522</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55">
       <c r="H55" t="s">
-        <v>325</v>
+        <v>689</v>
       </c>
       <c r="AA55" t="s">
-        <v>124</v>
+        <v>522</v>
       </c>
     </row>
     <row r="56">
       <c r="H56" t="s">
-        <v>262</v>
+        <v>690</v>
       </c>
       <c r="AA56" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="57">
       <c r="H57" t="s">
-        <v>286</v>
+        <v>691</v>
       </c>
       <c r="AA57" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="58">
       <c r="H58" t="s">
-        <v>287</v>
+        <v>333</v>
       </c>
       <c r="AA58" t="s">
-        <v>482</v>
+        <v>126</v>
       </c>
     </row>
     <row r="59">
       <c r="H59" t="s">
-        <v>526</v>
+        <v>359</v>
       </c>
       <c r="AA59" t="s">
-        <v>451</v>
+        <v>482</v>
       </c>
     </row>
     <row r="60">
       <c r="H60" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="AA60" t="s">
-        <v>127</v>
+        <v>451</v>
       </c>
     </row>
     <row r="61">
       <c r="H61" t="s">
-        <v>297</v>
+        <v>325</v>
       </c>
       <c r="AA61" t="s">
-        <v>340</v>
+        <v>127</v>
       </c>
     </row>
     <row r="62">
       <c r="H62" t="s">
-        <v>306</v>
+        <v>262</v>
       </c>
       <c r="AA62" t="s">
-        <v>452</v>
+        <v>340</v>
       </c>
     </row>
     <row r="63">
       <c r="H63" t="s">
-        <v>331</v>
+        <v>286</v>
       </c>
       <c r="AA63" t="s">
-        <v>128</v>
+        <v>452</v>
       </c>
     </row>
     <row r="64">
       <c r="H64" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="AA64" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="65">
       <c r="H65" t="s">
-        <v>304</v>
+        <v>526</v>
       </c>
       <c r="AA65" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="66">
       <c r="H66" t="s">
-        <v>360</v>
+        <v>288</v>
       </c>
       <c r="AA66" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="67">
       <c r="H67" t="s">
-        <v>361</v>
+        <v>692</v>
       </c>
       <c r="AA67" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="68">
       <c r="H68" t="s">
-        <v>339</v>
+        <v>693</v>
       </c>
       <c r="AA68" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="69">
       <c r="H69" t="s">
-        <v>307</v>
+        <v>694</v>
       </c>
       <c r="AA69" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="70">
       <c r="H70" t="s">
-        <v>263</v>
+        <v>306</v>
       </c>
       <c r="AA70" t="s">
-        <v>429</v>
+        <v>134</v>
       </c>
     </row>
     <row r="71">
       <c r="H71" t="s">
-        <v>512</v>
+        <v>695</v>
       </c>
       <c r="AA71" t="s">
-        <v>460</v>
+        <v>429</v>
       </c>
     </row>
     <row r="72">
       <c r="H72" t="s">
-        <v>308</v>
+        <v>696</v>
       </c>
       <c r="AA72" t="s">
-        <v>209</v>
+        <v>460</v>
       </c>
     </row>
     <row r="73">
       <c r="H73" t="s">
-        <v>400</v>
+        <v>331</v>
       </c>
       <c r="AA73" t="s">
-        <v>379</v>
+        <v>209</v>
       </c>
     </row>
     <row r="74">
       <c r="H74" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="AA74" t="s">
-        <v>430</v>
+        <v>379</v>
       </c>
     </row>
     <row r="75">
       <c r="H75" t="s">
-        <v>401</v>
+        <v>304</v>
       </c>
       <c r="AA75" t="s">
-        <v>135</v>
+        <v>430</v>
       </c>
     </row>
     <row r="76">
       <c r="H76" t="s">
-        <v>256</v>
+        <v>360</v>
       </c>
       <c r="AA76" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="77">
       <c r="H77" t="s">
-        <v>497</v>
+        <v>361</v>
       </c>
       <c r="AA77" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="78">
       <c r="H78" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AA78" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="79">
       <c r="H79" t="s">
-        <v>274</v>
+        <v>307</v>
       </c>
       <c r="AA79" t="s">
-        <v>660</v>
+        <v>138</v>
       </c>
     </row>
     <row r="80">
       <c r="H80" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="AA80" t="s">
-        <v>192</v>
+        <v>660</v>
       </c>
     </row>
     <row r="81">
       <c r="H81" t="s">
-        <v>285</v>
+        <v>512</v>
       </c>
       <c r="AA81" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="82">
       <c r="H82" t="s">
-        <v>419</v>
+        <v>308</v>
       </c>
       <c r="AA82" t="s">
-        <v>441</v>
+        <v>193</v>
       </c>
     </row>
     <row r="83">
       <c r="H83" t="s">
-        <v>326</v>
+        <v>400</v>
       </c>
       <c r="AA83" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
     </row>
     <row r="84">
       <c r="H84" t="s">
-        <v>264</v>
+        <v>697</v>
       </c>
       <c r="AA84" t="s">
-        <v>139</v>
+        <v>453</v>
       </c>
     </row>
     <row r="85">
       <c r="H85" t="s">
-        <v>275</v>
+        <v>698</v>
       </c>
       <c r="AA85" t="s">
-        <v>140</v>
+        <v>706</v>
       </c>
     </row>
     <row r="86">
       <c r="H86" t="s">
-        <v>281</v>
+        <v>256</v>
       </c>
       <c r="AA86" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="87">
       <c r="H87" t="s">
-        <v>270</v>
+        <v>497</v>
       </c>
       <c r="AA87" t="s">
-        <v>483</v>
+        <v>140</v>
       </c>
     </row>
     <row r="88">
       <c r="H88" t="s">
-        <v>514</v>
+        <v>338</v>
       </c>
       <c r="AA88" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="89">
       <c r="H89" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="AA89" t="s">
-        <v>143</v>
+        <v>483</v>
       </c>
     </row>
     <row r="90">
       <c r="H90" t="s">
-        <v>282</v>
+        <v>699</v>
       </c>
       <c r="AA90" t="s">
-        <v>194</v>
+        <v>142</v>
       </c>
     </row>
     <row r="91">
       <c r="H91" t="s">
-        <v>266</v>
+        <v>700</v>
       </c>
       <c r="AA91" t="s">
-        <v>484</v>
+        <v>143</v>
       </c>
     </row>
     <row r="92">
       <c r="H92" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="AA92" t="s">
-        <v>591</v>
+        <v>194</v>
       </c>
     </row>
     <row r="93">
       <c r="H93" t="s">
-        <v>299</v>
+        <v>419</v>
       </c>
       <c r="AA93" t="s">
-        <v>195</v>
+        <v>484</v>
       </c>
     </row>
     <row r="94">
       <c r="H94" t="s">
-        <v>305</v>
+        <v>326</v>
       </c>
       <c r="AA94" t="s">
-        <v>442</v>
+        <v>591</v>
       </c>
     </row>
     <row r="95">
       <c r="H95" t="s">
-        <v>289</v>
+        <v>264</v>
       </c>
       <c r="AA95" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="96">
       <c r="H96" t="s">
-        <v>334</v>
+        <v>275</v>
       </c>
       <c r="AA96" t="s">
-        <v>197</v>
+        <v>442</v>
       </c>
     </row>
     <row r="97">
       <c r="H97" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="AA97" t="s">
-        <v>532</v>
+        <v>196</v>
       </c>
     </row>
     <row r="98">
       <c r="H98" t="s">
+        <v>270</v>
+      </c>
+      <c r="AA98" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="H99" t="s">
+        <v>514</v>
+      </c>
+      <c r="AA99" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="H100" t="s">
+        <v>265</v>
+      </c>
+      <c r="AA100" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="H101" t="s">
+        <v>282</v>
+      </c>
+      <c r="AA101" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="H102" t="s">
+        <v>701</v>
+      </c>
+      <c r="AA102" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="H103" t="s">
+        <v>702</v>
+      </c>
+      <c r="AA103" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="H104" t="s">
+        <v>266</v>
+      </c>
+      <c r="AA104" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="H105" t="s">
+        <v>267</v>
+      </c>
+      <c r="AA105" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="H106" t="s">
+        <v>299</v>
+      </c>
+      <c r="AA106" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="H107" t="s">
+        <v>305</v>
+      </c>
+      <c r="AA107" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="H108" t="s">
+        <v>289</v>
+      </c>
+      <c r="AA108" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="H109" t="s">
+        <v>334</v>
+      </c>
+      <c r="AA109" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="H110" t="s">
+        <v>271</v>
+      </c>
+      <c r="AA110" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="H111" t="s">
         <v>272</v>
       </c>
-      <c r="AA98" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="AA99" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="AA100" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="AA101" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="AA102" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="AA103" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="AA104" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="AA105" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="AA106" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="AA107" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="AA108" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="AA109" t="s">
+      <c r="AA111" t="s">
         <v>202</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="AA110" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="AA111" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="112">
       <c r="AA112" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
     </row>
     <row r="113">
       <c r="AA113" t="s">
-        <v>485</v>
+        <v>594</v>
       </c>
     </row>
     <row r="114">
       <c r="AA114" t="s">
-        <v>661</v>
+        <v>203</v>
       </c>
     </row>
     <row r="115">
       <c r="AA115" t="s">
-        <v>662</v>
+        <v>485</v>
       </c>
     </row>
     <row r="116">
       <c r="AA116" t="s">
-        <v>509</v>
+        <v>661</v>
       </c>
     </row>
     <row r="117">
       <c r="AA117" t="s">
-        <v>145</v>
+        <v>662</v>
       </c>
     </row>
     <row r="118">
       <c r="AA118" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="119">
       <c r="AA119" t="s">
-        <v>373</v>
+        <v>145</v>
       </c>
     </row>
     <row r="120">
       <c r="AA120" t="s">
-        <v>146</v>
+        <v>510</v>
       </c>
     </row>
     <row r="121">
       <c r="AA121" t="s">
-        <v>147</v>
+        <v>373</v>
       </c>
     </row>
     <row r="122">
       <c r="AA122" t="s">
-        <v>595</v>
+        <v>146</v>
       </c>
     </row>
     <row r="123">
       <c r="AA123" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="124">
       <c r="AA124" t="s">
-        <v>149</v>
+        <v>595</v>
       </c>
     </row>
     <row r="125">
       <c r="AA125" t="s">
-        <v>596</v>
+        <v>148</v>
       </c>
     </row>
     <row r="126">
       <c r="AA126" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="127">
       <c r="AA127" t="s">
-        <v>151</v>
+        <v>596</v>
       </c>
     </row>
     <row r="128">
       <c r="AA128" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="129">
       <c r="AA129" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="130">
       <c r="AA130" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="131">
       <c r="AA131" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="132">
       <c r="AA132" t="s">
-        <v>597</v>
+        <v>154</v>
       </c>
     </row>
     <row r="133">
       <c r="AA133" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="134">
       <c r="AA134" t="s">
-        <v>157</v>
+        <v>597</v>
       </c>
     </row>
     <row r="135">
       <c r="AA135" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="136">
       <c r="AA136" t="s">
-        <v>617</v>
+        <v>157</v>
       </c>
     </row>
     <row r="137">
       <c r="AA137" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="138">
       <c r="AA138" t="s">
-        <v>530</v>
+        <v>617</v>
       </c>
     </row>
     <row r="139">
       <c r="AA139" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="140">
       <c r="AA140" t="s">
-        <v>161</v>
+        <v>530</v>
       </c>
     </row>
     <row r="141">
       <c r="AA141" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="142">
       <c r="AA142" t="s">
-        <v>46</v>
+        <v>161</v>
       </c>
     </row>
     <row r="143">
       <c r="AA143" t="s">
-        <v>663</v>
+        <v>162</v>
       </c>
     </row>
     <row r="144">
       <c r="AA144" t="s">
-        <v>598</v>
+        <v>46</v>
       </c>
     </row>
     <row r="145">
       <c r="AA145" t="s">
-        <v>163</v>
+        <v>663</v>
       </c>
     </row>
     <row r="146">
       <c r="AA146" t="s">
-        <v>164</v>
+        <v>598</v>
       </c>
     </row>
     <row r="147">
       <c r="AA147" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="148">
       <c r="AA148" t="s">
-        <v>664</v>
+        <v>164</v>
       </c>
     </row>
     <row r="149">
       <c r="AA149" t="s">
-        <v>665</v>
+        <v>165</v>
       </c>
     </row>
     <row r="150">
       <c r="AA150" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="151">
       <c r="AA151" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="AA152" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="AA153" t="s">
         <v>667</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_web_metrics.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_web_metrics.xlsx
@@ -24,42 +24,45 @@
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
     <definedName name="base">'#system'!$F$2:$F$47</definedName>
-    <definedName name="csv">'#system'!$G$2:$G$6</definedName>
+    <definedName name="csv">'#system'!$H$2:$H$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$H$2:$H$111</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$18</definedName>
-    <definedName name="external">'#system'!$J$2:$J$7</definedName>
-    <definedName name="image">'#system'!$K$2:$K$8</definedName>
-    <definedName name="io">'#system'!$L$2:$L$32</definedName>
-    <definedName name="jms">'#system'!$M$2:$M$4</definedName>
-    <definedName name="json">'#system'!$N$2:$N$18</definedName>
-    <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
-    <definedName name="macro">'#system'!$P$2:$P$4</definedName>
-    <definedName name="mail">'#system'!$Q$2:$Q$5</definedName>
+    <definedName name="desktop">'#system'!$I$2:$I$113</definedName>
+    <definedName name="excel">'#system'!$J$2:$J$18</definedName>
+    <definedName name="external">'#system'!$K$2:$K$7</definedName>
+    <definedName name="image">'#system'!$L$2:$L$8</definedName>
+    <definedName name="io">'#system'!$M$2:$M$33</definedName>
+    <definedName name="jms">'#system'!$O$2:$O$4</definedName>
+    <definedName name="json">'#system'!$P$2:$P$19</definedName>
+    <definedName name="localdb">'#system'!$Q$2:$Q$13</definedName>
+    <definedName name="macro">'#system'!$R$2:$R$4</definedName>
+    <definedName name="mail">'#system'!$S$2:$S$5</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$21</definedName>
-    <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
-    <definedName name="redis">'#system'!$U$2:$U$10</definedName>
-    <definedName name="sms">'#system'!$V$2:$V$2</definedName>
-    <definedName name="sound">'#system'!$W$2:$W$5</definedName>
-    <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
-    <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
-    <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$34</definedName>
+    <definedName name="number">'#system'!$U$2:$U$16</definedName>
+    <definedName name="pdf">'#system'!$V$2:$V$21</definedName>
+    <definedName name="rdbms">'#system'!$W$2:$W$9</definedName>
+    <definedName name="redis">'#system'!$X$2:$X$10</definedName>
+    <definedName name="sms">'#system'!$Y$2:$Y$2</definedName>
+    <definedName name="sound">'#system'!$Z$2:$Z$5</definedName>
+    <definedName name="ssh">'#system'!$AA$2:$AA$9</definedName>
+    <definedName name="step">'#system'!$AB$2:$AB$4</definedName>
+    <definedName name="step.inTime">'#system'!$AC$2:$AC$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$38</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$153</definedName>
-    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
-    <definedName name="ws">'#system'!$AF$2:$AF$17</definedName>
-    <definedName name="ws.async">'#system'!$AG$2:$AG$8</definedName>
-    <definedName name="xml">'#system'!$AH$2:$AH$27</definedName>
-    <definedName name="webmail">'#system'!$AD$2:$AD$4</definedName>
-    <definedName name="word">'#system'!$AE$2:$AE$9</definedName>
+    <definedName name="tn.5250">'#system'!$AD$2:$AD$44</definedName>
+    <definedName name="web">'#system'!$AE$2:$AE$160</definedName>
+    <definedName name="webalert">'#system'!$AF$2:$AF$8</definedName>
+    <definedName name="webcookie">'#system'!$AG$2:$AG$10</definedName>
+    <definedName name="ws">'#system'!$AJ$2:$AJ$20</definedName>
+    <definedName name="ws.async">'#system'!$AK$2:$AK$8</definedName>
+    <definedName name="xml">'#system'!$AL$2:$AL$27</definedName>
+    <definedName name="webmail">'#system'!$AH$2:$AH$6</definedName>
+    <definedName name="word">'#system'!$AI$2:$AI$9</definedName>
+    <definedName name="browserstack">'#system'!$G$2:$G$7</definedName>
+    <definedName name="javaui">'#system'!$N$2:$N$16</definedName>
+    <definedName name="mobile">'#system'!$T$2:$T$51</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -82,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5807" uniqueCount="718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6588" uniqueCount="805">
   <si>
     <t>description</t>
   </si>
@@ -2236,6 +2239,267 @@
   </si>
   <si>
     <t>removeProtection(file)</t>
+  </si>
+  <si>
+    <t>browserstack</t>
+  </si>
+  <si>
+    <t>javaui</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>deleteApp(profile,appId,resultVar)</t>
+  </si>
+  <si>
+    <t>listBrowsers(profile,resultVar)</t>
+  </si>
+  <si>
+    <t>listDevices(profile,resultVar)</t>
+  </si>
+  <si>
+    <t>saveUploadApps(profile,customId,resultVar)</t>
+  </si>
+  <si>
+    <t>updateSessionStatus(profile,status,reason,resultVar)</t>
+  </si>
+  <si>
+    <t>uploadApp(profile,app,customId,resultVar)</t>
+  </si>
+  <si>
+    <t>focusFirstTableRow()</t>
+  </si>
+  <si>
+    <t>focusLastTableRow()</t>
+  </si>
+  <si>
+    <t>assertFileContent(file,match,asLines)</t>
+  </si>
+  <si>
+    <t>assertEditable(name)</t>
+  </si>
+  <si>
+    <t>assertPresence(name)</t>
+  </si>
+  <si>
+    <t>assertText(name,text)</t>
+  </si>
+  <si>
+    <t>clickMenu(menus)</t>
+  </si>
+  <si>
+    <t>startApp(profile)</t>
+  </si>
+  <si>
+    <t>startLocalAgent$nexial_core(portNumber)</t>
+  </si>
+  <si>
+    <t>startLocalAgent(port)</t>
+  </si>
+  <si>
+    <t>stopApp(profile)</t>
+  </si>
+  <si>
+    <t>stopLocalAgent$nexial_core(portNumber)</t>
+  </si>
+  <si>
+    <t>stopLocalAgent(port)</t>
+  </si>
+  <si>
+    <t>typeText(name,text)</t>
+  </si>
+  <si>
+    <t>waitForWindowTitle(title)</t>
+  </si>
+  <si>
+    <t>sanitize(var,json)</t>
+  </si>
+  <si>
+    <t>assertAlertPresent(text)</t>
+  </si>
+  <si>
+    <t>assertAttribute(locator,attribute,text)</t>
+  </si>
+  <si>
+    <t>assertCount(locator,count)</t>
+  </si>
+  <si>
+    <t>assertElementNotVisible(locator)</t>
+  </si>
+  <si>
+    <t>assertElementVisible(locator)</t>
+  </si>
+  <si>
+    <t>assertLocked()</t>
+  </si>
+  <si>
+    <t>assertTextPresent(locator,text)</t>
+  </si>
+  <si>
+    <t>back()</t>
+  </si>
+  <si>
+    <t>clearAlert(option)</t>
+  </si>
+  <si>
+    <t>clearNotification()</t>
+  </si>
+  <si>
+    <t>clickByDisplayText(text)</t>
+  </si>
+  <si>
+    <t>clickUntilNotFound(locator,waitMs,max)</t>
+  </si>
+  <si>
+    <t>closeApp()</t>
+  </si>
+  <si>
+    <t>copyToLocal(file,folder)</t>
+  </si>
+  <si>
+    <t>doubleClick(locator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>forward()</t>
+  </si>
+  <si>
+    <t>hideKeyboard()</t>
+  </si>
+  <si>
+    <t>home()</t>
+  </si>
+  <si>
+    <t>launchApp(app)</t>
+  </si>
+  <si>
+    <t>lock()</t>
+  </si>
+  <si>
+    <t>longClick(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>orientation(mode)</t>
+  </si>
+  <si>
+    <t>postScreenshot$nexial_core(target,locator)</t>
+  </si>
+  <si>
+    <t>recentApps()</t>
+  </si>
+  <si>
+    <t>saveAlertText(var)</t>
+  </si>
+  <si>
+    <t>saveAttributes(var,locator,attribute)</t>
+  </si>
+  <si>
+    <t>saveLockStatus(var)</t>
+  </si>
+  <si>
+    <t>screenshot(file,locator)</t>
+  </si>
+  <si>
+    <t>scroll(locator,direction)</t>
+  </si>
+  <si>
+    <t>scrollUntilFound(scrollTarget,direction,searchFor,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>select(locator,item)</t>
+  </si>
+  <si>
+    <t>selectLocalFile(device,folder,filename)</t>
+  </si>
+  <si>
+    <t>sendSms(phone,message)</t>
+  </si>
+  <si>
+    <t>shake()</t>
+  </si>
+  <si>
+    <t>shutdown(profile)</t>
+  </si>
+  <si>
+    <t>slide(start,end)</t>
+  </si>
+  <si>
+    <t>type(locator,text)</t>
+  </si>
+  <si>
+    <t>unlock()</t>
+  </si>
+  <si>
+    <t>use(profile)</t>
+  </si>
+  <si>
+    <t>zoom(start1,end1,start2,end2)</t>
+  </si>
+  <si>
+    <t>compare$nexial_core(expects,actual,expectMatch,messagePrefix)</t>
+  </si>
+  <si>
+    <t>typeOnMatchedColumns(matches,keystrokes)</t>
+  </si>
+  <si>
+    <t>waitUntilMessagePresent(message,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilProcessed(maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilTextPresent(text,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilTitlePresent(title,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>assertElementNotPresent(locator,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>assertElementsEnabled(prefix)</t>
+  </si>
+  <si>
+    <t>assertElementsVisible(prefix)</t>
+  </si>
+  <si>
+    <t>assertSelectOptionsAbsent(locator,options)</t>
+  </si>
+  <si>
+    <t>assertSelectOptionsPresent(locator,options)</t>
+  </si>
+  <si>
+    <t>clickIfPresent(locator)</t>
+  </si>
+  <si>
+    <t>saveCssValue(var,locator,property)</t>
+  </si>
+  <si>
+    <t>selectDropdown(locator,optLocator,optText)</t>
+  </si>
+  <si>
+    <t>toast(message,duration,darkMode)</t>
+  </si>
+  <si>
+    <t>waitForElementTextPresent(locator,text)</t>
+  </si>
+  <si>
+    <t>waitWhileElementNotPresent(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>attachment(profile,id,attachment,saveTo)</t>
+  </si>
+  <si>
+    <t>attachments(profile,id,saveDir)</t>
+  </si>
+  <si>
+    <t>clearHeaders(headers)</t>
+  </si>
+  <si>
+    <t>graphql(url,body,var)</t>
+  </si>
+  <si>
+    <t>oauthProfile(var,profile)</t>
   </si>
 </sst>
 </file>
@@ -2243,7 +2507,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="147" x14ac:knownFonts="1">
+  <fonts count="164" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3176,8 +3440,115 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="196">
+  <fills count="220">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3194,6 +3565,142 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -4330,7 +4837,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="191">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4769,106 +5276,157 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="144" fontId="112" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="113" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="113" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="114" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="115" fillId="153" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="153" fontId="115" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="116" fillId="156" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="156" fontId="116" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="117" fillId="159" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="159" fontId="117" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="118" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="119" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="162" fontId="119" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="120" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="121" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="121" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="122" fillId="168" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="168" fontId="122" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="123" fillId="156" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="156" fontId="123" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="124" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="125" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="126" fillId="159" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="159" fontId="126" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="127" fillId="171" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="171" fontId="127" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="128" fillId="159" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="159" fontId="128" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="129" fillId="168" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="168" fontId="129" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="130" fillId="174" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="174" fontId="130" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="131" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="132" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="132" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="133" fillId="180" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="180" fontId="133" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="134" fillId="183" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="183" fontId="134" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="135" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="136" fillId="186" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="186" fontId="136" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="137" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="138" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="189" fontId="138" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="139" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="139" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="140" fillId="180" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="180" fontId="140" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="141" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="142" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="143" fillId="183" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="183" fontId="143" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="144" fillId="195" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="195" fontId="144" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="145" fillId="183" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="183" fontId="145" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="146" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="146" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="198" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="201" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="210" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="213" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="219" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5343,7 +5901,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI153"/>
+  <dimension ref="A1:AM160"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -5374,87 +5932,99 @@
         <v>13</v>
       </c>
       <c r="G1" t="s">
+        <v>718</v>
+      </c>
+      <c r="H1" t="s">
         <v>49</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>23</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>341</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>14</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
+        <v>719</v>
+      </c>
+      <c r="O1" t="s">
         <v>327</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>24</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>494</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>464</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>191</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
+        <v>720</v>
+      </c>
+      <c r="U1" t="s">
         <v>50</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>234</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>51</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>386</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>402</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>403</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>348</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
         <v>387</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AC1" t="s">
         <v>608</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AD1" t="s">
+        <v>603</v>
+      </c>
+      <c r="AE1" t="s">
         <v>52</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AF1" t="s">
         <v>53</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AG1" t="s">
         <v>54</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AH1" t="s">
         <v>681</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AI1" t="s">
         <v>682</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AJ1" t="s">
         <v>55</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AK1" t="s">
         <v>404</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AL1" t="s">
         <v>222</v>
       </c>
     </row>
@@ -5478,87 +6048,99 @@
         <v>56</v>
       </c>
       <c r="G2" t="s">
+        <v>721</v>
+      </c>
+      <c r="H2" t="s">
         <v>70</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>72</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>438</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>670</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>606</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>309</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
+        <v>377</v>
+      </c>
+      <c r="O2" t="s">
         <v>374</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>425</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>498</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>475</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>675</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
+        <v>743</v>
+      </c>
+      <c r="U2" t="s">
         <v>420</v>
       </c>
-      <c r="S2" t="s">
+      <c r="V2" t="s">
         <v>248</v>
       </c>
-      <c r="T2" t="s">
+      <c r="W2" t="s">
         <v>610</v>
       </c>
-      <c r="U2" t="s">
+      <c r="X2" t="s">
         <v>388</v>
       </c>
-      <c r="V2" t="s">
+      <c r="Y2" t="s">
         <v>409</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Z2" t="s">
         <v>410</v>
       </c>
-      <c r="X2" t="s">
+      <c r="AA2" t="s">
         <v>371</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AB2" t="s">
         <v>397</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AC2" t="s">
         <v>612</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AD2" t="s">
+        <v>625</v>
+      </c>
+      <c r="AE2" t="s">
         <v>94</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AF2" t="s">
         <v>166</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AG2" t="s">
         <v>171</v>
       </c>
-      <c r="AD2" t="s">
-        <v>707</v>
-      </c>
-      <c r="AE2" t="s">
+      <c r="AH2" t="s">
+        <v>800</v>
+      </c>
+      <c r="AI2" t="s">
         <v>710</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AJ2" t="s">
         <v>178</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AK2" t="s">
         <v>422</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AL2" t="s">
         <v>486</v>
       </c>
     </row>
@@ -5579,84 +6161,96 @@
         <v>446</v>
       </c>
       <c r="G3" t="s">
+        <v>722</v>
+      </c>
+      <c r="H3" t="s">
         <v>356</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>86</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>47</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>77</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>343</v>
       </c>
-      <c r="L3" t="s">
-        <v>335</v>
-      </c>
       <c r="M3" t="s">
+        <v>729</v>
+      </c>
+      <c r="N3" t="s">
+        <v>730</v>
+      </c>
+      <c r="O3" t="s">
         <v>328</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
         <v>84</v>
       </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
         <v>499</v>
       </c>
-      <c r="P3" t="s">
+      <c r="R3" t="s">
         <v>476</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="S3" t="s">
         <v>676</v>
       </c>
-      <c r="R3" t="s">
+      <c r="T3" t="s">
+        <v>744</v>
+      </c>
+      <c r="U3" t="s">
         <v>421</v>
       </c>
-      <c r="S3" t="s">
+      <c r="V3" t="s">
         <v>235</v>
       </c>
-      <c r="T3" t="s">
+      <c r="W3" t="s">
         <v>611</v>
       </c>
-      <c r="U3" t="s">
+      <c r="X3" t="s">
         <v>389</v>
       </c>
-      <c r="W3" t="s">
+      <c r="Z3" t="s">
         <v>411</v>
       </c>
-      <c r="X3" t="s">
+      <c r="AA3" t="s">
         <v>372</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="AB3" t="s">
         <v>398</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AC3" t="s">
         <v>613</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AD3" t="s">
+        <v>626</v>
+      </c>
+      <c r="AE3" t="s">
         <v>95</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AF3" t="s">
         <v>167</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AG3" t="s">
         <v>172</v>
       </c>
-      <c r="AD3" t="s">
-        <v>708</v>
-      </c>
-      <c r="AE3" t="s">
+      <c r="AH3" t="s">
+        <v>801</v>
+      </c>
+      <c r="AI3" t="s">
         <v>711</v>
       </c>
-      <c r="AF3" t="s">
-        <v>355</v>
-      </c>
-      <c r="AG3" t="s">
+      <c r="AJ3" t="s">
+        <v>802</v>
+      </c>
+      <c r="AK3" t="s">
         <v>179</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AL3" t="s">
         <v>223</v>
       </c>
     </row>
@@ -5674,84 +6268,96 @@
         <v>15</v>
       </c>
       <c r="G4" t="s">
+        <v>723</v>
+      </c>
+      <c r="H4" t="s">
         <v>71</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>377</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>439</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>470</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>344</v>
       </c>
-      <c r="L4" t="s">
-        <v>587</v>
-      </c>
       <c r="M4" t="s">
+        <v>335</v>
+      </c>
+      <c r="N4" t="s">
+        <v>378</v>
+      </c>
+      <c r="O4" t="s">
         <v>329</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4" t="s">
         <v>25</v>
       </c>
-      <c r="O4" t="s">
+      <c r="Q4" t="s">
         <v>500</v>
       </c>
-      <c r="P4" t="s">
+      <c r="R4" t="s">
         <v>477</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="S4" t="s">
         <v>407</v>
       </c>
-      <c r="R4" t="s">
+      <c r="T4" t="s">
+        <v>745</v>
+      </c>
+      <c r="U4" t="s">
         <v>26</v>
       </c>
-      <c r="S4" t="s">
+      <c r="V4" t="s">
         <v>236</v>
       </c>
-      <c r="T4" t="s">
+      <c r="W4" t="s">
         <v>212</v>
       </c>
-      <c r="U4" t="s">
+      <c r="X4" t="s">
         <v>390</v>
       </c>
-      <c r="W4" t="s">
+      <c r="Z4" t="s">
         <v>412</v>
       </c>
-      <c r="X4" t="s">
+      <c r="AA4" t="s">
         <v>349</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="AB4" t="s">
         <v>399</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AC4" t="s">
         <v>614</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AD4" t="s">
+        <v>627</v>
+      </c>
+      <c r="AE4" t="s">
         <v>588</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AF4" t="s">
         <v>168</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AG4" t="s">
         <v>173</v>
       </c>
-      <c r="AD4" t="s">
-        <v>709</v>
-      </c>
-      <c r="AE4" t="s">
+      <c r="AH4" t="s">
+        <v>707</v>
+      </c>
+      <c r="AI4" t="s">
         <v>712</v>
       </c>
-      <c r="AF4" t="s">
-        <v>179</v>
-      </c>
-      <c r="AG4" t="s">
+      <c r="AJ4" t="s">
+        <v>355</v>
+      </c>
+      <c r="AK4" t="s">
         <v>414</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AL4" t="s">
         <v>224</v>
       </c>
     </row>
@@ -5769,69 +6375,84 @@
         <v>447</v>
       </c>
       <c r="G5" t="s">
+        <v>724</v>
+      </c>
+      <c r="H5" t="s">
         <v>423</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>531</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>448</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>471</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>345</v>
       </c>
-      <c r="L5" t="s">
-        <v>233</v>
+      <c r="M5" t="s">
+        <v>587</v>
       </c>
       <c r="N5" t="s">
+        <v>731</v>
+      </c>
+      <c r="P5" t="s">
         <v>85</v>
       </c>
-      <c r="O5" t="s">
+      <c r="Q5" t="s">
         <v>501</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="S5" t="s">
         <v>677</v>
       </c>
-      <c r="R5" t="s">
+      <c r="T5" t="s">
+        <v>615</v>
+      </c>
+      <c r="U5" t="s">
         <v>29</v>
       </c>
-      <c r="S5" t="s">
+      <c r="V5" t="s">
         <v>237</v>
       </c>
-      <c r="T5" t="s">
+      <c r="W5" t="s">
         <v>213</v>
       </c>
-      <c r="U5" t="s">
+      <c r="X5" t="s">
         <v>391</v>
       </c>
-      <c r="W5" t="s">
+      <c r="Z5" t="s">
         <v>413</v>
       </c>
-      <c r="X5" t="s">
+      <c r="AA5" t="s">
         <v>350</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AD5" t="s">
+        <v>628</v>
+      </c>
+      <c r="AE5" t="s">
         <v>537</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AF5" t="s">
         <v>169</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AG5" t="s">
         <v>599</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AH5" t="s">
+        <v>708</v>
+      </c>
+      <c r="AI5" t="s">
         <v>713</v>
       </c>
-      <c r="AF5" t="s">
-        <v>180</v>
-      </c>
-      <c r="AG5" t="s">
+      <c r="AJ5" t="s">
+        <v>179</v>
+      </c>
+      <c r="AK5" t="s">
         <v>415</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AL5" t="s">
         <v>225</v>
       </c>
     </row>
@@ -5849,69 +6470,84 @@
         <v>27</v>
       </c>
       <c r="G6" t="s">
+        <v>725</v>
+      </c>
+      <c r="H6" t="s">
         <v>469</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>330</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>436</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>513</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>607</v>
       </c>
-      <c r="L6" t="s">
-        <v>449</v>
+      <c r="M6" t="s">
+        <v>233</v>
       </c>
       <c r="N6" t="s">
+        <v>732</v>
+      </c>
+      <c r="P6" t="s">
         <v>28</v>
       </c>
-      <c r="O6" t="s">
+      <c r="Q6" t="s">
         <v>502</v>
       </c>
-      <c r="R6" t="s">
+      <c r="T6" t="s">
+        <v>593</v>
+      </c>
+      <c r="U6" t="s">
         <v>30</v>
       </c>
-      <c r="S6" t="s">
+      <c r="V6" t="s">
         <v>238</v>
       </c>
-      <c r="T6" t="s">
+      <c r="W6" t="s">
         <v>214</v>
       </c>
-      <c r="U6" t="s">
+      <c r="X6" t="s">
         <v>392</v>
       </c>
-      <c r="X6" t="s">
+      <c r="AA6" t="s">
         <v>352</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AD6" t="s">
+        <v>629</v>
+      </c>
+      <c r="AE6" t="s">
         <v>96</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AF6" t="s">
         <v>433</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AG6" t="s">
         <v>174</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AH6" t="s">
+        <v>709</v>
+      </c>
+      <c r="AI6" t="s">
         <v>714</v>
       </c>
-      <c r="AF6" t="s">
-        <v>181</v>
-      </c>
-      <c r="AG6" t="s">
+      <c r="AJ6" t="s">
+        <v>180</v>
+      </c>
+      <c r="AK6" t="s">
         <v>416</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AL6" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>718</v>
       </c>
       <c r="B7" t="s">
         <v>368</v>
@@ -5919,67 +6555,79 @@
       <c r="F7" t="s">
         <v>219</v>
       </c>
-      <c r="H7" t="s">
+      <c r="G7" t="s">
+        <v>726</v>
+      </c>
+      <c r="I7" t="s">
         <v>378</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>435</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>586</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>342</v>
       </c>
-      <c r="L7" t="s">
-        <v>671</v>
+      <c r="M7" t="s">
+        <v>449</v>
       </c>
       <c r="N7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P7" t="s">
         <v>309</v>
       </c>
-      <c r="O7" t="s">
+      <c r="Q7" t="s">
         <v>503</v>
       </c>
-      <c r="R7" t="s">
+      <c r="T7" t="s">
+        <v>101</v>
+      </c>
+      <c r="U7" t="s">
         <v>32</v>
       </c>
-      <c r="S7" t="s">
+      <c r="V7" t="s">
         <v>239</v>
       </c>
-      <c r="T7" t="s">
+      <c r="W7" t="s">
         <v>215</v>
       </c>
-      <c r="U7" t="s">
+      <c r="X7" t="s">
         <v>393</v>
       </c>
-      <c r="X7" t="s">
+      <c r="AA7" t="s">
         <v>351</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AD7" t="s">
+        <v>630</v>
+      </c>
+      <c r="AE7" t="s">
         <v>97</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AF7" t="s">
         <v>434</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AG7" t="s">
         <v>175</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AI7" t="s">
         <v>715</v>
       </c>
-      <c r="AF7" t="s">
-        <v>182</v>
-      </c>
-      <c r="AG7" t="s">
+      <c r="AJ7" t="s">
+        <v>803</v>
+      </c>
+      <c r="AK7" t="s">
         <v>417</v>
       </c>
-      <c r="AH7" t="s">
+      <c r="AL7" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
         <v>369</v>
@@ -5987,64 +6635,73 @@
       <c r="F8" t="s">
         <v>312</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>357</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>703</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>521</v>
       </c>
-      <c r="L8" t="s">
-        <v>70</v>
+      <c r="M8" t="s">
+        <v>671</v>
       </c>
       <c r="N8" t="s">
+        <v>733</v>
+      </c>
+      <c r="P8" t="s">
         <v>33</v>
       </c>
-      <c r="O8" t="s">
+      <c r="Q8" t="s">
         <v>504</v>
       </c>
-      <c r="R8" t="s">
+      <c r="T8" t="s">
+        <v>746</v>
+      </c>
+      <c r="U8" t="s">
         <v>89</v>
       </c>
-      <c r="S8" t="s">
+      <c r="V8" t="s">
         <v>240</v>
       </c>
-      <c r="T8" t="s">
+      <c r="W8" t="s">
         <v>381</v>
       </c>
-      <c r="U8" t="s">
+      <c r="X8" t="s">
         <v>394</v>
       </c>
-      <c r="X8" t="s">
+      <c r="AA8" t="s">
         <v>353</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AD8" t="s">
+        <v>631</v>
+      </c>
+      <c r="AE8" t="s">
         <v>98</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AF8" t="s">
         <v>170</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AG8" t="s">
         <v>176</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AI8" t="s">
         <v>716</v>
       </c>
-      <c r="AF8" t="s">
-        <v>183</v>
-      </c>
-      <c r="AG8" t="s">
+      <c r="AJ8" t="s">
+        <v>181</v>
+      </c>
+      <c r="AK8" t="s">
         <v>418</v>
       </c>
-      <c r="AH8" t="s">
+      <c r="AL8" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>370</v>
@@ -6052,1541 +6709,1870 @@
       <c r="F9" t="s">
         <v>31</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>358</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>322</v>
       </c>
-      <c r="L9" t="s">
-        <v>16</v>
+      <c r="M9" t="s">
+        <v>70</v>
       </c>
       <c r="N9" t="s">
+        <v>734</v>
+      </c>
+      <c r="P9" t="s">
         <v>34</v>
       </c>
-      <c r="O9" t="s">
+      <c r="Q9" t="s">
         <v>505</v>
       </c>
-      <c r="R9" t="s">
+      <c r="T9" t="s">
+        <v>73</v>
+      </c>
+      <c r="U9" t="s">
         <v>90</v>
       </c>
-      <c r="S9" t="s">
+      <c r="V9" t="s">
         <v>241</v>
       </c>
-      <c r="T9" t="s">
+      <c r="W9" t="s">
         <v>408</v>
       </c>
-      <c r="U9" t="s">
+      <c r="X9" t="s">
         <v>395</v>
       </c>
-      <c r="X9" t="s">
+      <c r="AA9" t="s">
         <v>354</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AD9" t="s">
+        <v>632</v>
+      </c>
+      <c r="AE9" t="s">
         <v>204</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AG9" t="s">
         <v>177</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AI9" t="s">
         <v>717</v>
       </c>
-      <c r="AF9" t="s">
-        <v>184</v>
-      </c>
-      <c r="AH9" t="s">
+      <c r="AJ9" t="s">
+        <v>182</v>
+      </c>
+      <c r="AL9" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F10" t="s">
         <v>309</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>300</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>323</v>
       </c>
-      <c r="L10" t="s">
-        <v>472</v>
+      <c r="M10" t="s">
+        <v>16</v>
       </c>
       <c r="N10" t="s">
+        <v>735</v>
+      </c>
+      <c r="P10" t="s">
         <v>35</v>
       </c>
-      <c r="O10" t="s">
+      <c r="Q10" t="s">
         <v>506</v>
       </c>
-      <c r="R10" t="s">
+      <c r="T10" t="s">
+        <v>747</v>
+      </c>
+      <c r="U10" t="s">
         <v>427</v>
       </c>
-      <c r="S10" t="s">
+      <c r="V10" t="s">
         <v>242</v>
       </c>
-      <c r="U10" t="s">
+      <c r="X10" t="s">
         <v>396</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AD10" t="s">
+        <v>633</v>
+      </c>
+      <c r="AE10" t="s">
         <v>251</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AG10" t="s">
         <v>600</v>
       </c>
-      <c r="AF10" t="s">
-        <v>185</v>
-      </c>
-      <c r="AH10" t="s">
+      <c r="AJ10" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL10" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>341</v>
+        <v>23</v>
       </c>
       <c r="F11" t="s">
         <v>669</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>346</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>601</v>
       </c>
-      <c r="L11" t="s">
-        <v>78</v>
+      <c r="M11" t="s">
+        <v>472</v>
       </c>
       <c r="N11" t="s">
+        <v>736</v>
+      </c>
+      <c r="P11" t="s">
         <v>458</v>
       </c>
-      <c r="O11" t="s">
+      <c r="Q11" t="s">
         <v>507</v>
       </c>
-      <c r="R11" t="s">
+      <c r="T11" t="s">
+        <v>480</v>
+      </c>
+      <c r="U11" t="s">
         <v>91</v>
       </c>
-      <c r="S11" t="s">
+      <c r="V11" t="s">
         <v>624</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AD11" t="s">
+        <v>634</v>
+      </c>
+      <c r="AE11" t="s">
         <v>252</v>
       </c>
-      <c r="AF11" t="s">
-        <v>253</v>
-      </c>
-      <c r="AH11" t="s">
+      <c r="AJ11" t="s">
+        <v>184</v>
+      </c>
+      <c r="AL11" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>341</v>
       </c>
       <c r="F12" t="s">
         <v>536</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>268</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>602</v>
       </c>
-      <c r="L12" t="s">
-        <v>37</v>
+      <c r="M12" t="s">
+        <v>78</v>
       </c>
       <c r="N12" t="s">
+        <v>737</v>
+      </c>
+      <c r="P12" t="s">
         <v>523</v>
       </c>
-      <c r="O12" t="s">
+      <c r="Q12" t="s">
         <v>609</v>
       </c>
-      <c r="R12" t="s">
+      <c r="T12" t="s">
+        <v>748</v>
+      </c>
+      <c r="U12" t="s">
         <v>40</v>
       </c>
-      <c r="S12" t="s">
+      <c r="V12" t="s">
         <v>243</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AD12" t="s">
+        <v>635</v>
+      </c>
+      <c r="AE12" t="s">
         <v>99</v>
       </c>
-      <c r="AF12" t="s">
-        <v>186</v>
-      </c>
-      <c r="AH12" t="s">
+      <c r="AJ12" t="s">
+        <v>185</v>
+      </c>
+      <c r="AL12" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>327</v>
+        <v>14</v>
       </c>
       <c r="F13" t="s">
         <v>313</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>257</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>440</v>
       </c>
-      <c r="L13" t="s">
-        <v>473</v>
+      <c r="M13" t="s">
+        <v>37</v>
       </c>
       <c r="N13" t="s">
+        <v>738</v>
+      </c>
+      <c r="P13" t="s">
         <v>426</v>
       </c>
-      <c r="O13" t="s">
+      <c r="Q13" t="s">
         <v>508</v>
       </c>
-      <c r="R13" t="s">
+      <c r="T13" t="s">
+        <v>749</v>
+      </c>
+      <c r="U13" t="s">
         <v>92</v>
       </c>
-      <c r="S13" t="s">
+      <c r="V13" t="s">
         <v>678</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AD13" t="s">
+        <v>636</v>
+      </c>
+      <c r="AE13" t="s">
         <v>320</v>
       </c>
-      <c r="AF13" t="s">
-        <v>187</v>
-      </c>
-      <c r="AH13" t="s">
+      <c r="AJ13" t="s">
+        <v>253</v>
+      </c>
+      <c r="AL13" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>719</v>
       </c>
       <c r="F14" t="s">
         <v>335</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>310</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>316</v>
       </c>
-      <c r="L14" t="s">
-        <v>380</v>
+      <c r="M14" t="s">
+        <v>473</v>
       </c>
       <c r="N14" t="s">
+        <v>739</v>
+      </c>
+      <c r="P14" t="s">
         <v>459</v>
       </c>
-      <c r="R14" t="s">
+      <c r="T14" t="s">
+        <v>750</v>
+      </c>
+      <c r="U14" t="s">
         <v>93</v>
       </c>
-      <c r="S14" t="s">
+      <c r="V14" t="s">
         <v>244</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AD14" t="s">
+        <v>637</v>
+      </c>
+      <c r="AE14" t="s">
         <v>100</v>
       </c>
-      <c r="AF14" t="s">
-        <v>188</v>
-      </c>
-      <c r="AH14" t="s">
+      <c r="AJ14" t="s">
+        <v>804</v>
+      </c>
+      <c r="AL14" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>494</v>
+        <v>327</v>
       </c>
       <c r="F15" t="s">
         <v>36</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>258</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>317</v>
       </c>
-      <c r="L15" t="s">
-        <v>17</v>
+      <c r="M15" t="s">
+        <v>380</v>
       </c>
       <c r="N15" t="s">
-        <v>38</v>
-      </c>
-      <c r="R15" t="s">
+        <v>740</v>
+      </c>
+      <c r="P15" t="s">
+        <v>742</v>
+      </c>
+      <c r="T15" t="s">
+        <v>751</v>
+      </c>
+      <c r="U15" t="s">
         <v>478</v>
       </c>
-      <c r="S15" t="s">
+      <c r="V15" t="s">
         <v>592</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AD15" t="s">
+        <v>638</v>
+      </c>
+      <c r="AE15" t="s">
         <v>615</v>
       </c>
-      <c r="AF15" t="s">
-        <v>189</v>
-      </c>
-      <c r="AH15" t="s">
+      <c r="AJ15" t="s">
+        <v>186</v>
+      </c>
+      <c r="AL15" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>464</v>
+        <v>24</v>
       </c>
       <c r="F16" t="s">
         <v>57</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>259</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>318</v>
       </c>
-      <c r="L16" t="s">
-        <v>41</v>
+      <c r="M16" t="s">
+        <v>17</v>
       </c>
       <c r="N16" t="s">
-        <v>527</v>
-      </c>
-      <c r="R16" t="s">
+        <v>741</v>
+      </c>
+      <c r="P16" t="s">
+        <v>38</v>
+      </c>
+      <c r="T16" t="s">
+        <v>752</v>
+      </c>
+      <c r="U16" t="s">
         <v>479</v>
       </c>
-      <c r="S16" t="s">
+      <c r="V16" t="s">
         <v>249</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AD16" t="s">
+        <v>639</v>
+      </c>
+      <c r="AE16" t="s">
         <v>593</v>
       </c>
-      <c r="AF16" t="s">
-        <v>190</v>
-      </c>
-      <c r="AH16" t="s">
+      <c r="AJ16" t="s">
+        <v>187</v>
+      </c>
+      <c r="AL16" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>191</v>
+        <v>494</v>
       </c>
       <c r="F17" t="s">
         <v>375</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>311</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>319</v>
       </c>
-      <c r="L17" t="s">
-        <v>474</v>
-      </c>
-      <c r="N17" t="s">
-        <v>39</v>
-      </c>
-      <c r="S17" t="s">
+      <c r="M17" t="s">
+        <v>41</v>
+      </c>
+      <c r="P17" t="s">
+        <v>527</v>
+      </c>
+      <c r="T17" t="s">
+        <v>75</v>
+      </c>
+      <c r="V17" t="s">
         <v>245</v>
       </c>
-      <c r="AA17" t="s">
-        <v>101</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>454</v>
-      </c>
-      <c r="AH17" t="s">
+      <c r="AD17" t="s">
+        <v>640</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>789</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>188</v>
+      </c>
+      <c r="AL17" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>464</v>
       </c>
       <c r="F18" t="s">
         <v>376</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>87</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>704</v>
       </c>
-      <c r="L18" t="s">
-        <v>79</v>
-      </c>
-      <c r="N18" t="s">
-        <v>42</v>
-      </c>
-      <c r="S18" t="s">
+      <c r="M18" t="s">
+        <v>474</v>
+      </c>
+      <c r="P18" t="s">
+        <v>39</v>
+      </c>
+      <c r="T18" t="s">
+        <v>753</v>
+      </c>
+      <c r="V18" t="s">
         <v>246</v>
       </c>
-      <c r="AA18" t="s">
+      <c r="AD18" t="s">
+        <v>641</v>
+      </c>
+      <c r="AE18" t="s">
         <v>73</v>
       </c>
-      <c r="AH18" t="s">
+      <c r="AJ18" t="s">
+        <v>189</v>
+      </c>
+      <c r="AL18" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>234</v>
+        <v>191</v>
       </c>
       <c r="F19" t="s">
         <v>683</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>88</v>
       </c>
-      <c r="L19" t="s">
-        <v>80</v>
-      </c>
-      <c r="S19" t="s">
+      <c r="M19" t="s">
+        <v>79</v>
+      </c>
+      <c r="P19" t="s">
+        <v>42</v>
+      </c>
+      <c r="T19" t="s">
+        <v>754</v>
+      </c>
+      <c r="V19" t="s">
         <v>679</v>
       </c>
-      <c r="AA19" t="s">
-        <v>480</v>
-      </c>
-      <c r="AH19" t="s">
+      <c r="AD19" t="s">
+        <v>642</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>790</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>190</v>
+      </c>
+      <c r="AL19" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>720</v>
       </c>
       <c r="F20" t="s">
         <v>684</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>290</v>
       </c>
-      <c r="L20" t="s">
-        <v>450</v>
-      </c>
-      <c r="S20" t="s">
+      <c r="M20" t="s">
+        <v>80</v>
+      </c>
+      <c r="T20" t="s">
+        <v>755</v>
+      </c>
+      <c r="V20" t="s">
         <v>247</v>
       </c>
-      <c r="AA20" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH20" t="s">
+      <c r="AD20" t="s">
+        <v>643</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>480</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>454</v>
+      </c>
+      <c r="AL20" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>386</v>
+        <v>50</v>
       </c>
       <c r="F21" t="s">
         <v>405</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>291</v>
       </c>
-      <c r="L21" t="s">
-        <v>81</v>
-      </c>
-      <c r="S21" t="s">
+      <c r="M21" t="s">
+        <v>450</v>
+      </c>
+      <c r="T21" t="s">
+        <v>756</v>
+      </c>
+      <c r="V21" t="s">
         <v>680</v>
       </c>
-      <c r="AA21" t="s">
-        <v>103</v>
-      </c>
-      <c r="AH21" t="s">
+      <c r="AD21" t="s">
+        <v>644</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>791</v>
+      </c>
+      <c r="AL21" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>402</v>
+        <v>234</v>
       </c>
       <c r="F22" t="s">
         <v>618</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>292</v>
       </c>
-      <c r="L22" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>104</v>
-      </c>
-      <c r="AH22" t="s">
+      <c r="M22" t="s">
+        <v>81</v>
+      </c>
+      <c r="T22" t="s">
+        <v>757</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>604</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL22" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>403</v>
+        <v>51</v>
       </c>
       <c r="F23" t="s">
         <v>619</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>293</v>
       </c>
-      <c r="L23" t="s">
-        <v>539</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>105</v>
-      </c>
-      <c r="AH23" t="s">
+      <c r="M23" t="s">
+        <v>82</v>
+      </c>
+      <c r="T23" t="s">
+        <v>758</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>783</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>103</v>
+      </c>
+      <c r="AL23" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>348</v>
+        <v>386</v>
       </c>
       <c r="F24" t="s">
         <v>620</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>284</v>
       </c>
-      <c r="L24" t="s">
-        <v>457</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>481</v>
-      </c>
-      <c r="AH24" t="s">
+      <c r="M24" t="s">
+        <v>539</v>
+      </c>
+      <c r="T24" t="s">
+        <v>759</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>645</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL24" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="F25" t="s">
         <v>58</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>273</v>
       </c>
-      <c r="L25" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>106</v>
-      </c>
-      <c r="AH25" t="s">
+      <c r="M25" t="s">
+        <v>457</v>
+      </c>
+      <c r="T25" t="s">
+        <v>760</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>646</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL25" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>608</v>
+        <v>403</v>
       </c>
       <c r="F26" t="s">
         <v>59</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>685</v>
       </c>
-      <c r="L26" t="s">
-        <v>382</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>705</v>
-      </c>
-      <c r="AH26" t="s">
+      <c r="M26" t="s">
+        <v>43</v>
+      </c>
+      <c r="T26" t="s">
+        <v>761</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>647</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>481</v>
+      </c>
+      <c r="AL26" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>348</v>
       </c>
       <c r="F27" t="s">
         <v>250</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>686</v>
       </c>
-      <c r="L27" t="s">
-        <v>623</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>528</v>
-      </c>
-      <c r="AH27" t="s">
+      <c r="M27" t="s">
+        <v>382</v>
+      </c>
+      <c r="T27" t="s">
+        <v>762</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>605</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL27" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>387</v>
       </c>
       <c r="F28" t="s">
         <v>621</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>74</v>
       </c>
-      <c r="L28" t="s">
-        <v>511</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>107</v>
+      <c r="M28" t="s">
+        <v>623</v>
+      </c>
+      <c r="T28" t="s">
+        <v>763</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>648</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>608</v>
       </c>
       <c r="F29" t="s">
         <v>524</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>276</v>
       </c>
-      <c r="L29" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>108</v>
+      <c r="M29" t="s">
+        <v>511</v>
+      </c>
+      <c r="T29" t="s">
+        <v>764</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>649</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>681</v>
+        <v>603</v>
       </c>
       <c r="F30" t="s">
         <v>60</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>260</v>
       </c>
-      <c r="L30" t="s">
-        <v>424</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>109</v>
+      <c r="M30" t="s">
+        <v>83</v>
+      </c>
+      <c r="T30" t="s">
+        <v>765</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>650</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>682</v>
+        <v>52</v>
       </c>
       <c r="F31" t="s">
         <v>315</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>277</v>
       </c>
-      <c r="L31" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>110</v>
+      <c r="M31" t="s">
+        <v>424</v>
+      </c>
+      <c r="T31" t="s">
+        <v>766</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>651</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F32" t="s">
         <v>61</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>278</v>
       </c>
-      <c r="L32" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>321</v>
+      <c r="M32" t="s">
+        <v>44</v>
+      </c>
+      <c r="T32" t="s">
+        <v>767</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>652</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>404</v>
+        <v>54</v>
       </c>
       <c r="F33" t="s">
         <v>437</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>211</v>
       </c>
-      <c r="AA33" t="s">
-        <v>111</v>
+      <c r="M33" t="s">
+        <v>45</v>
+      </c>
+      <c r="T33" t="s">
+        <v>768</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>653</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>222</v>
+        <v>681</v>
       </c>
       <c r="F34" t="s">
         <v>220</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>269</v>
       </c>
-      <c r="AA34" t="s">
-        <v>112</v>
+      <c r="T34" t="s">
+        <v>195</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>654</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="s">
+        <v>682</v>
+      </c>
       <c r="F35" t="s">
         <v>221</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>279</v>
       </c>
-      <c r="AA35" t="s">
-        <v>113</v>
+      <c r="T35" t="s">
+        <v>769</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>655</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="s">
+        <v>55</v>
+      </c>
       <c r="F36" t="s">
         <v>455</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>496</v>
       </c>
-      <c r="AA36" t="s">
-        <v>114</v>
+      <c r="T36" t="s">
+        <v>199</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>656</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="s">
+        <v>404</v>
+      </c>
       <c r="F37" t="s">
         <v>456</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>254</v>
       </c>
-      <c r="AA37" t="s">
-        <v>529</v>
+      <c r="T37" t="s">
+        <v>200</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>657</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="s">
+        <v>222</v>
+      </c>
       <c r="F38" t="s">
         <v>406</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>324</v>
       </c>
-      <c r="AA38" t="s">
-        <v>115</v>
+      <c r="T38" t="s">
+        <v>770</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>784</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" t="s">
         <v>62</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>301</v>
       </c>
-      <c r="AA39" t="s">
-        <v>116</v>
+      <c r="T39" t="s">
+        <v>771</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>658</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>792</v>
       </c>
     </row>
     <row r="40">
       <c r="F40" t="s">
         <v>63</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>255</v>
       </c>
-      <c r="AA40" t="s">
-        <v>205</v>
+      <c r="T40" t="s">
+        <v>772</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>659</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>793</v>
       </c>
     </row>
     <row r="41">
       <c r="F41" t="s">
         <v>64</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>302</v>
       </c>
-      <c r="AA41" t="s">
-        <v>117</v>
+      <c r="T41" t="s">
+        <v>773</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>785</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="42">
       <c r="F42" t="s">
         <v>65</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>261</v>
       </c>
-      <c r="AA42" t="s">
-        <v>332</v>
+      <c r="T42" t="s">
+        <v>774</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>786</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="43">
       <c r="F43" t="s">
         <v>66</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>687</v>
       </c>
-      <c r="AA43" t="s">
-        <v>428</v>
+      <c r="T43" t="s">
+        <v>775</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>787</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="44">
       <c r="F44" t="s">
         <v>67</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>76</v>
       </c>
-      <c r="AA44" t="s">
-        <v>538</v>
+      <c r="T44" t="s">
+        <v>776</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>788</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="45">
       <c r="F45" t="s">
         <v>68</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>207</v>
       </c>
-      <c r="AA45" t="s">
-        <v>383</v>
+      <c r="T45" t="s">
+        <v>777</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="46">
       <c r="F46" t="s">
         <v>69</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>525</v>
       </c>
-      <c r="AA46" t="s">
-        <v>118</v>
+      <c r="T46" t="s">
+        <v>778</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="47">
       <c r="F47" t="s">
         <v>622</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>283</v>
       </c>
-      <c r="AA47" t="s">
+      <c r="T47" t="s">
+        <v>779</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="I48" t="s">
+        <v>294</v>
+      </c>
+      <c r="T48" t="s">
+        <v>780</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="I49" t="s">
+        <v>295</v>
+      </c>
+      <c r="T49" t="s">
+        <v>781</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="I50" t="s">
+        <v>337</v>
+      </c>
+      <c r="T50" t="s">
+        <v>663</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="I51" t="s">
+        <v>336</v>
+      </c>
+      <c r="T51" t="s">
+        <v>782</v>
+      </c>
+      <c r="AE51" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="48">
-      <c r="H48" t="s">
-        <v>294</v>
-      </c>
-      <c r="AA48" t="s">
+    <row r="52">
+      <c r="I52" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE52" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="49">
-      <c r="H49" t="s">
-        <v>295</v>
-      </c>
-      <c r="AA49" t="s">
+    <row r="53">
+      <c r="I53" t="s">
+        <v>314</v>
+      </c>
+      <c r="AE53" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="50">
-      <c r="H50" t="s">
-        <v>337</v>
-      </c>
-      <c r="AA50" t="s">
+    <row r="54">
+      <c r="I54" t="s">
+        <v>688</v>
+      </c>
+      <c r="AE54" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="51">
-      <c r="H51" t="s">
-        <v>336</v>
-      </c>
-      <c r="AA51" t="s">
+    <row r="55">
+      <c r="I55" t="s">
+        <v>689</v>
+      </c>
+      <c r="AE55" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="52">
-      <c r="H52" t="s">
-        <v>206</v>
-      </c>
-      <c r="AA52" t="s">
+    <row r="56">
+      <c r="I56" t="s">
+        <v>690</v>
+      </c>
+      <c r="AE56" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="53">
-      <c r="H53" t="s">
-        <v>314</v>
-      </c>
-      <c r="AA53" t="s">
+    <row r="57">
+      <c r="I57" t="s">
+        <v>691</v>
+      </c>
+      <c r="AE57" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="54">
-      <c r="H54" t="s">
-        <v>688</v>
-      </c>
-      <c r="AA54" t="s">
+    <row r="58">
+      <c r="I58" t="s">
+        <v>333</v>
+      </c>
+      <c r="AE58" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="55">
-      <c r="H55" t="s">
-        <v>689</v>
-      </c>
-      <c r="AA55" t="s">
+    <row r="59">
+      <c r="I59" t="s">
+        <v>359</v>
+      </c>
+      <c r="AE59" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="56">
-      <c r="H56" t="s">
-        <v>690</v>
-      </c>
-      <c r="AA56" t="s">
+    <row r="60">
+      <c r="I60" t="s">
+        <v>296</v>
+      </c>
+      <c r="AE60" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="57">
-      <c r="H57" t="s">
-        <v>691</v>
-      </c>
-      <c r="AA57" t="s">
+    <row r="61">
+      <c r="I61" t="s">
+        <v>727</v>
+      </c>
+      <c r="AE61" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="58">
-      <c r="H58" t="s">
-        <v>333</v>
-      </c>
-      <c r="AA58" t="s">
+    <row r="62">
+      <c r="I62" t="s">
+        <v>728</v>
+      </c>
+      <c r="AE62" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="59">
-      <c r="H59" t="s">
-        <v>359</v>
-      </c>
-      <c r="AA59" t="s">
+    <row r="63">
+      <c r="I63" t="s">
+        <v>325</v>
+      </c>
+      <c r="AE63" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="I64" t="s">
+        <v>262</v>
+      </c>
+      <c r="AE64" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="60">
-      <c r="H60" t="s">
-        <v>296</v>
-      </c>
-      <c r="AA60" t="s">
+    <row r="65">
+      <c r="I65" t="s">
+        <v>286</v>
+      </c>
+      <c r="AE65" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="61">
-      <c r="H61" t="s">
-        <v>325</v>
-      </c>
-      <c r="AA61" t="s">
+    <row r="66">
+      <c r="I66" t="s">
+        <v>287</v>
+      </c>
+      <c r="AE66" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="62">
-      <c r="H62" t="s">
-        <v>262</v>
-      </c>
-      <c r="AA62" t="s">
+    <row r="67">
+      <c r="I67" t="s">
+        <v>526</v>
+      </c>
+      <c r="AE67" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="63">
-      <c r="H63" t="s">
-        <v>286</v>
-      </c>
-      <c r="AA63" t="s">
+    <row r="68">
+      <c r="I68" t="s">
+        <v>288</v>
+      </c>
+      <c r="AE68" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="64">
-      <c r="H64" t="s">
-        <v>287</v>
-      </c>
-      <c r="AA64" t="s">
+    <row r="69">
+      <c r="I69" t="s">
+        <v>692</v>
+      </c>
+      <c r="AE69" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="65">
-      <c r="H65" t="s">
-        <v>526</v>
-      </c>
-      <c r="AA65" t="s">
+    <row r="70">
+      <c r="I70" t="s">
+        <v>693</v>
+      </c>
+      <c r="AE70" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="66">
-      <c r="H66" t="s">
-        <v>288</v>
-      </c>
-      <c r="AA66" t="s">
+    <row r="71">
+      <c r="I71" t="s">
+        <v>694</v>
+      </c>
+      <c r="AE71" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="67">
-      <c r="H67" t="s">
-        <v>692</v>
-      </c>
-      <c r="AA67" t="s">
+    <row r="72">
+      <c r="I72" t="s">
+        <v>306</v>
+      </c>
+      <c r="AE72" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="68">
-      <c r="H68" t="s">
-        <v>693</v>
-      </c>
-      <c r="AA68" t="s">
+    <row r="73">
+      <c r="I73" t="s">
+        <v>695</v>
+      </c>
+      <c r="AE73" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="69">
-      <c r="H69" t="s">
-        <v>694</v>
-      </c>
-      <c r="AA69" t="s">
+    <row r="74">
+      <c r="I74" t="s">
+        <v>696</v>
+      </c>
+      <c r="AE74" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="70">
-      <c r="H70" t="s">
-        <v>306</v>
-      </c>
-      <c r="AA70" t="s">
+    <row r="75">
+      <c r="I75" t="s">
+        <v>331</v>
+      </c>
+      <c r="AE75" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="71">
-      <c r="H71" t="s">
-        <v>695</v>
-      </c>
-      <c r="AA71" t="s">
+    <row r="76">
+      <c r="I76" t="s">
+        <v>303</v>
+      </c>
+      <c r="AE76" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="72">
-      <c r="H72" t="s">
-        <v>696</v>
-      </c>
-      <c r="AA72" t="s">
+    <row r="77">
+      <c r="I77" t="s">
+        <v>304</v>
+      </c>
+      <c r="AE77" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="73">
-      <c r="H73" t="s">
-        <v>331</v>
-      </c>
-      <c r="AA73" t="s">
+    <row r="78">
+      <c r="I78" t="s">
+        <v>360</v>
+      </c>
+      <c r="AE78" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="74">
-      <c r="H74" t="s">
-        <v>303</v>
-      </c>
-      <c r="AA74" t="s">
+    <row r="79">
+      <c r="I79" t="s">
+        <v>361</v>
+      </c>
+      <c r="AE79" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="75">
-      <c r="H75" t="s">
-        <v>304</v>
-      </c>
-      <c r="AA75" t="s">
+    <row r="80">
+      <c r="I80" t="s">
+        <v>339</v>
+      </c>
+      <c r="AE80" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="76">
-      <c r="H76" t="s">
-        <v>360</v>
-      </c>
-      <c r="AA76" t="s">
+    <row r="81">
+      <c r="I81" t="s">
+        <v>307</v>
+      </c>
+      <c r="AE81" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="77">
-      <c r="H77" t="s">
-        <v>361</v>
-      </c>
-      <c r="AA77" t="s">
+    <row r="82">
+      <c r="I82" t="s">
+        <v>263</v>
+      </c>
+      <c r="AE82" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="78">
-      <c r="H78" t="s">
-        <v>339</v>
-      </c>
-      <c r="AA78" t="s">
+    <row r="83">
+      <c r="I83" t="s">
+        <v>512</v>
+      </c>
+      <c r="AE83" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="79">
-      <c r="H79" t="s">
-        <v>307</v>
-      </c>
-      <c r="AA79" t="s">
+    <row r="84">
+      <c r="I84" t="s">
+        <v>308</v>
+      </c>
+      <c r="AE84" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="80">
-      <c r="H80" t="s">
-        <v>263</v>
-      </c>
-      <c r="AA80" t="s">
+    <row r="85">
+      <c r="I85" t="s">
+        <v>400</v>
+      </c>
+      <c r="AE85" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="81">
-      <c r="H81" t="s">
-        <v>512</v>
-      </c>
-      <c r="AA81" t="s">
+    <row r="86">
+      <c r="I86" t="s">
+        <v>697</v>
+      </c>
+      <c r="AE86" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="82">
-      <c r="H82" t="s">
-        <v>308</v>
-      </c>
-      <c r="AA82" t="s">
+    <row r="87">
+      <c r="I87" t="s">
+        <v>698</v>
+      </c>
+      <c r="AE87" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="83">
-      <c r="H83" t="s">
-        <v>400</v>
-      </c>
-      <c r="AA83" t="s">
+    <row r="88">
+      <c r="I88" t="s">
+        <v>256</v>
+      </c>
+      <c r="AE88" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="84">
-      <c r="H84" t="s">
-        <v>697</v>
-      </c>
-      <c r="AA84" t="s">
+    <row r="89">
+      <c r="I89" t="s">
+        <v>497</v>
+      </c>
+      <c r="AE89" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="85">
-      <c r="H85" t="s">
-        <v>698</v>
-      </c>
-      <c r="AA85" t="s">
+    <row r="90">
+      <c r="I90" t="s">
+        <v>338</v>
+      </c>
+      <c r="AE90" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="86">
-      <c r="H86" t="s">
-        <v>256</v>
-      </c>
-      <c r="AA86" t="s">
+    <row r="91">
+      <c r="I91" t="s">
+        <v>274</v>
+      </c>
+      <c r="AE91" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="87">
-      <c r="H87" t="s">
-        <v>497</v>
-      </c>
-      <c r="AA87" t="s">
+    <row r="92">
+      <c r="I92" t="s">
+        <v>699</v>
+      </c>
+      <c r="AE92" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="88">
-      <c r="H88" t="s">
-        <v>338</v>
-      </c>
-      <c r="AA88" t="s">
+    <row r="93">
+      <c r="I93" t="s">
+        <v>700</v>
+      </c>
+      <c r="AE93" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="89">
-      <c r="H89" t="s">
-        <v>274</v>
-      </c>
-      <c r="AA89" t="s">
+    <row r="94">
+      <c r="I94" t="s">
+        <v>285</v>
+      </c>
+      <c r="AE94" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="90">
-      <c r="H90" t="s">
-        <v>699</v>
-      </c>
-      <c r="AA90" t="s">
+    <row r="95">
+      <c r="I95" t="s">
+        <v>419</v>
+      </c>
+      <c r="AE95" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="91">
-      <c r="H91" t="s">
-        <v>700</v>
-      </c>
-      <c r="AA91" t="s">
+    <row r="96">
+      <c r="I96" t="s">
+        <v>326</v>
+      </c>
+      <c r="AE96" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="92">
-      <c r="H92" t="s">
-        <v>285</v>
-      </c>
-      <c r="AA92" t="s">
+    <row r="97">
+      <c r="I97" t="s">
+        <v>264</v>
+      </c>
+      <c r="AE97" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="93">
-      <c r="H93" t="s">
-        <v>419</v>
-      </c>
-      <c r="AA93" t="s">
+    <row r="98">
+      <c r="I98" t="s">
+        <v>275</v>
+      </c>
+      <c r="AE98" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="94">
-      <c r="H94" t="s">
-        <v>326</v>
-      </c>
-      <c r="AA94" t="s">
+    <row r="99">
+      <c r="I99" t="s">
+        <v>281</v>
+      </c>
+      <c r="AE99" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="95">
-      <c r="H95" t="s">
-        <v>264</v>
-      </c>
-      <c r="AA95" t="s">
+    <row r="100">
+      <c r="I100" t="s">
+        <v>270</v>
+      </c>
+      <c r="AE100" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="96">
-      <c r="H96" t="s">
-        <v>275</v>
-      </c>
-      <c r="AA96" t="s">
+    <row r="101">
+      <c r="I101" t="s">
+        <v>514</v>
+      </c>
+      <c r="AE101" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="I102" t="s">
+        <v>265</v>
+      </c>
+      <c r="AE102" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="97">
-      <c r="H97" t="s">
-        <v>281</v>
-      </c>
-      <c r="AA97" t="s">
+    <row r="103">
+      <c r="I103" t="s">
+        <v>282</v>
+      </c>
+      <c r="AE103" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="98">
-      <c r="H98" t="s">
-        <v>270</v>
-      </c>
-      <c r="AA98" t="s">
+    <row r="104">
+      <c r="I104" t="s">
+        <v>701</v>
+      </c>
+      <c r="AE104" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="99">
-      <c r="H99" t="s">
-        <v>514</v>
-      </c>
-      <c r="AA99" t="s">
+    <row r="105">
+      <c r="I105" t="s">
+        <v>702</v>
+      </c>
+      <c r="AE105" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="100">
-      <c r="H100" t="s">
-        <v>265</v>
-      </c>
-      <c r="AA100" t="s">
+    <row r="106">
+      <c r="I106" t="s">
+        <v>266</v>
+      </c>
+      <c r="AE106" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="101">
-      <c r="H101" t="s">
-        <v>282</v>
-      </c>
-      <c r="AA101" t="s">
+    <row r="107">
+      <c r="I107" t="s">
+        <v>267</v>
+      </c>
+      <c r="AE107" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="102">
-      <c r="H102" t="s">
-        <v>701</v>
-      </c>
-      <c r="AA102" t="s">
+    <row r="108">
+      <c r="I108" t="s">
+        <v>299</v>
+      </c>
+      <c r="AE108" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="103">
-      <c r="H103" t="s">
-        <v>702</v>
-      </c>
-      <c r="AA103" t="s">
+    <row r="109">
+      <c r="I109" t="s">
+        <v>305</v>
+      </c>
+      <c r="AE109" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="104">
-      <c r="H104" t="s">
-        <v>266</v>
-      </c>
-      <c r="AA104" t="s">
+    <row r="110">
+      <c r="I110" t="s">
+        <v>289</v>
+      </c>
+      <c r="AE110" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="105">
-      <c r="H105" t="s">
-        <v>267</v>
-      </c>
-      <c r="AA105" t="s">
+    <row r="111">
+      <c r="I111" t="s">
+        <v>334</v>
+      </c>
+      <c r="AE111" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="106">
-      <c r="H106" t="s">
-        <v>299</v>
-      </c>
-      <c r="AA106" t="s">
+    <row r="112">
+      <c r="I112" t="s">
+        <v>271</v>
+      </c>
+      <c r="AE112" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="107">
-      <c r="H107" t="s">
-        <v>305</v>
-      </c>
-      <c r="AA107" t="s">
+    <row r="113">
+      <c r="I113" t="s">
+        <v>272</v>
+      </c>
+      <c r="AE113" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="108">
-      <c r="H108" t="s">
-        <v>289</v>
-      </c>
-      <c r="AA108" t="s">
+    <row r="114">
+      <c r="AE114" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="109">
-      <c r="H109" t="s">
-        <v>334</v>
-      </c>
-      <c r="AA109" t="s">
+    <row r="115">
+      <c r="AE115" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="110">
-      <c r="H110" t="s">
-        <v>271</v>
-      </c>
-      <c r="AA110" t="s">
+    <row r="116">
+      <c r="AE116" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="111">
-      <c r="H111" t="s">
-        <v>272</v>
-      </c>
-      <c r="AA111" t="s">
+    <row r="117">
+      <c r="AE117" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="112">
-      <c r="AA112" t="s">
+    <row r="118">
+      <c r="AE118" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="113">
-      <c r="AA113" t="s">
+    <row r="119">
+      <c r="AE119" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="114">
-      <c r="AA114" t="s">
+    <row r="120">
+      <c r="AE120" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="115">
-      <c r="AA115" t="s">
+    <row r="121">
+      <c r="AE121" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="116">
-      <c r="AA116" t="s">
+    <row r="122">
+      <c r="AE122" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="117">
-      <c r="AA117" t="s">
+    <row r="123">
+      <c r="AE123" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="118">
-      <c r="AA118" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="AA119" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="AA120" t="s">
+    <row r="124">
+      <c r="AE124" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="121">
-      <c r="AA121" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="AA122" t="s">
+    <row r="125">
+      <c r="AE125" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="123">
-      <c r="AA123" t="s">
+    <row r="126">
+      <c r="AE126" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="124">
-      <c r="AA124" t="s">
+    <row r="127">
+      <c r="AE127" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="125">
-      <c r="AA125" t="s">
+    <row r="128">
+      <c r="AE128" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="AE129" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="126">
-      <c r="AA126" t="s">
+    <row r="130">
+      <c r="AE130" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="127">
-      <c r="AA127" t="s">
+    <row r="131">
+      <c r="AE131" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="128">
-      <c r="AA128" t="s">
+    <row r="132">
+      <c r="AE132" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="129">
-      <c r="AA129" t="s">
+    <row r="133">
+      <c r="AE133" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="130">
-      <c r="AA130" t="s">
+    <row r="134">
+      <c r="AE134" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="131">
-      <c r="AA131" t="s">
+    <row r="135">
+      <c r="AE135" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="132">
-      <c r="AA132" t="s">
+    <row r="136">
+      <c r="AE136" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="133">
-      <c r="AA133" t="s">
+    <row r="137">
+      <c r="AE137" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="134">
-      <c r="AA134" t="s">
+    <row r="138">
+      <c r="AE138" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="135">
-      <c r="AA135" t="s">
+    <row r="139">
+      <c r="AE139" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="AE140" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="136">
-      <c r="AA136" t="s">
+    <row r="141">
+      <c r="AE141" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="137">
-      <c r="AA137" t="s">
+    <row r="142">
+      <c r="AE142" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="138">
-      <c r="AA138" t="s">
+    <row r="143">
+      <c r="AE143" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="139">
-      <c r="AA139" t="s">
+    <row r="144">
+      <c r="AE144" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="140">
-      <c r="AA140" t="s">
+    <row r="145">
+      <c r="AE145" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="141">
-      <c r="AA141" t="s">
+    <row r="146">
+      <c r="AE146" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="142">
-      <c r="AA142" t="s">
+    <row r="147">
+      <c r="AE147" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="143">
-      <c r="AA143" t="s">
+    <row r="148">
+      <c r="AE148" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="144">
-      <c r="AA144" t="s">
+    <row r="149">
+      <c r="AE149" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="145">
-      <c r="AA145" t="s">
+    <row r="150">
+      <c r="AE150" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="146">
-      <c r="AA146" t="s">
+    <row r="151">
+      <c r="AE151" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="AE152" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="147">
-      <c r="AA147" t="s">
+    <row r="153">
+      <c r="AE153" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="148">
-      <c r="AA148" t="s">
+    <row r="154">
+      <c r="AE154" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="149">
-      <c r="AA149" t="s">
+    <row r="155">
+      <c r="AE155" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="150">
-      <c r="AA150" t="s">
+    <row r="156">
+      <c r="AE156" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="151">
-      <c r="AA151" t="s">
+    <row r="157">
+      <c r="AE157" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="152">
-      <c r="AA152" t="s">
+    <row r="158">
+      <c r="AE158" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="153">
-      <c r="AA153" t="s">
+    <row r="159">
+      <c r="AE159" t="s">
         <v>667</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="AE160" t="s">
+        <v>799</v>
       </c>
     </row>
   </sheetData>
